--- a/personal/buffer-calculator/Buffer_Calculators.xlsx
+++ b/personal/buffer-calculator/Buffer_Calculators.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uofutah-my.sharepoint.com/personal/u1361811_umail_utah_edu/Documents/00_ShawLabWrapUp/02_Resources_Reagent_etc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="250" documentId="8_{A197ED6C-CD2A-4470-A12F-EDD9EBEDE6F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9B7ACC32-39DD-4476-8713-74875B360D55}"/>
+  <xr:revisionPtr revIDLastSave="252" documentId="8_{A197ED6C-CD2A-4470-A12F-EDD9EBEDE6F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1F7151EC-5211-4DF4-907A-7064F33D760B}"/>
   <bookViews>
-    <workbookView xWindow="1470" yWindow="0" windowWidth="25035" windowHeight="15480" activeTab="1" xr2:uid="{FDA63F11-1430-4B1F-9E68-DBD66DB81675}"/>
+    <workbookView xWindow="1875" yWindow="195" windowWidth="25035" windowHeight="15480" activeTab="1" xr2:uid="{FDA63F11-1430-4B1F-9E68-DBD66DB81675}"/>
   </bookViews>
   <sheets>
     <sheet name="Buffer Master" sheetId="2" r:id="rId1"/>
@@ -158,12 +158,6 @@
     <t>NA</t>
   </si>
   <si>
-    <t>Standardized Stock Value</t>
-  </si>
-  <si>
-    <t>Standardized Base Unit</t>
-  </si>
-  <si>
     <t xml:space="preserve">   </t>
   </si>
   <si>
@@ -270,6 +264,12 @@
   </si>
   <si>
     <t>Chemical</t>
+  </si>
+  <si>
+    <t>Standard Stock Value</t>
+  </si>
+  <si>
+    <t>Standard Base Unit</t>
   </si>
 </sst>
 </file>
@@ -656,23 +656,23 @@
     <tableColumn id="3" xr3:uid="{37225784-57C7-4DE2-841A-3FFF64FA1D22}" name="MW (g/mol)" dataDxfId="9"/>
     <tableColumn id="4" xr3:uid="{F542CF92-ADF3-45CD-AB3C-DE271B5953BD}" name="Stock Value" dataDxfId="8"/>
     <tableColumn id="5" xr3:uid="{99549813-3009-4EE5-AE2A-D379B9A85C40}" name="Stock Unit" dataDxfId="7"/>
-    <tableColumn id="6" xr3:uid="{F4C952E6-15F9-4A44-AD12-EBAC4FED40CF}" name="Standardized Stock Value" dataDxfId="6">
+    <tableColumn id="6" xr3:uid="{F4C952E6-15F9-4A44-AD12-EBAC4FED40CF}" name="Standard Stock Value" dataDxfId="6">
       <calculatedColumnFormula array="1">_xlfn.IFS(Table1[[#This Row],[Stock Unit]]="NA","NA",Table1[[#This Row],[Stock Unit]]="g/mol",Table1[[#This Row],[MW (g/mol)]],Table1[[#This Row],[Stock Unit]]="M",Table1[[#This Row],[Stock Value]],Table1[[#This Row],[Stock Unit]]="mM",Table1[[#This Row],[Stock Value]]/1000,Table1[[#This Row],[Stock Unit]]="%",Table1[[#This Row],[Stock Value]],Table1[[#This Row],[Stock Unit]]="X",Table1[[#This Row],[Stock Value]],Table1[[#This Row],[Stock Unit]]="µM",Table1[[#This Row],[Stock Value]]/1000000,Table1[[#This Row],[Stock Unit]]="mg/mL",Table1[[#This Row],[Stock Value]],TRUE,"!!!")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{B9923030-9EEF-4C19-B65D-00F03674A7A0}" name="Standardized Base Unit" dataDxfId="5">
+    <tableColumn id="7" xr3:uid="{B9923030-9EEF-4C19-B65D-00F03674A7A0}" name="Standard Base Unit" dataDxfId="5">
       <calculatedColumnFormula array="1">_xlfn.IFS(Table1[[#This Row],[Stock Unit]]="g/mol","g/mol",Table1[[#This Row],[Stock Unit]]="NA","NA",Table1[[#This Row],[Stock Unit]]="M","M",Table1[[#This Row],[Stock Unit]]="%","%",Table1[[#This Row],[Stock Unit]]="X","X", Table1[[#This Row],[Stock Unit]]="mg/mL", "mg/mL", TRUE,"!!!")</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="10" xr3:uid="{B667BD9F-C044-473B-BAF1-C3441DB9481C}" name="Target Value" dataDxfId="4"/>
     <tableColumn id="8" xr3:uid="{43B76829-AC88-46C6-848A-119468073336}" name="Target Unit" dataDxfId="3"/>
     <tableColumn id="12" xr3:uid="{D5EAE0B3-4609-45C2-BB23-269109C20ECD}" name="Amount Needed" dataDxfId="2">
-      <calculatedColumnFormula array="1">_xlfn.IFS(Table1[[#This Row],[Standardized Base Unit]]=Table1[[#This Row],[Target Unit]],Table1[[#This Row],[Standardized Stock Value]]/Table1[[#This Row],[Target Value]],
-SUBSTITUTE(Table1[[#This Row],[Target Unit]],Table1[[#This Row],[Standardized Base Unit]],"")="m",Table1[[#This Row],[Standardized Stock Value]]/Table1[[#This Row],[Target Value]]*1000,
-SUBSTITUTE(Table1[[#This Row],[Target Unit]],Table1[[#This Row],[Standardized Base Unit]],"")="µ",Table1[[#This Row],[Standardized Stock Value]]/Table1[[#This Row],[Target Value]]*1000000,
-SUBSTITUTE(Table1[[#This Row],[Target Unit]],Table1[[#This Row],[Standardized Base Unit]],"")="n",Table1[[#This Row],[Standardized Stock Value]]/Table1[[#This Row],[Target Value]]*1000000000,
-SUBSTITUTE(Table1[[#This Row],[Target Unit]],Table1[[#This Row],[Standardized Base Unit]],"")="p",Table1[[#This Row],[Standardized Stock Value]]/Table1[[#This Row],[Target Value]]*1000000000000,
-AND(Table1[[#This Row],[Format]]="Powder",Table1[[#This Row],[Target Unit]]="M"),Table1[[#This Row],[Standardized Stock Value]]*Table1[[#This Row],[Target Value]],
-AND(Table1[[#This Row],[Format]]="Powder",Table1[[#This Row],[Target Unit]]="mM"),Table1[[#This Row],[Standardized Stock Value]]*Table1[[#This Row],[Target Value]]/1000,
-AND(Table1[[#This Row],[Format]]="Powder",Table1[[#This Row],[Target Unit]]="µM"),Table1[[#This Row],[Standardized Stock Value]]*Table1[[#This Row],[Target Value]]/1000000,
+      <calculatedColumnFormula array="1">_xlfn.IFS(Table1[[#This Row],[Standard Base Unit]]=Table1[[#This Row],[Target Unit]],Table1[[#This Row],[Standard Stock Value]]/Table1[[#This Row],[Target Value]],
+SUBSTITUTE(Table1[[#This Row],[Target Unit]],Table1[[#This Row],[Standard Base Unit]],"")="m",Table1[[#This Row],[Standard Stock Value]]/Table1[[#This Row],[Target Value]]*1000,
+SUBSTITUTE(Table1[[#This Row],[Target Unit]],Table1[[#This Row],[Standard Base Unit]],"")="µ",Table1[[#This Row],[Standard Stock Value]]/Table1[[#This Row],[Target Value]]*1000000,
+SUBSTITUTE(Table1[[#This Row],[Target Unit]],Table1[[#This Row],[Standard Base Unit]],"")="n",Table1[[#This Row],[Standard Stock Value]]/Table1[[#This Row],[Target Value]]*1000000000,
+SUBSTITUTE(Table1[[#This Row],[Target Unit]],Table1[[#This Row],[Standard Base Unit]],"")="p",Table1[[#This Row],[Standard Stock Value]]/Table1[[#This Row],[Target Value]]*1000000000000,
+AND(Table1[[#This Row],[Format]]="Powder",Table1[[#This Row],[Target Unit]]="M"),Table1[[#This Row],[Standard Stock Value]]*Table1[[#This Row],[Target Value]],
+AND(Table1[[#This Row],[Format]]="Powder",Table1[[#This Row],[Target Unit]]="mM"),Table1[[#This Row],[Standard Stock Value]]*Table1[[#This Row],[Target Value]]/1000,
+AND(Table1[[#This Row],[Format]]="Powder",Table1[[#This Row],[Target Unit]]="µM"),Table1[[#This Row],[Standard Stock Value]]*Table1[[#This Row],[Target Value]]/1000000,
 AND(Table1[[#This Row],[Format]]="Powder",Table1[[#This Row],[Target Unit]]="% (w/v)"),Table1[[#This Row],[Target Value]]*10,
 TRUE, "!!!")</calculatedColumnFormula>
     </tableColumn>
@@ -1008,40 +1008,40 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B2" s="21">
         <v>46076</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B3" s="21">
         <v>46076</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B4" s="21">
         <v>46076</v>
@@ -1049,13 +1049,13 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B5" s="21">
         <v>46076</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -1071,7 +1071,7 @@
   <dimension ref="A1:M35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1092,12 +1092,12 @@
     <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="2" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>0</v>
@@ -1112,22 +1112,22 @@
         <v>3</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>30</v>
+        <v>66</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>31</v>
+        <v>67</v>
       </c>
       <c r="I1" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="L1" s="8" t="s">
         <v>36</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="K1" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="L1" s="8" t="s">
-        <v>38</v>
       </c>
       <c r="M1" s="2" t="s">
         <v>4</v>
@@ -1135,10 +1135,10 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>5</v>
@@ -1150,7 +1150,7 @@
         <v>29</v>
       </c>
       <c r="F2" s="23" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G2" s="10" cm="1">
         <f t="array" ref="G2">_xlfn.IFS(Table1[[#This Row],[Stock Unit]]="NA","NA",Table1[[#This Row],[Stock Unit]]="g/mol",Table1[[#This Row],[MW (g/mol)]],Table1[[#This Row],[Stock Unit]]="M",Table1[[#This Row],[Stock Value]],Table1[[#This Row],[Stock Unit]]="mM",Table1[[#This Row],[Stock Value]]/1000,Table1[[#This Row],[Stock Unit]]="%",Table1[[#This Row],[Stock Value]],Table1[[#This Row],[Stock Unit]]="X",Table1[[#This Row],[Stock Value]],Table1[[#This Row],[Stock Unit]]="µM",Table1[[#This Row],[Stock Value]]/1000000,Table1[[#This Row],[Stock Unit]]="mg/mL",Table1[[#This Row],[Stock Value]],TRUE,"!!!")</f>
@@ -1167,14 +1167,14 @@
         <v>6</v>
       </c>
       <c r="K2" s="19" cm="1">
-        <f t="array" ref="K2">_xlfn.IFS(Table1[[#This Row],[Standardized Base Unit]]=Table1[[#This Row],[Target Unit]],Table1[[#This Row],[Standardized Stock Value]]/Table1[[#This Row],[Target Value]],
-SUBSTITUTE(Table1[[#This Row],[Target Unit]],Table1[[#This Row],[Standardized Base Unit]],"")="m",Table1[[#This Row],[Standardized Stock Value]]/Table1[[#This Row],[Target Value]]*1000,
-SUBSTITUTE(Table1[[#This Row],[Target Unit]],Table1[[#This Row],[Standardized Base Unit]],"")="µ",Table1[[#This Row],[Standardized Stock Value]]/Table1[[#This Row],[Target Value]]*1000000,
-SUBSTITUTE(Table1[[#This Row],[Target Unit]],Table1[[#This Row],[Standardized Base Unit]],"")="n",Table1[[#This Row],[Standardized Stock Value]]/Table1[[#This Row],[Target Value]]*1000000000,
-SUBSTITUTE(Table1[[#This Row],[Target Unit]],Table1[[#This Row],[Standardized Base Unit]],"")="p",Table1[[#This Row],[Standardized Stock Value]]/Table1[[#This Row],[Target Value]]*1000000000000,
-AND(Table1[[#This Row],[Format]]="Powder",Table1[[#This Row],[Target Unit]]="M"),Table1[[#This Row],[Standardized Stock Value]]*Table1[[#This Row],[Target Value]],
-AND(Table1[[#This Row],[Format]]="Powder",Table1[[#This Row],[Target Unit]]="mM"),Table1[[#This Row],[Standardized Stock Value]]*Table1[[#This Row],[Target Value]]/1000,
-AND(Table1[[#This Row],[Format]]="Powder",Table1[[#This Row],[Target Unit]]="µM"),Table1[[#This Row],[Standardized Stock Value]]*Table1[[#This Row],[Target Value]]/1000000,
+        <f t="array" ref="K2">_xlfn.IFS(Table1[[#This Row],[Standard Base Unit]]=Table1[[#This Row],[Target Unit]],Table1[[#This Row],[Standard Stock Value]]/Table1[[#This Row],[Target Value]],
+SUBSTITUTE(Table1[[#This Row],[Target Unit]],Table1[[#This Row],[Standard Base Unit]],"")="m",Table1[[#This Row],[Standard Stock Value]]/Table1[[#This Row],[Target Value]]*1000,
+SUBSTITUTE(Table1[[#This Row],[Target Unit]],Table1[[#This Row],[Standard Base Unit]],"")="µ",Table1[[#This Row],[Standard Stock Value]]/Table1[[#This Row],[Target Value]]*1000000,
+SUBSTITUTE(Table1[[#This Row],[Target Unit]],Table1[[#This Row],[Standard Base Unit]],"")="n",Table1[[#This Row],[Standard Stock Value]]/Table1[[#This Row],[Target Value]]*1000000000,
+SUBSTITUTE(Table1[[#This Row],[Target Unit]],Table1[[#This Row],[Standard Base Unit]],"")="p",Table1[[#This Row],[Standard Stock Value]]/Table1[[#This Row],[Target Value]]*1000000000000,
+AND(Table1[[#This Row],[Format]]="Powder",Table1[[#This Row],[Target Unit]]="M"),Table1[[#This Row],[Standard Stock Value]]*Table1[[#This Row],[Target Value]],
+AND(Table1[[#This Row],[Format]]="Powder",Table1[[#This Row],[Target Unit]]="mM"),Table1[[#This Row],[Standard Stock Value]]*Table1[[#This Row],[Target Value]]/1000,
+AND(Table1[[#This Row],[Format]]="Powder",Table1[[#This Row],[Target Unit]]="µM"),Table1[[#This Row],[Standard Stock Value]]*Table1[[#This Row],[Target Value]]/1000000,
 AND(Table1[[#This Row],[Format]]="Powder",Table1[[#This Row],[Target Unit]]="% (w/v)"),Table1[[#This Row],[Target Value]]*10,
 TRUE, "!!!")</f>
         <v>6.8959200000000003</v>
@@ -1186,10 +1186,10 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>5</v>
@@ -1201,7 +1201,7 @@
         <v>29</v>
       </c>
       <c r="F3" s="23" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G3" s="12" cm="1">
         <f t="array" ref="G3">_xlfn.IFS(Table1[[#This Row],[Stock Unit]]="NA","NA",Table1[[#This Row],[Stock Unit]]="g/mol",Table1[[#This Row],[MW (g/mol)]],Table1[[#This Row],[Stock Unit]]="M",Table1[[#This Row],[Stock Value]],Table1[[#This Row],[Stock Unit]]="mM",Table1[[#This Row],[Stock Value]]/1000,Table1[[#This Row],[Stock Unit]]="%",Table1[[#This Row],[Stock Value]],Table1[[#This Row],[Stock Unit]]="X",Table1[[#This Row],[Stock Value]],Table1[[#This Row],[Stock Unit]]="µM",Table1[[#This Row],[Stock Value]]/1000000,Table1[[#This Row],[Stock Unit]]="mg/mL",Table1[[#This Row],[Stock Value]],TRUE,"!!!")</f>
@@ -1218,14 +1218,14 @@
         <v>6</v>
       </c>
       <c r="K3" s="19" cm="1">
-        <f t="array" ref="K3">_xlfn.IFS(Table1[[#This Row],[Standardized Base Unit]]=Table1[[#This Row],[Target Unit]],Table1[[#This Row],[Standardized Stock Value]]/Table1[[#This Row],[Target Value]],
-SUBSTITUTE(Table1[[#This Row],[Target Unit]],Table1[[#This Row],[Standardized Base Unit]],"")="m",Table1[[#This Row],[Standardized Stock Value]]/Table1[[#This Row],[Target Value]]*1000,
-SUBSTITUTE(Table1[[#This Row],[Target Unit]],Table1[[#This Row],[Standardized Base Unit]],"")="µ",Table1[[#This Row],[Standardized Stock Value]]/Table1[[#This Row],[Target Value]]*1000000,
-SUBSTITUTE(Table1[[#This Row],[Target Unit]],Table1[[#This Row],[Standardized Base Unit]],"")="n",Table1[[#This Row],[Standardized Stock Value]]/Table1[[#This Row],[Target Value]]*1000000000,
-SUBSTITUTE(Table1[[#This Row],[Target Unit]],Table1[[#This Row],[Standardized Base Unit]],"")="p",Table1[[#This Row],[Standardized Stock Value]]/Table1[[#This Row],[Target Value]]*1000000000000,
-AND(Table1[[#This Row],[Format]]="Powder",Table1[[#This Row],[Target Unit]]="M"),Table1[[#This Row],[Standardized Stock Value]]*Table1[[#This Row],[Target Value]],
-AND(Table1[[#This Row],[Format]]="Powder",Table1[[#This Row],[Target Unit]]="mM"),Table1[[#This Row],[Standardized Stock Value]]*Table1[[#This Row],[Target Value]]/1000,
-AND(Table1[[#This Row],[Format]]="Powder",Table1[[#This Row],[Target Unit]]="µM"),Table1[[#This Row],[Standardized Stock Value]]*Table1[[#This Row],[Target Value]]/1000000,
+        <f t="array" ref="K3">_xlfn.IFS(Table1[[#This Row],[Standard Base Unit]]=Table1[[#This Row],[Target Unit]],Table1[[#This Row],[Standard Stock Value]]/Table1[[#This Row],[Target Value]],
+SUBSTITUTE(Table1[[#This Row],[Target Unit]],Table1[[#This Row],[Standard Base Unit]],"")="m",Table1[[#This Row],[Standard Stock Value]]/Table1[[#This Row],[Target Value]]*1000,
+SUBSTITUTE(Table1[[#This Row],[Target Unit]],Table1[[#This Row],[Standard Base Unit]],"")="µ",Table1[[#This Row],[Standard Stock Value]]/Table1[[#This Row],[Target Value]]*1000000,
+SUBSTITUTE(Table1[[#This Row],[Target Unit]],Table1[[#This Row],[Standard Base Unit]],"")="n",Table1[[#This Row],[Standard Stock Value]]/Table1[[#This Row],[Target Value]]*1000000000,
+SUBSTITUTE(Table1[[#This Row],[Target Unit]],Table1[[#This Row],[Standard Base Unit]],"")="p",Table1[[#This Row],[Standard Stock Value]]/Table1[[#This Row],[Target Value]]*1000000000000,
+AND(Table1[[#This Row],[Format]]="Powder",Table1[[#This Row],[Target Unit]]="M"),Table1[[#This Row],[Standard Stock Value]]*Table1[[#This Row],[Target Value]],
+AND(Table1[[#This Row],[Format]]="Powder",Table1[[#This Row],[Target Unit]]="mM"),Table1[[#This Row],[Standard Stock Value]]*Table1[[#This Row],[Target Value]]/1000,
+AND(Table1[[#This Row],[Format]]="Powder",Table1[[#This Row],[Target Unit]]="µM"),Table1[[#This Row],[Standard Stock Value]]*Table1[[#This Row],[Target Value]]/1000000,
 AND(Table1[[#This Row],[Format]]="Powder",Table1[[#This Row],[Target Unit]]="% (w/v)"),Table1[[#This Row],[Target Value]]*10,
 TRUE, "!!!")</f>
         <v>0.350385</v>
@@ -1237,10 +1237,10 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>5</v>
@@ -1252,7 +1252,7 @@
         <v>29</v>
       </c>
       <c r="F4" s="23" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G4" s="12" cm="1">
         <f t="array" ref="G4">_xlfn.IFS(Table1[[#This Row],[Stock Unit]]="NA","NA",Table1[[#This Row],[Stock Unit]]="g/mol",Table1[[#This Row],[MW (g/mol)]],Table1[[#This Row],[Stock Unit]]="M",Table1[[#This Row],[Stock Value]],Table1[[#This Row],[Stock Unit]]="mM",Table1[[#This Row],[Stock Value]]/1000,Table1[[#This Row],[Stock Unit]]="%",Table1[[#This Row],[Stock Value]],Table1[[#This Row],[Stock Unit]]="X",Table1[[#This Row],[Stock Value]],Table1[[#This Row],[Stock Unit]]="µM",Table1[[#This Row],[Stock Value]]/1000000,Table1[[#This Row],[Stock Unit]]="mg/mL",Table1[[#This Row],[Stock Value]],TRUE,"!!!")</f>
@@ -1269,14 +1269,14 @@
         <v>6</v>
       </c>
       <c r="K4" s="19" cm="1">
-        <f t="array" ref="K4">_xlfn.IFS(Table1[[#This Row],[Standardized Base Unit]]=Table1[[#This Row],[Target Unit]],Table1[[#This Row],[Standardized Stock Value]]/Table1[[#This Row],[Target Value]],
-SUBSTITUTE(Table1[[#This Row],[Target Unit]],Table1[[#This Row],[Standardized Base Unit]],"")="m",Table1[[#This Row],[Standardized Stock Value]]/Table1[[#This Row],[Target Value]]*1000,
-SUBSTITUTE(Table1[[#This Row],[Target Unit]],Table1[[#This Row],[Standardized Base Unit]],"")="µ",Table1[[#This Row],[Standardized Stock Value]]/Table1[[#This Row],[Target Value]]*1000000,
-SUBSTITUTE(Table1[[#This Row],[Target Unit]],Table1[[#This Row],[Standardized Base Unit]],"")="n",Table1[[#This Row],[Standardized Stock Value]]/Table1[[#This Row],[Target Value]]*1000000000,
-SUBSTITUTE(Table1[[#This Row],[Target Unit]],Table1[[#This Row],[Standardized Base Unit]],"")="p",Table1[[#This Row],[Standardized Stock Value]]/Table1[[#This Row],[Target Value]]*1000000000000,
-AND(Table1[[#This Row],[Format]]="Powder",Table1[[#This Row],[Target Unit]]="M"),Table1[[#This Row],[Standardized Stock Value]]*Table1[[#This Row],[Target Value]],
-AND(Table1[[#This Row],[Format]]="Powder",Table1[[#This Row],[Target Unit]]="mM"),Table1[[#This Row],[Standardized Stock Value]]*Table1[[#This Row],[Target Value]]/1000,
-AND(Table1[[#This Row],[Format]]="Powder",Table1[[#This Row],[Target Unit]]="µM"),Table1[[#This Row],[Standardized Stock Value]]*Table1[[#This Row],[Target Value]]/1000000,
+        <f t="array" ref="K4">_xlfn.IFS(Table1[[#This Row],[Standard Base Unit]]=Table1[[#This Row],[Target Unit]],Table1[[#This Row],[Standard Stock Value]]/Table1[[#This Row],[Target Value]],
+SUBSTITUTE(Table1[[#This Row],[Target Unit]],Table1[[#This Row],[Standard Base Unit]],"")="m",Table1[[#This Row],[Standard Stock Value]]/Table1[[#This Row],[Target Value]]*1000,
+SUBSTITUTE(Table1[[#This Row],[Target Unit]],Table1[[#This Row],[Standard Base Unit]],"")="µ",Table1[[#This Row],[Standard Stock Value]]/Table1[[#This Row],[Target Value]]*1000000,
+SUBSTITUTE(Table1[[#This Row],[Target Unit]],Table1[[#This Row],[Standard Base Unit]],"")="n",Table1[[#This Row],[Standard Stock Value]]/Table1[[#This Row],[Target Value]]*1000000000,
+SUBSTITUTE(Table1[[#This Row],[Target Unit]],Table1[[#This Row],[Standard Base Unit]],"")="p",Table1[[#This Row],[Standard Stock Value]]/Table1[[#This Row],[Target Value]]*1000000000000,
+AND(Table1[[#This Row],[Format]]="Powder",Table1[[#This Row],[Target Unit]]="M"),Table1[[#This Row],[Standard Stock Value]]*Table1[[#This Row],[Target Value]],
+AND(Table1[[#This Row],[Format]]="Powder",Table1[[#This Row],[Target Unit]]="mM"),Table1[[#This Row],[Standard Stock Value]]*Table1[[#This Row],[Target Value]]/1000,
+AND(Table1[[#This Row],[Format]]="Powder",Table1[[#This Row],[Target Unit]]="µM"),Table1[[#This Row],[Standard Stock Value]]*Table1[[#This Row],[Target Value]]/1000000,
 AND(Table1[[#This Row],[Format]]="Powder",Table1[[#This Row],[Target Unit]]="% (w/v)"),Table1[[#This Row],[Target Value]]*10,
 TRUE, "!!!")</f>
         <v>0.36752499999999999</v>
@@ -1288,10 +1288,10 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>5</v>
@@ -1303,7 +1303,7 @@
         <v>29</v>
       </c>
       <c r="F5" s="23" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G5" s="12" cm="1">
         <f t="array" ref="G5">_xlfn.IFS(Table1[[#This Row],[Stock Unit]]="NA","NA",Table1[[#This Row],[Stock Unit]]="g/mol",Table1[[#This Row],[MW (g/mol)]],Table1[[#This Row],[Stock Unit]]="M",Table1[[#This Row],[Stock Value]],Table1[[#This Row],[Stock Unit]]="mM",Table1[[#This Row],[Stock Value]]/1000,Table1[[#This Row],[Stock Unit]]="%",Table1[[#This Row],[Stock Value]],Table1[[#This Row],[Stock Unit]]="X",Table1[[#This Row],[Stock Value]],Table1[[#This Row],[Stock Unit]]="µM",Table1[[#This Row],[Stock Value]]/1000000,Table1[[#This Row],[Stock Unit]]="mg/mL",Table1[[#This Row],[Stock Value]],TRUE,"!!!")</f>
@@ -1320,14 +1320,14 @@
         <v>6</v>
       </c>
       <c r="K5" s="19" cm="1">
-        <f t="array" ref="K5">_xlfn.IFS(Table1[[#This Row],[Standardized Base Unit]]=Table1[[#This Row],[Target Unit]],Table1[[#This Row],[Standardized Stock Value]]/Table1[[#This Row],[Target Value]],
-SUBSTITUTE(Table1[[#This Row],[Target Unit]],Table1[[#This Row],[Standardized Base Unit]],"")="m",Table1[[#This Row],[Standardized Stock Value]]/Table1[[#This Row],[Target Value]]*1000,
-SUBSTITUTE(Table1[[#This Row],[Target Unit]],Table1[[#This Row],[Standardized Base Unit]],"")="µ",Table1[[#This Row],[Standardized Stock Value]]/Table1[[#This Row],[Target Value]]*1000000,
-SUBSTITUTE(Table1[[#This Row],[Target Unit]],Table1[[#This Row],[Standardized Base Unit]],"")="n",Table1[[#This Row],[Standardized Stock Value]]/Table1[[#This Row],[Target Value]]*1000000000,
-SUBSTITUTE(Table1[[#This Row],[Target Unit]],Table1[[#This Row],[Standardized Base Unit]],"")="p",Table1[[#This Row],[Standardized Stock Value]]/Table1[[#This Row],[Target Value]]*1000000000000,
-AND(Table1[[#This Row],[Format]]="Powder",Table1[[#This Row],[Target Unit]]="M"),Table1[[#This Row],[Standardized Stock Value]]*Table1[[#This Row],[Target Value]],
-AND(Table1[[#This Row],[Format]]="Powder",Table1[[#This Row],[Target Unit]]="mM"),Table1[[#This Row],[Standardized Stock Value]]*Table1[[#This Row],[Target Value]]/1000,
-AND(Table1[[#This Row],[Format]]="Powder",Table1[[#This Row],[Target Unit]]="µM"),Table1[[#This Row],[Standardized Stock Value]]*Table1[[#This Row],[Target Value]]/1000000,
+        <f t="array" ref="K5">_xlfn.IFS(Table1[[#This Row],[Standard Base Unit]]=Table1[[#This Row],[Target Unit]],Table1[[#This Row],[Standard Stock Value]]/Table1[[#This Row],[Target Value]],
+SUBSTITUTE(Table1[[#This Row],[Target Unit]],Table1[[#This Row],[Standard Base Unit]],"")="m",Table1[[#This Row],[Standard Stock Value]]/Table1[[#This Row],[Target Value]]*1000,
+SUBSTITUTE(Table1[[#This Row],[Target Unit]],Table1[[#This Row],[Standard Base Unit]],"")="µ",Table1[[#This Row],[Standard Stock Value]]/Table1[[#This Row],[Target Value]]*1000000,
+SUBSTITUTE(Table1[[#This Row],[Target Unit]],Table1[[#This Row],[Standard Base Unit]],"")="n",Table1[[#This Row],[Standard Stock Value]]/Table1[[#This Row],[Target Value]]*1000000000,
+SUBSTITUTE(Table1[[#This Row],[Target Unit]],Table1[[#This Row],[Standard Base Unit]],"")="p",Table1[[#This Row],[Standard Stock Value]]/Table1[[#This Row],[Target Value]]*1000000000000,
+AND(Table1[[#This Row],[Format]]="Powder",Table1[[#This Row],[Target Unit]]="M"),Table1[[#This Row],[Standard Stock Value]]*Table1[[#This Row],[Target Value]],
+AND(Table1[[#This Row],[Format]]="Powder",Table1[[#This Row],[Target Unit]]="mM"),Table1[[#This Row],[Standard Stock Value]]*Table1[[#This Row],[Target Value]]/1000,
+AND(Table1[[#This Row],[Format]]="Powder",Table1[[#This Row],[Target Unit]]="µM"),Table1[[#This Row],[Standard Stock Value]]*Table1[[#This Row],[Target Value]]/1000000,
 AND(Table1[[#This Row],[Format]]="Powder",Table1[[#This Row],[Target Unit]]="% (w/v)"),Table1[[#This Row],[Target Value]]*10,
 TRUE, "!!!")</f>
         <v>0.29577599999999993</v>
@@ -1339,10 +1339,10 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>5</v>
@@ -1354,7 +1354,7 @@
         <v>29</v>
       </c>
       <c r="F6" s="23" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G6" s="12" cm="1">
         <f t="array" ref="G6">_xlfn.IFS(Table1[[#This Row],[Stock Unit]]="NA","NA",Table1[[#This Row],[Stock Unit]]="g/mol",Table1[[#This Row],[MW (g/mol)]],Table1[[#This Row],[Stock Unit]]="M",Table1[[#This Row],[Stock Value]],Table1[[#This Row],[Stock Unit]]="mM",Table1[[#This Row],[Stock Value]]/1000,Table1[[#This Row],[Stock Unit]]="%",Table1[[#This Row],[Stock Value]],Table1[[#This Row],[Stock Unit]]="X",Table1[[#This Row],[Stock Value]],Table1[[#This Row],[Stock Unit]]="µM",Table1[[#This Row],[Stock Value]]/1000000,Table1[[#This Row],[Stock Unit]]="mg/mL",Table1[[#This Row],[Stock Value]],TRUE,"!!!")</f>
@@ -1371,14 +1371,14 @@
         <v>6</v>
       </c>
       <c r="K6" s="19" cm="1">
-        <f t="array" ref="K6">_xlfn.IFS(Table1[[#This Row],[Standardized Base Unit]]=Table1[[#This Row],[Target Unit]],Table1[[#This Row],[Standardized Stock Value]]/Table1[[#This Row],[Target Value]],
-SUBSTITUTE(Table1[[#This Row],[Target Unit]],Table1[[#This Row],[Standardized Base Unit]],"")="m",Table1[[#This Row],[Standardized Stock Value]]/Table1[[#This Row],[Target Value]]*1000,
-SUBSTITUTE(Table1[[#This Row],[Target Unit]],Table1[[#This Row],[Standardized Base Unit]],"")="µ",Table1[[#This Row],[Standardized Stock Value]]/Table1[[#This Row],[Target Value]]*1000000,
-SUBSTITUTE(Table1[[#This Row],[Target Unit]],Table1[[#This Row],[Standardized Base Unit]],"")="n",Table1[[#This Row],[Standardized Stock Value]]/Table1[[#This Row],[Target Value]]*1000000000,
-SUBSTITUTE(Table1[[#This Row],[Target Unit]],Table1[[#This Row],[Standardized Base Unit]],"")="p",Table1[[#This Row],[Standardized Stock Value]]/Table1[[#This Row],[Target Value]]*1000000000000,
-AND(Table1[[#This Row],[Format]]="Powder",Table1[[#This Row],[Target Unit]]="M"),Table1[[#This Row],[Standardized Stock Value]]*Table1[[#This Row],[Target Value]],
-AND(Table1[[#This Row],[Format]]="Powder",Table1[[#This Row],[Target Unit]]="mM"),Table1[[#This Row],[Standardized Stock Value]]*Table1[[#This Row],[Target Value]]/1000,
-AND(Table1[[#This Row],[Format]]="Powder",Table1[[#This Row],[Target Unit]]="µM"),Table1[[#This Row],[Standardized Stock Value]]*Table1[[#This Row],[Target Value]]/1000000,
+        <f t="array" ref="K6">_xlfn.IFS(Table1[[#This Row],[Standard Base Unit]]=Table1[[#This Row],[Target Unit]],Table1[[#This Row],[Standard Stock Value]]/Table1[[#This Row],[Target Value]],
+SUBSTITUTE(Table1[[#This Row],[Target Unit]],Table1[[#This Row],[Standard Base Unit]],"")="m",Table1[[#This Row],[Standard Stock Value]]/Table1[[#This Row],[Target Value]]*1000,
+SUBSTITUTE(Table1[[#This Row],[Target Unit]],Table1[[#This Row],[Standard Base Unit]],"")="µ",Table1[[#This Row],[Standard Stock Value]]/Table1[[#This Row],[Target Value]]*1000000,
+SUBSTITUTE(Table1[[#This Row],[Target Unit]],Table1[[#This Row],[Standard Base Unit]],"")="n",Table1[[#This Row],[Standard Stock Value]]/Table1[[#This Row],[Target Value]]*1000000000,
+SUBSTITUTE(Table1[[#This Row],[Target Unit]],Table1[[#This Row],[Standard Base Unit]],"")="p",Table1[[#This Row],[Standard Stock Value]]/Table1[[#This Row],[Target Value]]*1000000000000,
+AND(Table1[[#This Row],[Format]]="Powder",Table1[[#This Row],[Target Unit]]="M"),Table1[[#This Row],[Standard Stock Value]]*Table1[[#This Row],[Target Value]],
+AND(Table1[[#This Row],[Format]]="Powder",Table1[[#This Row],[Target Unit]]="mM"),Table1[[#This Row],[Standard Stock Value]]*Table1[[#This Row],[Target Value]]/1000,
+AND(Table1[[#This Row],[Format]]="Powder",Table1[[#This Row],[Target Unit]]="µM"),Table1[[#This Row],[Standard Stock Value]]*Table1[[#This Row],[Target Value]]/1000000,
 AND(Table1[[#This Row],[Format]]="Powder",Table1[[#This Row],[Target Unit]]="% (w/v)"),Table1[[#This Row],[Target Value]]*10,
 TRUE, "!!!")</f>
         <v>2.0162400000000003</v>
@@ -1390,10 +1390,10 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>5</v>
@@ -1405,7 +1405,7 @@
         <v>29</v>
       </c>
       <c r="F7" s="23" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G7" s="12" cm="1">
         <f t="array" ref="G7">_xlfn.IFS(Table1[[#This Row],[Stock Unit]]="NA","NA",Table1[[#This Row],[Stock Unit]]="g/mol",Table1[[#This Row],[MW (g/mol)]],Table1[[#This Row],[Stock Unit]]="M",Table1[[#This Row],[Stock Value]],Table1[[#This Row],[Stock Unit]]="mM",Table1[[#This Row],[Stock Value]]/1000,Table1[[#This Row],[Stock Unit]]="%",Table1[[#This Row],[Stock Value]],Table1[[#This Row],[Stock Unit]]="X",Table1[[#This Row],[Stock Value]],Table1[[#This Row],[Stock Unit]]="µM",Table1[[#This Row],[Stock Value]]/1000000,Table1[[#This Row],[Stock Unit]]="mg/mL",Table1[[#This Row],[Stock Value]],TRUE,"!!!")</f>
@@ -1422,14 +1422,14 @@
         <v>6</v>
       </c>
       <c r="K7" s="19" cm="1">
-        <f t="array" ref="K7">_xlfn.IFS(Table1[[#This Row],[Standardized Base Unit]]=Table1[[#This Row],[Target Unit]],Table1[[#This Row],[Standardized Stock Value]]/Table1[[#This Row],[Target Value]],
-SUBSTITUTE(Table1[[#This Row],[Target Unit]],Table1[[#This Row],[Standardized Base Unit]],"")="m",Table1[[#This Row],[Standardized Stock Value]]/Table1[[#This Row],[Target Value]]*1000,
-SUBSTITUTE(Table1[[#This Row],[Target Unit]],Table1[[#This Row],[Standardized Base Unit]],"")="µ",Table1[[#This Row],[Standardized Stock Value]]/Table1[[#This Row],[Target Value]]*1000000,
-SUBSTITUTE(Table1[[#This Row],[Target Unit]],Table1[[#This Row],[Standardized Base Unit]],"")="n",Table1[[#This Row],[Standardized Stock Value]]/Table1[[#This Row],[Target Value]]*1000000000,
-SUBSTITUTE(Table1[[#This Row],[Target Unit]],Table1[[#This Row],[Standardized Base Unit]],"")="p",Table1[[#This Row],[Standardized Stock Value]]/Table1[[#This Row],[Target Value]]*1000000000000,
-AND(Table1[[#This Row],[Format]]="Powder",Table1[[#This Row],[Target Unit]]="M"),Table1[[#This Row],[Standardized Stock Value]]*Table1[[#This Row],[Target Value]],
-AND(Table1[[#This Row],[Format]]="Powder",Table1[[#This Row],[Target Unit]]="mM"),Table1[[#This Row],[Standardized Stock Value]]*Table1[[#This Row],[Target Value]]/1000,
-AND(Table1[[#This Row],[Format]]="Powder",Table1[[#This Row],[Target Unit]]="µM"),Table1[[#This Row],[Standardized Stock Value]]*Table1[[#This Row],[Target Value]]/1000000,
+        <f t="array" ref="K7">_xlfn.IFS(Table1[[#This Row],[Standard Base Unit]]=Table1[[#This Row],[Target Unit]],Table1[[#This Row],[Standard Stock Value]]/Table1[[#This Row],[Target Value]],
+SUBSTITUTE(Table1[[#This Row],[Target Unit]],Table1[[#This Row],[Standard Base Unit]],"")="m",Table1[[#This Row],[Standard Stock Value]]/Table1[[#This Row],[Target Value]]*1000,
+SUBSTITUTE(Table1[[#This Row],[Target Unit]],Table1[[#This Row],[Standard Base Unit]],"")="µ",Table1[[#This Row],[Standard Stock Value]]/Table1[[#This Row],[Target Value]]*1000000,
+SUBSTITUTE(Table1[[#This Row],[Target Unit]],Table1[[#This Row],[Standard Base Unit]],"")="n",Table1[[#This Row],[Standard Stock Value]]/Table1[[#This Row],[Target Value]]*1000000000,
+SUBSTITUTE(Table1[[#This Row],[Target Unit]],Table1[[#This Row],[Standard Base Unit]],"")="p",Table1[[#This Row],[Standard Stock Value]]/Table1[[#This Row],[Target Value]]*1000000000000,
+AND(Table1[[#This Row],[Format]]="Powder",Table1[[#This Row],[Target Unit]]="M"),Table1[[#This Row],[Standard Stock Value]]*Table1[[#This Row],[Target Value]],
+AND(Table1[[#This Row],[Format]]="Powder",Table1[[#This Row],[Target Unit]]="mM"),Table1[[#This Row],[Standard Stock Value]]*Table1[[#This Row],[Target Value]]/1000,
+AND(Table1[[#This Row],[Format]]="Powder",Table1[[#This Row],[Target Unit]]="µM"),Table1[[#This Row],[Standard Stock Value]]*Table1[[#This Row],[Target Value]]/1000000,
 AND(Table1[[#This Row],[Format]]="Powder",Table1[[#This Row],[Target Unit]]="% (w/v)"),Table1[[#This Row],[Target Value]]*10,
 TRUE, "!!!")</f>
         <v>0.16330799999999998</v>
@@ -1441,10 +1441,10 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>5</v>
@@ -1456,7 +1456,7 @@
         <v>29</v>
       </c>
       <c r="F8" s="23" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G8" s="12" cm="1">
         <f t="array" ref="G8">_xlfn.IFS(Table1[[#This Row],[Stock Unit]]="NA","NA",Table1[[#This Row],[Stock Unit]]="g/mol",Table1[[#This Row],[MW (g/mol)]],Table1[[#This Row],[Stock Unit]]="M",Table1[[#This Row],[Stock Value]],Table1[[#This Row],[Stock Unit]]="mM",Table1[[#This Row],[Stock Value]]/1000,Table1[[#This Row],[Stock Unit]]="%",Table1[[#This Row],[Stock Value]],Table1[[#This Row],[Stock Unit]]="X",Table1[[#This Row],[Stock Value]],Table1[[#This Row],[Stock Unit]]="µM",Table1[[#This Row],[Stock Value]]/1000000,Table1[[#This Row],[Stock Unit]]="mg/mL",Table1[[#This Row],[Stock Value]],TRUE,"!!!")</f>
@@ -1473,14 +1473,14 @@
         <v>6</v>
       </c>
       <c r="K8" s="19" cm="1">
-        <f t="array" ref="K8">_xlfn.IFS(Table1[[#This Row],[Standardized Base Unit]]=Table1[[#This Row],[Target Unit]],Table1[[#This Row],[Standardized Stock Value]]/Table1[[#This Row],[Target Value]],
-SUBSTITUTE(Table1[[#This Row],[Target Unit]],Table1[[#This Row],[Standardized Base Unit]],"")="m",Table1[[#This Row],[Standardized Stock Value]]/Table1[[#This Row],[Target Value]]*1000,
-SUBSTITUTE(Table1[[#This Row],[Target Unit]],Table1[[#This Row],[Standardized Base Unit]],"")="µ",Table1[[#This Row],[Standardized Stock Value]]/Table1[[#This Row],[Target Value]]*1000000,
-SUBSTITUTE(Table1[[#This Row],[Target Unit]],Table1[[#This Row],[Standardized Base Unit]],"")="n",Table1[[#This Row],[Standardized Stock Value]]/Table1[[#This Row],[Target Value]]*1000000000,
-SUBSTITUTE(Table1[[#This Row],[Target Unit]],Table1[[#This Row],[Standardized Base Unit]],"")="p",Table1[[#This Row],[Standardized Stock Value]]/Table1[[#This Row],[Target Value]]*1000000000000,
-AND(Table1[[#This Row],[Format]]="Powder",Table1[[#This Row],[Target Unit]]="M"),Table1[[#This Row],[Standardized Stock Value]]*Table1[[#This Row],[Target Value]],
-AND(Table1[[#This Row],[Format]]="Powder",Table1[[#This Row],[Target Unit]]="mM"),Table1[[#This Row],[Standardized Stock Value]]*Table1[[#This Row],[Target Value]]/1000,
-AND(Table1[[#This Row],[Format]]="Powder",Table1[[#This Row],[Target Unit]]="µM"),Table1[[#This Row],[Standardized Stock Value]]*Table1[[#This Row],[Target Value]]/1000000,
+        <f t="array" ref="K8">_xlfn.IFS(Table1[[#This Row],[Standard Base Unit]]=Table1[[#This Row],[Target Unit]],Table1[[#This Row],[Standard Stock Value]]/Table1[[#This Row],[Target Value]],
+SUBSTITUTE(Table1[[#This Row],[Target Unit]],Table1[[#This Row],[Standard Base Unit]],"")="m",Table1[[#This Row],[Standard Stock Value]]/Table1[[#This Row],[Target Value]]*1000,
+SUBSTITUTE(Table1[[#This Row],[Target Unit]],Table1[[#This Row],[Standard Base Unit]],"")="µ",Table1[[#This Row],[Standard Stock Value]]/Table1[[#This Row],[Target Value]]*1000000,
+SUBSTITUTE(Table1[[#This Row],[Target Unit]],Table1[[#This Row],[Standard Base Unit]],"")="n",Table1[[#This Row],[Standard Stock Value]]/Table1[[#This Row],[Target Value]]*1000000000,
+SUBSTITUTE(Table1[[#This Row],[Target Unit]],Table1[[#This Row],[Standard Base Unit]],"")="p",Table1[[#This Row],[Standard Stock Value]]/Table1[[#This Row],[Target Value]]*1000000000000,
+AND(Table1[[#This Row],[Format]]="Powder",Table1[[#This Row],[Target Unit]]="M"),Table1[[#This Row],[Standard Stock Value]]*Table1[[#This Row],[Target Value]],
+AND(Table1[[#This Row],[Format]]="Powder",Table1[[#This Row],[Target Unit]]="mM"),Table1[[#This Row],[Standard Stock Value]]*Table1[[#This Row],[Target Value]]/1000,
+AND(Table1[[#This Row],[Format]]="Powder",Table1[[#This Row],[Target Unit]]="µM"),Table1[[#This Row],[Standard Stock Value]]*Table1[[#This Row],[Target Value]]/1000000,
 AND(Table1[[#This Row],[Format]]="Powder",Table1[[#This Row],[Target Unit]]="% (w/v)"),Table1[[#This Row],[Target Value]]*10,
 TRUE, "!!!")</f>
         <v>1.98176</v>
@@ -1492,10 +1492,10 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>5</v>
@@ -1507,7 +1507,7 @@
         <v>29</v>
       </c>
       <c r="F9" s="23" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G9" s="12" cm="1">
         <f t="array" ref="G9">_xlfn.IFS(Table1[[#This Row],[Stock Unit]]="NA","NA",Table1[[#This Row],[Stock Unit]]="g/mol",Table1[[#This Row],[MW (g/mol)]],Table1[[#This Row],[Stock Unit]]="M",Table1[[#This Row],[Stock Value]],Table1[[#This Row],[Stock Unit]]="mM",Table1[[#This Row],[Stock Value]]/1000,Table1[[#This Row],[Stock Unit]]="%",Table1[[#This Row],[Stock Value]],Table1[[#This Row],[Stock Unit]]="X",Table1[[#This Row],[Stock Value]],Table1[[#This Row],[Stock Unit]]="µM",Table1[[#This Row],[Stock Value]]/1000000,Table1[[#This Row],[Stock Unit]]="mg/mL",Table1[[#This Row],[Stock Value]],TRUE,"!!!")</f>
@@ -1524,14 +1524,14 @@
         <v>6</v>
       </c>
       <c r="K9" s="19" cm="1">
-        <f t="array" ref="K9">_xlfn.IFS(Table1[[#This Row],[Standardized Base Unit]]=Table1[[#This Row],[Target Unit]],Table1[[#This Row],[Standardized Stock Value]]/Table1[[#This Row],[Target Value]],
-SUBSTITUTE(Table1[[#This Row],[Target Unit]],Table1[[#This Row],[Standardized Base Unit]],"")="m",Table1[[#This Row],[Standardized Stock Value]]/Table1[[#This Row],[Target Value]]*1000,
-SUBSTITUTE(Table1[[#This Row],[Target Unit]],Table1[[#This Row],[Standardized Base Unit]],"")="µ",Table1[[#This Row],[Standardized Stock Value]]/Table1[[#This Row],[Target Value]]*1000000,
-SUBSTITUTE(Table1[[#This Row],[Target Unit]],Table1[[#This Row],[Standardized Base Unit]],"")="n",Table1[[#This Row],[Standardized Stock Value]]/Table1[[#This Row],[Target Value]]*1000000000,
-SUBSTITUTE(Table1[[#This Row],[Target Unit]],Table1[[#This Row],[Standardized Base Unit]],"")="p",Table1[[#This Row],[Standardized Stock Value]]/Table1[[#This Row],[Target Value]]*1000000000000,
-AND(Table1[[#This Row],[Format]]="Powder",Table1[[#This Row],[Target Unit]]="M"),Table1[[#This Row],[Standardized Stock Value]]*Table1[[#This Row],[Target Value]],
-AND(Table1[[#This Row],[Format]]="Powder",Table1[[#This Row],[Target Unit]]="mM"),Table1[[#This Row],[Standardized Stock Value]]*Table1[[#This Row],[Target Value]]/1000,
-AND(Table1[[#This Row],[Format]]="Powder",Table1[[#This Row],[Target Unit]]="µM"),Table1[[#This Row],[Standardized Stock Value]]*Table1[[#This Row],[Target Value]]/1000000,
+        <f t="array" ref="K9">_xlfn.IFS(Table1[[#This Row],[Standard Base Unit]]=Table1[[#This Row],[Target Unit]],Table1[[#This Row],[Standard Stock Value]]/Table1[[#This Row],[Target Value]],
+SUBSTITUTE(Table1[[#This Row],[Target Unit]],Table1[[#This Row],[Standard Base Unit]],"")="m",Table1[[#This Row],[Standard Stock Value]]/Table1[[#This Row],[Target Value]]*1000,
+SUBSTITUTE(Table1[[#This Row],[Target Unit]],Table1[[#This Row],[Standard Base Unit]],"")="µ",Table1[[#This Row],[Standard Stock Value]]/Table1[[#This Row],[Target Value]]*1000000,
+SUBSTITUTE(Table1[[#This Row],[Target Unit]],Table1[[#This Row],[Standard Base Unit]],"")="n",Table1[[#This Row],[Standard Stock Value]]/Table1[[#This Row],[Target Value]]*1000000000,
+SUBSTITUTE(Table1[[#This Row],[Target Unit]],Table1[[#This Row],[Standard Base Unit]],"")="p",Table1[[#This Row],[Standard Stock Value]]/Table1[[#This Row],[Target Value]]*1000000000000,
+AND(Table1[[#This Row],[Format]]="Powder",Table1[[#This Row],[Target Unit]]="M"),Table1[[#This Row],[Standard Stock Value]]*Table1[[#This Row],[Target Value]],
+AND(Table1[[#This Row],[Format]]="Powder",Table1[[#This Row],[Target Unit]]="mM"),Table1[[#This Row],[Standard Stock Value]]*Table1[[#This Row],[Target Value]]/1000,
+AND(Table1[[#This Row],[Format]]="Powder",Table1[[#This Row],[Target Unit]]="µM"),Table1[[#This Row],[Standard Stock Value]]*Table1[[#This Row],[Target Value]]/1000000,
 AND(Table1[[#This Row],[Format]]="Powder",Table1[[#This Row],[Target Unit]]="% (w/v)"),Table1[[#This Row],[Target Value]]*10,
 TRUE, "!!!")</f>
         <v>0.14612</v>
@@ -1543,10 +1543,10 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>8</v>
@@ -1575,14 +1575,14 @@
         <v>9</v>
       </c>
       <c r="K10" s="17" cm="1">
-        <f t="array" ref="K10">_xlfn.IFS(Table1[[#This Row],[Standardized Base Unit]]=Table1[[#This Row],[Target Unit]],Table1[[#This Row],[Standardized Stock Value]]/Table1[[#This Row],[Target Value]],
-SUBSTITUTE(Table1[[#This Row],[Target Unit]],Table1[[#This Row],[Standardized Base Unit]],"")="m",Table1[[#This Row],[Standardized Stock Value]]/Table1[[#This Row],[Target Value]]*1000,
-SUBSTITUTE(Table1[[#This Row],[Target Unit]],Table1[[#This Row],[Standardized Base Unit]],"")="µ",Table1[[#This Row],[Standardized Stock Value]]/Table1[[#This Row],[Target Value]]*1000000,
-SUBSTITUTE(Table1[[#This Row],[Target Unit]],Table1[[#This Row],[Standardized Base Unit]],"")="n",Table1[[#This Row],[Standardized Stock Value]]/Table1[[#This Row],[Target Value]]*1000000000,
-SUBSTITUTE(Table1[[#This Row],[Target Unit]],Table1[[#This Row],[Standardized Base Unit]],"")="p",Table1[[#This Row],[Standardized Stock Value]]/Table1[[#This Row],[Target Value]]*1000000000000,
-AND(Table1[[#This Row],[Format]]="Powder",Table1[[#This Row],[Target Unit]]="M"),Table1[[#This Row],[Standardized Stock Value]]*Table1[[#This Row],[Target Value]],
-AND(Table1[[#This Row],[Format]]="Powder",Table1[[#This Row],[Target Unit]]="mM"),Table1[[#This Row],[Standardized Stock Value]]*Table1[[#This Row],[Target Value]]/1000,
-AND(Table1[[#This Row],[Format]]="Powder",Table1[[#This Row],[Target Unit]]="µM"),Table1[[#This Row],[Standardized Stock Value]]*Table1[[#This Row],[Target Value]]/1000000,
+        <f t="array" ref="K10">_xlfn.IFS(Table1[[#This Row],[Standard Base Unit]]=Table1[[#This Row],[Target Unit]],Table1[[#This Row],[Standard Stock Value]]/Table1[[#This Row],[Target Value]],
+SUBSTITUTE(Table1[[#This Row],[Target Unit]],Table1[[#This Row],[Standard Base Unit]],"")="m",Table1[[#This Row],[Standard Stock Value]]/Table1[[#This Row],[Target Value]]*1000,
+SUBSTITUTE(Table1[[#This Row],[Target Unit]],Table1[[#This Row],[Standard Base Unit]],"")="µ",Table1[[#This Row],[Standard Stock Value]]/Table1[[#This Row],[Target Value]]*1000000,
+SUBSTITUTE(Table1[[#This Row],[Target Unit]],Table1[[#This Row],[Standard Base Unit]],"")="n",Table1[[#This Row],[Standard Stock Value]]/Table1[[#This Row],[Target Value]]*1000000000,
+SUBSTITUTE(Table1[[#This Row],[Target Unit]],Table1[[#This Row],[Standard Base Unit]],"")="p",Table1[[#This Row],[Standard Stock Value]]/Table1[[#This Row],[Target Value]]*1000000000000,
+AND(Table1[[#This Row],[Format]]="Powder",Table1[[#This Row],[Target Unit]]="M"),Table1[[#This Row],[Standard Stock Value]]*Table1[[#This Row],[Target Value]],
+AND(Table1[[#This Row],[Format]]="Powder",Table1[[#This Row],[Target Unit]]="mM"),Table1[[#This Row],[Standard Stock Value]]*Table1[[#This Row],[Target Value]]/1000,
+AND(Table1[[#This Row],[Format]]="Powder",Table1[[#This Row],[Target Unit]]="µM"),Table1[[#This Row],[Standard Stock Value]]*Table1[[#This Row],[Target Value]]/1000000,
 AND(Table1[[#This Row],[Format]]="Powder",Table1[[#This Row],[Target Unit]]="% (w/v)"),Table1[[#This Row],[Target Value]]*10,
 TRUE, "!!!")</f>
         <v>2</v>
@@ -1594,10 +1594,10 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>8</v>
@@ -1626,14 +1626,14 @@
         <v>9</v>
       </c>
       <c r="K11" s="17" cm="1">
-        <f t="array" ref="K11">_xlfn.IFS(Table1[[#This Row],[Standardized Base Unit]]=Table1[[#This Row],[Target Unit]],Table1[[#This Row],[Standardized Stock Value]]/Table1[[#This Row],[Target Value]],
-SUBSTITUTE(Table1[[#This Row],[Target Unit]],Table1[[#This Row],[Standardized Base Unit]],"")="m",Table1[[#This Row],[Standardized Stock Value]]/Table1[[#This Row],[Target Value]]*1000,
-SUBSTITUTE(Table1[[#This Row],[Target Unit]],Table1[[#This Row],[Standardized Base Unit]],"")="µ",Table1[[#This Row],[Standardized Stock Value]]/Table1[[#This Row],[Target Value]]*1000000,
-SUBSTITUTE(Table1[[#This Row],[Target Unit]],Table1[[#This Row],[Standardized Base Unit]],"")="n",Table1[[#This Row],[Standardized Stock Value]]/Table1[[#This Row],[Target Value]]*1000000000,
-SUBSTITUTE(Table1[[#This Row],[Target Unit]],Table1[[#This Row],[Standardized Base Unit]],"")="p",Table1[[#This Row],[Standardized Stock Value]]/Table1[[#This Row],[Target Value]]*1000000000000,
-AND(Table1[[#This Row],[Format]]="Powder",Table1[[#This Row],[Target Unit]]="M"),Table1[[#This Row],[Standardized Stock Value]]*Table1[[#This Row],[Target Value]],
-AND(Table1[[#This Row],[Format]]="Powder",Table1[[#This Row],[Target Unit]]="mM"),Table1[[#This Row],[Standardized Stock Value]]*Table1[[#This Row],[Target Value]]/1000,
-AND(Table1[[#This Row],[Format]]="Powder",Table1[[#This Row],[Target Unit]]="µM"),Table1[[#This Row],[Standardized Stock Value]]*Table1[[#This Row],[Target Value]]/1000000,
+        <f t="array" ref="K11">_xlfn.IFS(Table1[[#This Row],[Standard Base Unit]]=Table1[[#This Row],[Target Unit]],Table1[[#This Row],[Standard Stock Value]]/Table1[[#This Row],[Target Value]],
+SUBSTITUTE(Table1[[#This Row],[Target Unit]],Table1[[#This Row],[Standard Base Unit]],"")="m",Table1[[#This Row],[Standard Stock Value]]/Table1[[#This Row],[Target Value]]*1000,
+SUBSTITUTE(Table1[[#This Row],[Target Unit]],Table1[[#This Row],[Standard Base Unit]],"")="µ",Table1[[#This Row],[Standard Stock Value]]/Table1[[#This Row],[Target Value]]*1000000,
+SUBSTITUTE(Table1[[#This Row],[Target Unit]],Table1[[#This Row],[Standard Base Unit]],"")="n",Table1[[#This Row],[Standard Stock Value]]/Table1[[#This Row],[Target Value]]*1000000000,
+SUBSTITUTE(Table1[[#This Row],[Target Unit]],Table1[[#This Row],[Standard Base Unit]],"")="p",Table1[[#This Row],[Standard Stock Value]]/Table1[[#This Row],[Target Value]]*1000000000000,
+AND(Table1[[#This Row],[Format]]="Powder",Table1[[#This Row],[Target Unit]]="M"),Table1[[#This Row],[Standard Stock Value]]*Table1[[#This Row],[Target Value]],
+AND(Table1[[#This Row],[Format]]="Powder",Table1[[#This Row],[Target Unit]]="mM"),Table1[[#This Row],[Standard Stock Value]]*Table1[[#This Row],[Target Value]]/1000,
+AND(Table1[[#This Row],[Format]]="Powder",Table1[[#This Row],[Target Unit]]="µM"),Table1[[#This Row],[Standard Stock Value]]*Table1[[#This Row],[Target Value]]/1000000,
 AND(Table1[[#This Row],[Format]]="Powder",Table1[[#This Row],[Target Unit]]="% (w/v)"),Table1[[#This Row],[Target Value]]*10,
 TRUE, "!!!")</f>
         <v>3.3333333333333335</v>
@@ -1645,10 +1645,10 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>8</v>
@@ -1677,14 +1677,14 @@
         <v>13</v>
       </c>
       <c r="K12" s="17" cm="1">
-        <f t="array" ref="K12">_xlfn.IFS(Table1[[#This Row],[Standardized Base Unit]]=Table1[[#This Row],[Target Unit]],Table1[[#This Row],[Standardized Stock Value]]/Table1[[#This Row],[Target Value]],
-SUBSTITUTE(Table1[[#This Row],[Target Unit]],Table1[[#This Row],[Standardized Base Unit]],"")="m",Table1[[#This Row],[Standardized Stock Value]]/Table1[[#This Row],[Target Value]]*1000,
-SUBSTITUTE(Table1[[#This Row],[Target Unit]],Table1[[#This Row],[Standardized Base Unit]],"")="µ",Table1[[#This Row],[Standardized Stock Value]]/Table1[[#This Row],[Target Value]]*1000000,
-SUBSTITUTE(Table1[[#This Row],[Target Unit]],Table1[[#This Row],[Standardized Base Unit]],"")="n",Table1[[#This Row],[Standardized Stock Value]]/Table1[[#This Row],[Target Value]]*1000000000,
-SUBSTITUTE(Table1[[#This Row],[Target Unit]],Table1[[#This Row],[Standardized Base Unit]],"")="p",Table1[[#This Row],[Standardized Stock Value]]/Table1[[#This Row],[Target Value]]*1000000000000,
-AND(Table1[[#This Row],[Format]]="Powder",Table1[[#This Row],[Target Unit]]="M"),Table1[[#This Row],[Standardized Stock Value]]*Table1[[#This Row],[Target Value]],
-AND(Table1[[#This Row],[Format]]="Powder",Table1[[#This Row],[Target Unit]]="mM"),Table1[[#This Row],[Standardized Stock Value]]*Table1[[#This Row],[Target Value]]/1000,
-AND(Table1[[#This Row],[Format]]="Powder",Table1[[#This Row],[Target Unit]]="µM"),Table1[[#This Row],[Standardized Stock Value]]*Table1[[#This Row],[Target Value]]/1000000,
+        <f t="array" ref="K12">_xlfn.IFS(Table1[[#This Row],[Standard Base Unit]]=Table1[[#This Row],[Target Unit]],Table1[[#This Row],[Standard Stock Value]]/Table1[[#This Row],[Target Value]],
+SUBSTITUTE(Table1[[#This Row],[Target Unit]],Table1[[#This Row],[Standard Base Unit]],"")="m",Table1[[#This Row],[Standard Stock Value]]/Table1[[#This Row],[Target Value]]*1000,
+SUBSTITUTE(Table1[[#This Row],[Target Unit]],Table1[[#This Row],[Standard Base Unit]],"")="µ",Table1[[#This Row],[Standard Stock Value]]/Table1[[#This Row],[Target Value]]*1000000,
+SUBSTITUTE(Table1[[#This Row],[Target Unit]],Table1[[#This Row],[Standard Base Unit]],"")="n",Table1[[#This Row],[Standard Stock Value]]/Table1[[#This Row],[Target Value]]*1000000000,
+SUBSTITUTE(Table1[[#This Row],[Target Unit]],Table1[[#This Row],[Standard Base Unit]],"")="p",Table1[[#This Row],[Standard Stock Value]]/Table1[[#This Row],[Target Value]]*1000000000000,
+AND(Table1[[#This Row],[Format]]="Powder",Table1[[#This Row],[Target Unit]]="M"),Table1[[#This Row],[Standard Stock Value]]*Table1[[#This Row],[Target Value]],
+AND(Table1[[#This Row],[Format]]="Powder",Table1[[#This Row],[Target Unit]]="mM"),Table1[[#This Row],[Standard Stock Value]]*Table1[[#This Row],[Target Value]]/1000,
+AND(Table1[[#This Row],[Format]]="Powder",Table1[[#This Row],[Target Unit]]="µM"),Table1[[#This Row],[Standard Stock Value]]*Table1[[#This Row],[Target Value]]/1000000,
 AND(Table1[[#This Row],[Format]]="Powder",Table1[[#This Row],[Target Unit]]="% (w/v)"),Table1[[#This Row],[Target Value]]*10,
 TRUE, "!!!")</f>
         <v>100</v>
@@ -1696,7 +1696,7 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>7</v>
@@ -1728,14 +1728,14 @@
         <v>6</v>
       </c>
       <c r="K13" s="14" cm="1">
-        <f t="array" ref="K13">_xlfn.IFS(Table1[[#This Row],[Standardized Base Unit]]=Table1[[#This Row],[Target Unit]],Table1[[#This Row],[Standardized Stock Value]]/Table1[[#This Row],[Target Value]],
-SUBSTITUTE(Table1[[#This Row],[Target Unit]],Table1[[#This Row],[Standardized Base Unit]],"")="m",Table1[[#This Row],[Standardized Stock Value]]/Table1[[#This Row],[Target Value]]*1000,
-SUBSTITUTE(Table1[[#This Row],[Target Unit]],Table1[[#This Row],[Standardized Base Unit]],"")="µ",Table1[[#This Row],[Standardized Stock Value]]/Table1[[#This Row],[Target Value]]*1000000,
-SUBSTITUTE(Table1[[#This Row],[Target Unit]],Table1[[#This Row],[Standardized Base Unit]],"")="n",Table1[[#This Row],[Standardized Stock Value]]/Table1[[#This Row],[Target Value]]*1000000000,
-SUBSTITUTE(Table1[[#This Row],[Target Unit]],Table1[[#This Row],[Standardized Base Unit]],"")="p",Table1[[#This Row],[Standardized Stock Value]]/Table1[[#This Row],[Target Value]]*1000000000000,
-AND(Table1[[#This Row],[Format]]="Powder",Table1[[#This Row],[Target Unit]]="M"),Table1[[#This Row],[Standardized Stock Value]]*Table1[[#This Row],[Target Value]],
-AND(Table1[[#This Row],[Format]]="Powder",Table1[[#This Row],[Target Unit]]="mM"),Table1[[#This Row],[Standardized Stock Value]]*Table1[[#This Row],[Target Value]]/1000,
-AND(Table1[[#This Row],[Format]]="Powder",Table1[[#This Row],[Target Unit]]="µM"),Table1[[#This Row],[Standardized Stock Value]]*Table1[[#This Row],[Target Value]]/1000000,
+        <f t="array" ref="K13">_xlfn.IFS(Table1[[#This Row],[Standard Base Unit]]=Table1[[#This Row],[Target Unit]],Table1[[#This Row],[Standard Stock Value]]/Table1[[#This Row],[Target Value]],
+SUBSTITUTE(Table1[[#This Row],[Target Unit]],Table1[[#This Row],[Standard Base Unit]],"")="m",Table1[[#This Row],[Standard Stock Value]]/Table1[[#This Row],[Target Value]]*1000,
+SUBSTITUTE(Table1[[#This Row],[Target Unit]],Table1[[#This Row],[Standard Base Unit]],"")="µ",Table1[[#This Row],[Standard Stock Value]]/Table1[[#This Row],[Target Value]]*1000000,
+SUBSTITUTE(Table1[[#This Row],[Target Unit]],Table1[[#This Row],[Standard Base Unit]],"")="n",Table1[[#This Row],[Standard Stock Value]]/Table1[[#This Row],[Target Value]]*1000000000,
+SUBSTITUTE(Table1[[#This Row],[Target Unit]],Table1[[#This Row],[Standard Base Unit]],"")="p",Table1[[#This Row],[Standard Stock Value]]/Table1[[#This Row],[Target Value]]*1000000000000,
+AND(Table1[[#This Row],[Format]]="Powder",Table1[[#This Row],[Target Unit]]="M"),Table1[[#This Row],[Standard Stock Value]]*Table1[[#This Row],[Target Value]],
+AND(Table1[[#This Row],[Format]]="Powder",Table1[[#This Row],[Target Unit]]="mM"),Table1[[#This Row],[Standard Stock Value]]*Table1[[#This Row],[Target Value]]/1000,
+AND(Table1[[#This Row],[Format]]="Powder",Table1[[#This Row],[Target Unit]]="µM"),Table1[[#This Row],[Standard Stock Value]]*Table1[[#This Row],[Target Value]]/1000000,
 AND(Table1[[#This Row],[Format]]="Powder",Table1[[#This Row],[Target Unit]]="% (w/v)"),Table1[[#This Row],[Target Value]]*10,
 TRUE, "!!!")</f>
         <v>10</v>
@@ -1747,10 +1747,10 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>8</v>
@@ -1779,14 +1779,14 @@
         <v>6</v>
       </c>
       <c r="K14" s="20" cm="1">
-        <f t="array" ref="K14">_xlfn.IFS(Table1[[#This Row],[Standardized Base Unit]]=Table1[[#This Row],[Target Unit]],Table1[[#This Row],[Standardized Stock Value]]/Table1[[#This Row],[Target Value]],
-SUBSTITUTE(Table1[[#This Row],[Target Unit]],Table1[[#This Row],[Standardized Base Unit]],"")="m",Table1[[#This Row],[Standardized Stock Value]]/Table1[[#This Row],[Target Value]]*1000,
-SUBSTITUTE(Table1[[#This Row],[Target Unit]],Table1[[#This Row],[Standardized Base Unit]],"")="µ",Table1[[#This Row],[Standardized Stock Value]]/Table1[[#This Row],[Target Value]]*1000000,
-SUBSTITUTE(Table1[[#This Row],[Target Unit]],Table1[[#This Row],[Standardized Base Unit]],"")="n",Table1[[#This Row],[Standardized Stock Value]]/Table1[[#This Row],[Target Value]]*1000000000,
-SUBSTITUTE(Table1[[#This Row],[Target Unit]],Table1[[#This Row],[Standardized Base Unit]],"")="p",Table1[[#This Row],[Standardized Stock Value]]/Table1[[#This Row],[Target Value]]*1000000000000,
-AND(Table1[[#This Row],[Format]]="Powder",Table1[[#This Row],[Target Unit]]="M"),Table1[[#This Row],[Standardized Stock Value]]*Table1[[#This Row],[Target Value]],
-AND(Table1[[#This Row],[Format]]="Powder",Table1[[#This Row],[Target Unit]]="mM"),Table1[[#This Row],[Standardized Stock Value]]*Table1[[#This Row],[Target Value]]/1000,
-AND(Table1[[#This Row],[Format]]="Powder",Table1[[#This Row],[Target Unit]]="µM"),Table1[[#This Row],[Standardized Stock Value]]*Table1[[#This Row],[Target Value]]/1000000,
+        <f t="array" ref="K14">_xlfn.IFS(Table1[[#This Row],[Standard Base Unit]]=Table1[[#This Row],[Target Unit]],Table1[[#This Row],[Standard Stock Value]]/Table1[[#This Row],[Target Value]],
+SUBSTITUTE(Table1[[#This Row],[Target Unit]],Table1[[#This Row],[Standard Base Unit]],"")="m",Table1[[#This Row],[Standard Stock Value]]/Table1[[#This Row],[Target Value]]*1000,
+SUBSTITUTE(Table1[[#This Row],[Target Unit]],Table1[[#This Row],[Standard Base Unit]],"")="µ",Table1[[#This Row],[Standard Stock Value]]/Table1[[#This Row],[Target Value]]*1000000,
+SUBSTITUTE(Table1[[#This Row],[Target Unit]],Table1[[#This Row],[Standard Base Unit]],"")="n",Table1[[#This Row],[Standard Stock Value]]/Table1[[#This Row],[Target Value]]*1000000000,
+SUBSTITUTE(Table1[[#This Row],[Target Unit]],Table1[[#This Row],[Standard Base Unit]],"")="p",Table1[[#This Row],[Standard Stock Value]]/Table1[[#This Row],[Target Value]]*1000000000000,
+AND(Table1[[#This Row],[Format]]="Powder",Table1[[#This Row],[Target Unit]]="M"),Table1[[#This Row],[Standard Stock Value]]*Table1[[#This Row],[Target Value]],
+AND(Table1[[#This Row],[Format]]="Powder",Table1[[#This Row],[Target Unit]]="mM"),Table1[[#This Row],[Standard Stock Value]]*Table1[[#This Row],[Target Value]]/1000,
+AND(Table1[[#This Row],[Format]]="Powder",Table1[[#This Row],[Target Unit]]="µM"),Table1[[#This Row],[Standard Stock Value]]*Table1[[#This Row],[Target Value]]/1000000,
 AND(Table1[[#This Row],[Format]]="Powder",Table1[[#This Row],[Target Unit]]="% (w/v)"),Table1[[#This Row],[Target Value]]*10,
 TRUE, "!!!")</f>
         <v>16.666666666666668</v>
@@ -1798,7 +1798,7 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>10</v>
@@ -1830,14 +1830,14 @@
         <v>6</v>
       </c>
       <c r="K15" s="14" cm="1">
-        <f t="array" ref="K15">_xlfn.IFS(Table1[[#This Row],[Standardized Base Unit]]=Table1[[#This Row],[Target Unit]],Table1[[#This Row],[Standardized Stock Value]]/Table1[[#This Row],[Target Value]],
-SUBSTITUTE(Table1[[#This Row],[Target Unit]],Table1[[#This Row],[Standardized Base Unit]],"")="m",Table1[[#This Row],[Standardized Stock Value]]/Table1[[#This Row],[Target Value]]*1000,
-SUBSTITUTE(Table1[[#This Row],[Target Unit]],Table1[[#This Row],[Standardized Base Unit]],"")="µ",Table1[[#This Row],[Standardized Stock Value]]/Table1[[#This Row],[Target Value]]*1000000,
-SUBSTITUTE(Table1[[#This Row],[Target Unit]],Table1[[#This Row],[Standardized Base Unit]],"")="n",Table1[[#This Row],[Standardized Stock Value]]/Table1[[#This Row],[Target Value]]*1000000000,
-SUBSTITUTE(Table1[[#This Row],[Target Unit]],Table1[[#This Row],[Standardized Base Unit]],"")="p",Table1[[#This Row],[Standardized Stock Value]]/Table1[[#This Row],[Target Value]]*1000000000000,
-AND(Table1[[#This Row],[Format]]="Powder",Table1[[#This Row],[Target Unit]]="M"),Table1[[#This Row],[Standardized Stock Value]]*Table1[[#This Row],[Target Value]],
-AND(Table1[[#This Row],[Format]]="Powder",Table1[[#This Row],[Target Unit]]="mM"),Table1[[#This Row],[Standardized Stock Value]]*Table1[[#This Row],[Target Value]]/1000,
-AND(Table1[[#This Row],[Format]]="Powder",Table1[[#This Row],[Target Unit]]="µM"),Table1[[#This Row],[Standardized Stock Value]]*Table1[[#This Row],[Target Value]]/1000000,
+        <f t="array" ref="K15">_xlfn.IFS(Table1[[#This Row],[Standard Base Unit]]=Table1[[#This Row],[Target Unit]],Table1[[#This Row],[Standard Stock Value]]/Table1[[#This Row],[Target Value]],
+SUBSTITUTE(Table1[[#This Row],[Target Unit]],Table1[[#This Row],[Standard Base Unit]],"")="m",Table1[[#This Row],[Standard Stock Value]]/Table1[[#This Row],[Target Value]]*1000,
+SUBSTITUTE(Table1[[#This Row],[Target Unit]],Table1[[#This Row],[Standard Base Unit]],"")="µ",Table1[[#This Row],[Standard Stock Value]]/Table1[[#This Row],[Target Value]]*1000000,
+SUBSTITUTE(Table1[[#This Row],[Target Unit]],Table1[[#This Row],[Standard Base Unit]],"")="n",Table1[[#This Row],[Standard Stock Value]]/Table1[[#This Row],[Target Value]]*1000000000,
+SUBSTITUTE(Table1[[#This Row],[Target Unit]],Table1[[#This Row],[Standard Base Unit]],"")="p",Table1[[#This Row],[Standard Stock Value]]/Table1[[#This Row],[Target Value]]*1000000000000,
+AND(Table1[[#This Row],[Format]]="Powder",Table1[[#This Row],[Target Unit]]="M"),Table1[[#This Row],[Standard Stock Value]]*Table1[[#This Row],[Target Value]],
+AND(Table1[[#This Row],[Format]]="Powder",Table1[[#This Row],[Target Unit]]="mM"),Table1[[#This Row],[Standard Stock Value]]*Table1[[#This Row],[Target Value]]/1000,
+AND(Table1[[#This Row],[Format]]="Powder",Table1[[#This Row],[Target Unit]]="µM"),Table1[[#This Row],[Standard Stock Value]]*Table1[[#This Row],[Target Value]]/1000000,
 AND(Table1[[#This Row],[Format]]="Powder",Table1[[#This Row],[Target Unit]]="% (w/v)"),Table1[[#This Row],[Target Value]]*10,
 TRUE, "!!!")</f>
         <v>250</v>
@@ -1852,7 +1852,7 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>15</v>
@@ -1884,14 +1884,14 @@
         <v>13</v>
       </c>
       <c r="K16" s="14" cm="1">
-        <f t="array" ref="K16">_xlfn.IFS(Table1[[#This Row],[Standardized Base Unit]]=Table1[[#This Row],[Target Unit]],Table1[[#This Row],[Standardized Stock Value]]/Table1[[#This Row],[Target Value]],
-SUBSTITUTE(Table1[[#This Row],[Target Unit]],Table1[[#This Row],[Standardized Base Unit]],"")="m",Table1[[#This Row],[Standardized Stock Value]]/Table1[[#This Row],[Target Value]]*1000,
-SUBSTITUTE(Table1[[#This Row],[Target Unit]],Table1[[#This Row],[Standardized Base Unit]],"")="µ",Table1[[#This Row],[Standardized Stock Value]]/Table1[[#This Row],[Target Value]]*1000000,
-SUBSTITUTE(Table1[[#This Row],[Target Unit]],Table1[[#This Row],[Standardized Base Unit]],"")="n",Table1[[#This Row],[Standardized Stock Value]]/Table1[[#This Row],[Target Value]]*1000000000,
-SUBSTITUTE(Table1[[#This Row],[Target Unit]],Table1[[#This Row],[Standardized Base Unit]],"")="p",Table1[[#This Row],[Standardized Stock Value]]/Table1[[#This Row],[Target Value]]*1000000000000,
-AND(Table1[[#This Row],[Format]]="Powder",Table1[[#This Row],[Target Unit]]="M"),Table1[[#This Row],[Standardized Stock Value]]*Table1[[#This Row],[Target Value]],
-AND(Table1[[#This Row],[Format]]="Powder",Table1[[#This Row],[Target Unit]]="mM"),Table1[[#This Row],[Standardized Stock Value]]*Table1[[#This Row],[Target Value]]/1000,
-AND(Table1[[#This Row],[Format]]="Powder",Table1[[#This Row],[Target Unit]]="µM"),Table1[[#This Row],[Standardized Stock Value]]*Table1[[#This Row],[Target Value]]/1000000,
+        <f t="array" ref="K16">_xlfn.IFS(Table1[[#This Row],[Standard Base Unit]]=Table1[[#This Row],[Target Unit]],Table1[[#This Row],[Standard Stock Value]]/Table1[[#This Row],[Target Value]],
+SUBSTITUTE(Table1[[#This Row],[Target Unit]],Table1[[#This Row],[Standard Base Unit]],"")="m",Table1[[#This Row],[Standard Stock Value]]/Table1[[#This Row],[Target Value]]*1000,
+SUBSTITUTE(Table1[[#This Row],[Target Unit]],Table1[[#This Row],[Standard Base Unit]],"")="µ",Table1[[#This Row],[Standard Stock Value]]/Table1[[#This Row],[Target Value]]*1000000,
+SUBSTITUTE(Table1[[#This Row],[Target Unit]],Table1[[#This Row],[Standard Base Unit]],"")="n",Table1[[#This Row],[Standard Stock Value]]/Table1[[#This Row],[Target Value]]*1000000000,
+SUBSTITUTE(Table1[[#This Row],[Target Unit]],Table1[[#This Row],[Standard Base Unit]],"")="p",Table1[[#This Row],[Standard Stock Value]]/Table1[[#This Row],[Target Value]]*1000000000000,
+AND(Table1[[#This Row],[Format]]="Powder",Table1[[#This Row],[Target Unit]]="M"),Table1[[#This Row],[Standard Stock Value]]*Table1[[#This Row],[Target Value]],
+AND(Table1[[#This Row],[Format]]="Powder",Table1[[#This Row],[Target Unit]]="mM"),Table1[[#This Row],[Standard Stock Value]]*Table1[[#This Row],[Target Value]]/1000,
+AND(Table1[[#This Row],[Format]]="Powder",Table1[[#This Row],[Target Unit]]="µM"),Table1[[#This Row],[Standard Stock Value]]*Table1[[#This Row],[Target Value]]/1000000,
 AND(Table1[[#This Row],[Format]]="Powder",Table1[[#This Row],[Target Unit]]="% (w/v)"),Table1[[#This Row],[Target Value]]*10,
 TRUE, "!!!")</f>
         <v>50</v>
@@ -1901,15 +1901,15 @@
         <v>:1 (20 mL/L)</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>5</v>
@@ -1921,7 +1921,7 @@
         <v>29</v>
       </c>
       <c r="F17" s="23" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G17" s="12" cm="1">
         <f t="array" ref="G17">_xlfn.IFS(Table1[[#This Row],[Stock Unit]]="NA","NA",Table1[[#This Row],[Stock Unit]]="g/mol",Table1[[#This Row],[MW (g/mol)]],Table1[[#This Row],[Stock Unit]]="M",Table1[[#This Row],[Stock Value]],Table1[[#This Row],[Stock Unit]]="mM",Table1[[#This Row],[Stock Value]]/1000,Table1[[#This Row],[Stock Unit]]="%",Table1[[#This Row],[Stock Value]],Table1[[#This Row],[Stock Unit]]="X",Table1[[#This Row],[Stock Value]],Table1[[#This Row],[Stock Unit]]="µM",Table1[[#This Row],[Stock Value]]/1000000,Table1[[#This Row],[Stock Unit]]="mg/mL",Table1[[#This Row],[Stock Value]],TRUE,"!!!")</f>
@@ -1935,17 +1935,17 @@
         <v>2</v>
       </c>
       <c r="J17" s="25" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K17" s="17" cm="1">
-        <f t="array" ref="K17">_xlfn.IFS(Table1[[#This Row],[Standardized Base Unit]]=Table1[[#This Row],[Target Unit]],Table1[[#This Row],[Standardized Stock Value]]/Table1[[#This Row],[Target Value]],
-SUBSTITUTE(Table1[[#This Row],[Target Unit]],Table1[[#This Row],[Standardized Base Unit]],"")="m",Table1[[#This Row],[Standardized Stock Value]]/Table1[[#This Row],[Target Value]]*1000,
-SUBSTITUTE(Table1[[#This Row],[Target Unit]],Table1[[#This Row],[Standardized Base Unit]],"")="µ",Table1[[#This Row],[Standardized Stock Value]]/Table1[[#This Row],[Target Value]]*1000000,
-SUBSTITUTE(Table1[[#This Row],[Target Unit]],Table1[[#This Row],[Standardized Base Unit]],"")="n",Table1[[#This Row],[Standardized Stock Value]]/Table1[[#This Row],[Target Value]]*1000000000,
-SUBSTITUTE(Table1[[#This Row],[Target Unit]],Table1[[#This Row],[Standardized Base Unit]],"")="p",Table1[[#This Row],[Standardized Stock Value]]/Table1[[#This Row],[Target Value]]*1000000000000,
-AND(Table1[[#This Row],[Format]]="Powder",Table1[[#This Row],[Target Unit]]="M"),Table1[[#This Row],[Standardized Stock Value]]*Table1[[#This Row],[Target Value]],
-AND(Table1[[#This Row],[Format]]="Powder",Table1[[#This Row],[Target Unit]]="mM"),Table1[[#This Row],[Standardized Stock Value]]*Table1[[#This Row],[Target Value]]/1000,
-AND(Table1[[#This Row],[Format]]="Powder",Table1[[#This Row],[Target Unit]]="µM"),Table1[[#This Row],[Standardized Stock Value]]*Table1[[#This Row],[Target Value]]/1000000,
+        <f t="array" ref="K17">_xlfn.IFS(Table1[[#This Row],[Standard Base Unit]]=Table1[[#This Row],[Target Unit]],Table1[[#This Row],[Standard Stock Value]]/Table1[[#This Row],[Target Value]],
+SUBSTITUTE(Table1[[#This Row],[Target Unit]],Table1[[#This Row],[Standard Base Unit]],"")="m",Table1[[#This Row],[Standard Stock Value]]/Table1[[#This Row],[Target Value]]*1000,
+SUBSTITUTE(Table1[[#This Row],[Target Unit]],Table1[[#This Row],[Standard Base Unit]],"")="µ",Table1[[#This Row],[Standard Stock Value]]/Table1[[#This Row],[Target Value]]*1000000,
+SUBSTITUTE(Table1[[#This Row],[Target Unit]],Table1[[#This Row],[Standard Base Unit]],"")="n",Table1[[#This Row],[Standard Stock Value]]/Table1[[#This Row],[Target Value]]*1000000000,
+SUBSTITUTE(Table1[[#This Row],[Target Unit]],Table1[[#This Row],[Standard Base Unit]],"")="p",Table1[[#This Row],[Standard Stock Value]]/Table1[[#This Row],[Target Value]]*1000000000000,
+AND(Table1[[#This Row],[Format]]="Powder",Table1[[#This Row],[Target Unit]]="M"),Table1[[#This Row],[Standard Stock Value]]*Table1[[#This Row],[Target Value]],
+AND(Table1[[#This Row],[Format]]="Powder",Table1[[#This Row],[Target Unit]]="mM"),Table1[[#This Row],[Standard Stock Value]]*Table1[[#This Row],[Target Value]]/1000,
+AND(Table1[[#This Row],[Format]]="Powder",Table1[[#This Row],[Target Unit]]="µM"),Table1[[#This Row],[Standard Stock Value]]*Table1[[#This Row],[Target Value]]/1000000,
 AND(Table1[[#This Row],[Format]]="Powder",Table1[[#This Row],[Target Unit]]="% (w/v)"),Table1[[#This Row],[Target Value]]*10,
 TRUE, "!!!")</f>
         <v>20</v>
@@ -1957,10 +1957,10 @@
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>8</v>
@@ -1989,14 +1989,14 @@
         <v>6</v>
       </c>
       <c r="K18" s="17" cm="1">
-        <f t="array" ref="K18">_xlfn.IFS(Table1[[#This Row],[Standardized Base Unit]]=Table1[[#This Row],[Target Unit]],Table1[[#This Row],[Standardized Stock Value]]/Table1[[#This Row],[Target Value]],
-SUBSTITUTE(Table1[[#This Row],[Target Unit]],Table1[[#This Row],[Standardized Base Unit]],"")="m",Table1[[#This Row],[Standardized Stock Value]]/Table1[[#This Row],[Target Value]]*1000,
-SUBSTITUTE(Table1[[#This Row],[Target Unit]],Table1[[#This Row],[Standardized Base Unit]],"")="µ",Table1[[#This Row],[Standardized Stock Value]]/Table1[[#This Row],[Target Value]]*1000000,
-SUBSTITUTE(Table1[[#This Row],[Target Unit]],Table1[[#This Row],[Standardized Base Unit]],"")="n",Table1[[#This Row],[Standardized Stock Value]]/Table1[[#This Row],[Target Value]]*1000000000,
-SUBSTITUTE(Table1[[#This Row],[Target Unit]],Table1[[#This Row],[Standardized Base Unit]],"")="p",Table1[[#This Row],[Standardized Stock Value]]/Table1[[#This Row],[Target Value]]*1000000000000,
-AND(Table1[[#This Row],[Format]]="Powder",Table1[[#This Row],[Target Unit]]="M"),Table1[[#This Row],[Standardized Stock Value]]*Table1[[#This Row],[Target Value]],
-AND(Table1[[#This Row],[Format]]="Powder",Table1[[#This Row],[Target Unit]]="mM"),Table1[[#This Row],[Standardized Stock Value]]*Table1[[#This Row],[Target Value]]/1000,
-AND(Table1[[#This Row],[Format]]="Powder",Table1[[#This Row],[Target Unit]]="µM"),Table1[[#This Row],[Standardized Stock Value]]*Table1[[#This Row],[Target Value]]/1000000,
+        <f t="array" ref="K18">_xlfn.IFS(Table1[[#This Row],[Standard Base Unit]]=Table1[[#This Row],[Target Unit]],Table1[[#This Row],[Standard Stock Value]]/Table1[[#This Row],[Target Value]],
+SUBSTITUTE(Table1[[#This Row],[Target Unit]],Table1[[#This Row],[Standard Base Unit]],"")="m",Table1[[#This Row],[Standard Stock Value]]/Table1[[#This Row],[Target Value]]*1000,
+SUBSTITUTE(Table1[[#This Row],[Target Unit]],Table1[[#This Row],[Standard Base Unit]],"")="µ",Table1[[#This Row],[Standard Stock Value]]/Table1[[#This Row],[Target Value]]*1000000,
+SUBSTITUTE(Table1[[#This Row],[Target Unit]],Table1[[#This Row],[Standard Base Unit]],"")="n",Table1[[#This Row],[Standard Stock Value]]/Table1[[#This Row],[Target Value]]*1000000000,
+SUBSTITUTE(Table1[[#This Row],[Target Unit]],Table1[[#This Row],[Standard Base Unit]],"")="p",Table1[[#This Row],[Standard Stock Value]]/Table1[[#This Row],[Target Value]]*1000000000000,
+AND(Table1[[#This Row],[Format]]="Powder",Table1[[#This Row],[Target Unit]]="M"),Table1[[#This Row],[Standard Stock Value]]*Table1[[#This Row],[Target Value]],
+AND(Table1[[#This Row],[Format]]="Powder",Table1[[#This Row],[Target Unit]]="mM"),Table1[[#This Row],[Standard Stock Value]]*Table1[[#This Row],[Target Value]]/1000,
+AND(Table1[[#This Row],[Format]]="Powder",Table1[[#This Row],[Target Unit]]="µM"),Table1[[#This Row],[Standard Stock Value]]*Table1[[#This Row],[Target Value]]/1000000,
 AND(Table1[[#This Row],[Format]]="Powder",Table1[[#This Row],[Target Unit]]="% (w/v)"),Table1[[#This Row],[Target Value]]*10,
 TRUE, "!!!")</f>
         <v>125</v>
@@ -2008,10 +2008,10 @@
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>5</v>
@@ -2023,7 +2023,7 @@
         <v>29</v>
       </c>
       <c r="F19" s="23" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G19" s="12" cm="1">
         <f t="array" ref="G19">_xlfn.IFS(Table1[[#This Row],[Stock Unit]]="NA","NA",Table1[[#This Row],[Stock Unit]]="g/mol",Table1[[#This Row],[MW (g/mol)]],Table1[[#This Row],[Stock Unit]]="M",Table1[[#This Row],[Stock Value]],Table1[[#This Row],[Stock Unit]]="mM",Table1[[#This Row],[Stock Value]]/1000,Table1[[#This Row],[Stock Unit]]="%",Table1[[#This Row],[Stock Value]],Table1[[#This Row],[Stock Unit]]="X",Table1[[#This Row],[Stock Value]],Table1[[#This Row],[Stock Unit]]="µM",Table1[[#This Row],[Stock Value]]/1000000,Table1[[#This Row],[Stock Unit]]="mg/mL",Table1[[#This Row],[Stock Value]],TRUE,"!!!")</f>
@@ -2037,17 +2037,17 @@
         <v>400</v>
       </c>
       <c r="J19" s="25" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K19" s="19" cm="1">
-        <f t="array" ref="K19">_xlfn.IFS(Table1[[#This Row],[Standardized Base Unit]]=Table1[[#This Row],[Target Unit]],Table1[[#This Row],[Standardized Stock Value]]/Table1[[#This Row],[Target Value]],
-SUBSTITUTE(Table1[[#This Row],[Target Unit]],Table1[[#This Row],[Standardized Base Unit]],"")="m",Table1[[#This Row],[Standardized Stock Value]]/Table1[[#This Row],[Target Value]]*1000,
-SUBSTITUTE(Table1[[#This Row],[Target Unit]],Table1[[#This Row],[Standardized Base Unit]],"")="µ",Table1[[#This Row],[Standardized Stock Value]]/Table1[[#This Row],[Target Value]]*1000000,
-SUBSTITUTE(Table1[[#This Row],[Target Unit]],Table1[[#This Row],[Standardized Base Unit]],"")="n",Table1[[#This Row],[Standardized Stock Value]]/Table1[[#This Row],[Target Value]]*1000000000,
-SUBSTITUTE(Table1[[#This Row],[Target Unit]],Table1[[#This Row],[Standardized Base Unit]],"")="p",Table1[[#This Row],[Standardized Stock Value]]/Table1[[#This Row],[Target Value]]*1000000000000,
-AND(Table1[[#This Row],[Format]]="Powder",Table1[[#This Row],[Target Unit]]="M"),Table1[[#This Row],[Standardized Stock Value]]*Table1[[#This Row],[Target Value]],
-AND(Table1[[#This Row],[Format]]="Powder",Table1[[#This Row],[Target Unit]]="mM"),Table1[[#This Row],[Standardized Stock Value]]*Table1[[#This Row],[Target Value]]/1000,
-AND(Table1[[#This Row],[Format]]="Powder",Table1[[#This Row],[Target Unit]]="µM"),Table1[[#This Row],[Standardized Stock Value]]*Table1[[#This Row],[Target Value]]/1000000,
+        <f t="array" ref="K19">_xlfn.IFS(Table1[[#This Row],[Standard Base Unit]]=Table1[[#This Row],[Target Unit]],Table1[[#This Row],[Standard Stock Value]]/Table1[[#This Row],[Target Value]],
+SUBSTITUTE(Table1[[#This Row],[Target Unit]],Table1[[#This Row],[Standard Base Unit]],"")="m",Table1[[#This Row],[Standard Stock Value]]/Table1[[#This Row],[Target Value]]*1000,
+SUBSTITUTE(Table1[[#This Row],[Target Unit]],Table1[[#This Row],[Standard Base Unit]],"")="µ",Table1[[#This Row],[Standard Stock Value]]/Table1[[#This Row],[Target Value]]*1000000,
+SUBSTITUTE(Table1[[#This Row],[Target Unit]],Table1[[#This Row],[Standard Base Unit]],"")="n",Table1[[#This Row],[Standard Stock Value]]/Table1[[#This Row],[Target Value]]*1000000000,
+SUBSTITUTE(Table1[[#This Row],[Target Unit]],Table1[[#This Row],[Standard Base Unit]],"")="p",Table1[[#This Row],[Standard Stock Value]]/Table1[[#This Row],[Target Value]]*1000000000000,
+AND(Table1[[#This Row],[Format]]="Powder",Table1[[#This Row],[Target Unit]]="M"),Table1[[#This Row],[Standard Stock Value]]*Table1[[#This Row],[Target Value]],
+AND(Table1[[#This Row],[Format]]="Powder",Table1[[#This Row],[Target Unit]]="mM"),Table1[[#This Row],[Standard Stock Value]]*Table1[[#This Row],[Target Value]]/1000,
+AND(Table1[[#This Row],[Format]]="Powder",Table1[[#This Row],[Target Unit]]="µM"),Table1[[#This Row],[Standard Stock Value]]*Table1[[#This Row],[Target Value]]/1000000,
 AND(Table1[[#This Row],[Format]]="Powder",Table1[[#This Row],[Target Unit]]="% (w/v)"),Table1[[#This Row],[Target Value]]*10,
 TRUE, "!!!")</f>
         <v>7.3564000000000004E-2</v>
@@ -2059,10 +2059,10 @@
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>8</v>
@@ -2091,14 +2091,14 @@
         <v>16</v>
       </c>
       <c r="K20" s="14" cm="1">
-        <f t="array" ref="K20">_xlfn.IFS(Table1[[#This Row],[Standardized Base Unit]]=Table1[[#This Row],[Target Unit]],Table1[[#This Row],[Standardized Stock Value]]/Table1[[#This Row],[Target Value]],
-SUBSTITUTE(Table1[[#This Row],[Target Unit]],Table1[[#This Row],[Standardized Base Unit]],"")="m",Table1[[#This Row],[Standardized Stock Value]]/Table1[[#This Row],[Target Value]]*1000,
-SUBSTITUTE(Table1[[#This Row],[Target Unit]],Table1[[#This Row],[Standardized Base Unit]],"")="µ",Table1[[#This Row],[Standardized Stock Value]]/Table1[[#This Row],[Target Value]]*1000000,
-SUBSTITUTE(Table1[[#This Row],[Target Unit]],Table1[[#This Row],[Standardized Base Unit]],"")="n",Table1[[#This Row],[Standardized Stock Value]]/Table1[[#This Row],[Target Value]]*1000000000,
-SUBSTITUTE(Table1[[#This Row],[Target Unit]],Table1[[#This Row],[Standardized Base Unit]],"")="p",Table1[[#This Row],[Standardized Stock Value]]/Table1[[#This Row],[Target Value]]*1000000000000,
-AND(Table1[[#This Row],[Format]]="Powder",Table1[[#This Row],[Target Unit]]="M"),Table1[[#This Row],[Standardized Stock Value]]*Table1[[#This Row],[Target Value]],
-AND(Table1[[#This Row],[Format]]="Powder",Table1[[#This Row],[Target Unit]]="mM"),Table1[[#This Row],[Standardized Stock Value]]*Table1[[#This Row],[Target Value]]/1000,
-AND(Table1[[#This Row],[Format]]="Powder",Table1[[#This Row],[Target Unit]]="µM"),Table1[[#This Row],[Standardized Stock Value]]*Table1[[#This Row],[Target Value]]/1000000,
+        <f t="array" ref="K20">_xlfn.IFS(Table1[[#This Row],[Standard Base Unit]]=Table1[[#This Row],[Target Unit]],Table1[[#This Row],[Standard Stock Value]]/Table1[[#This Row],[Target Value]],
+SUBSTITUTE(Table1[[#This Row],[Target Unit]],Table1[[#This Row],[Standard Base Unit]],"")="m",Table1[[#This Row],[Standard Stock Value]]/Table1[[#This Row],[Target Value]]*1000,
+SUBSTITUTE(Table1[[#This Row],[Target Unit]],Table1[[#This Row],[Standard Base Unit]],"")="µ",Table1[[#This Row],[Standard Stock Value]]/Table1[[#This Row],[Target Value]]*1000000,
+SUBSTITUTE(Table1[[#This Row],[Target Unit]],Table1[[#This Row],[Standard Base Unit]],"")="n",Table1[[#This Row],[Standard Stock Value]]/Table1[[#This Row],[Target Value]]*1000000000,
+SUBSTITUTE(Table1[[#This Row],[Target Unit]],Table1[[#This Row],[Standard Base Unit]],"")="p",Table1[[#This Row],[Standard Stock Value]]/Table1[[#This Row],[Target Value]]*1000000000000,
+AND(Table1[[#This Row],[Format]]="Powder",Table1[[#This Row],[Target Unit]]="M"),Table1[[#This Row],[Standard Stock Value]]*Table1[[#This Row],[Target Value]],
+AND(Table1[[#This Row],[Format]]="Powder",Table1[[#This Row],[Target Unit]]="mM"),Table1[[#This Row],[Standard Stock Value]]*Table1[[#This Row],[Target Value]]/1000,
+AND(Table1[[#This Row],[Format]]="Powder",Table1[[#This Row],[Target Unit]]="µM"),Table1[[#This Row],[Standard Stock Value]]*Table1[[#This Row],[Target Value]]/1000000,
 AND(Table1[[#This Row],[Format]]="Powder",Table1[[#This Row],[Target Unit]]="% (w/v)"),Table1[[#This Row],[Target Value]]*10,
 TRUE, "!!!")</f>
         <v>100</v>
@@ -2142,14 +2142,14 @@
         <v>13</v>
       </c>
       <c r="K21" s="14" cm="1">
-        <f t="array" ref="K21">_xlfn.IFS(Table1[[#This Row],[Standardized Base Unit]]=Table1[[#This Row],[Target Unit]],Table1[[#This Row],[Standardized Stock Value]]/Table1[[#This Row],[Target Value]],
-SUBSTITUTE(Table1[[#This Row],[Target Unit]],Table1[[#This Row],[Standardized Base Unit]],"")="m",Table1[[#This Row],[Standardized Stock Value]]/Table1[[#This Row],[Target Value]]*1000,
-SUBSTITUTE(Table1[[#This Row],[Target Unit]],Table1[[#This Row],[Standardized Base Unit]],"")="µ",Table1[[#This Row],[Standardized Stock Value]]/Table1[[#This Row],[Target Value]]*1000000,
-SUBSTITUTE(Table1[[#This Row],[Target Unit]],Table1[[#This Row],[Standardized Base Unit]],"")="n",Table1[[#This Row],[Standardized Stock Value]]/Table1[[#This Row],[Target Value]]*1000000000,
-SUBSTITUTE(Table1[[#This Row],[Target Unit]],Table1[[#This Row],[Standardized Base Unit]],"")="p",Table1[[#This Row],[Standardized Stock Value]]/Table1[[#This Row],[Target Value]]*1000000000000,
-AND(Table1[[#This Row],[Format]]="Powder",Table1[[#This Row],[Target Unit]]="M"),Table1[[#This Row],[Standardized Stock Value]]*Table1[[#This Row],[Target Value]],
-AND(Table1[[#This Row],[Format]]="Powder",Table1[[#This Row],[Target Unit]]="mM"),Table1[[#This Row],[Standardized Stock Value]]*Table1[[#This Row],[Target Value]]/1000,
-AND(Table1[[#This Row],[Format]]="Powder",Table1[[#This Row],[Target Unit]]="µM"),Table1[[#This Row],[Standardized Stock Value]]*Table1[[#This Row],[Target Value]]/1000000,
+        <f t="array" ref="K21">_xlfn.IFS(Table1[[#This Row],[Standard Base Unit]]=Table1[[#This Row],[Target Unit]],Table1[[#This Row],[Standard Stock Value]]/Table1[[#This Row],[Target Value]],
+SUBSTITUTE(Table1[[#This Row],[Target Unit]],Table1[[#This Row],[Standard Base Unit]],"")="m",Table1[[#This Row],[Standard Stock Value]]/Table1[[#This Row],[Target Value]]*1000,
+SUBSTITUTE(Table1[[#This Row],[Target Unit]],Table1[[#This Row],[Standard Base Unit]],"")="µ",Table1[[#This Row],[Standard Stock Value]]/Table1[[#This Row],[Target Value]]*1000000,
+SUBSTITUTE(Table1[[#This Row],[Target Unit]],Table1[[#This Row],[Standard Base Unit]],"")="n",Table1[[#This Row],[Standard Stock Value]]/Table1[[#This Row],[Target Value]]*1000000000,
+SUBSTITUTE(Table1[[#This Row],[Target Unit]],Table1[[#This Row],[Standard Base Unit]],"")="p",Table1[[#This Row],[Standard Stock Value]]/Table1[[#This Row],[Target Value]]*1000000000000,
+AND(Table1[[#This Row],[Format]]="Powder",Table1[[#This Row],[Target Unit]]="M"),Table1[[#This Row],[Standard Stock Value]]*Table1[[#This Row],[Target Value]],
+AND(Table1[[#This Row],[Format]]="Powder",Table1[[#This Row],[Target Unit]]="mM"),Table1[[#This Row],[Standard Stock Value]]*Table1[[#This Row],[Target Value]]/1000,
+AND(Table1[[#This Row],[Format]]="Powder",Table1[[#This Row],[Target Unit]]="µM"),Table1[[#This Row],[Standard Stock Value]]*Table1[[#This Row],[Target Value]]/1000000,
 AND(Table1[[#This Row],[Format]]="Powder",Table1[[#This Row],[Target Unit]]="% (w/v)"),Table1[[#This Row],[Target Value]]*10,
 TRUE, "!!!")</f>
         <v>40</v>
@@ -2193,14 +2193,14 @@
         <v>20</v>
       </c>
       <c r="K22" s="14" t="str" cm="1">
-        <f t="array" ref="K22">_xlfn.IFS(Table1[[#This Row],[Standardized Base Unit]]=Table1[[#This Row],[Target Unit]],Table1[[#This Row],[Standardized Stock Value]]/Table1[[#This Row],[Target Value]],
-SUBSTITUTE(Table1[[#This Row],[Target Unit]],Table1[[#This Row],[Standardized Base Unit]],"")="m",Table1[[#This Row],[Standardized Stock Value]]/Table1[[#This Row],[Target Value]]*1000,
-SUBSTITUTE(Table1[[#This Row],[Target Unit]],Table1[[#This Row],[Standardized Base Unit]],"")="µ",Table1[[#This Row],[Standardized Stock Value]]/Table1[[#This Row],[Target Value]]*1000000,
-SUBSTITUTE(Table1[[#This Row],[Target Unit]],Table1[[#This Row],[Standardized Base Unit]],"")="n",Table1[[#This Row],[Standardized Stock Value]]/Table1[[#This Row],[Target Value]]*1000000000,
-SUBSTITUTE(Table1[[#This Row],[Target Unit]],Table1[[#This Row],[Standardized Base Unit]],"")="p",Table1[[#This Row],[Standardized Stock Value]]/Table1[[#This Row],[Target Value]]*1000000000000,
-AND(Table1[[#This Row],[Format]]="Powder",Table1[[#This Row],[Target Unit]]="M"),Table1[[#This Row],[Standardized Stock Value]]*Table1[[#This Row],[Target Value]],
-AND(Table1[[#This Row],[Format]]="Powder",Table1[[#This Row],[Target Unit]]="mM"),Table1[[#This Row],[Standardized Stock Value]]*Table1[[#This Row],[Target Value]]/1000,
-AND(Table1[[#This Row],[Format]]="Powder",Table1[[#This Row],[Target Unit]]="µM"),Table1[[#This Row],[Standardized Stock Value]]*Table1[[#This Row],[Target Value]]/1000000,
+        <f t="array" ref="K22">_xlfn.IFS(Table1[[#This Row],[Standard Base Unit]]=Table1[[#This Row],[Target Unit]],Table1[[#This Row],[Standard Stock Value]]/Table1[[#This Row],[Target Value]],
+SUBSTITUTE(Table1[[#This Row],[Target Unit]],Table1[[#This Row],[Standard Base Unit]],"")="m",Table1[[#This Row],[Standard Stock Value]]/Table1[[#This Row],[Target Value]]*1000,
+SUBSTITUTE(Table1[[#This Row],[Target Unit]],Table1[[#This Row],[Standard Base Unit]],"")="µ",Table1[[#This Row],[Standard Stock Value]]/Table1[[#This Row],[Target Value]]*1000000,
+SUBSTITUTE(Table1[[#This Row],[Target Unit]],Table1[[#This Row],[Standard Base Unit]],"")="n",Table1[[#This Row],[Standard Stock Value]]/Table1[[#This Row],[Target Value]]*1000000000,
+SUBSTITUTE(Table1[[#This Row],[Target Unit]],Table1[[#This Row],[Standard Base Unit]],"")="p",Table1[[#This Row],[Standard Stock Value]]/Table1[[#This Row],[Target Value]]*1000000000000,
+AND(Table1[[#This Row],[Format]]="Powder",Table1[[#This Row],[Target Unit]]="M"),Table1[[#This Row],[Standard Stock Value]]*Table1[[#This Row],[Target Value]],
+AND(Table1[[#This Row],[Format]]="Powder",Table1[[#This Row],[Target Unit]]="mM"),Table1[[#This Row],[Standard Stock Value]]*Table1[[#This Row],[Target Value]]/1000,
+AND(Table1[[#This Row],[Format]]="Powder",Table1[[#This Row],[Target Unit]]="µM"),Table1[[#This Row],[Standard Stock Value]]*Table1[[#This Row],[Target Value]]/1000000,
 AND(Table1[[#This Row],[Format]]="Powder",Table1[[#This Row],[Target Unit]]="% (w/v)"),Table1[[#This Row],[Target Value]]*10,
 TRUE, "!!!")</f>
         <v>!!!</v>
@@ -2224,7 +2224,7 @@
         <v>29</v>
       </c>
       <c r="F23" s="23" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G23" s="10" cm="1">
         <f t="array" ref="G23">_xlfn.IFS(Table1[[#This Row],[Stock Unit]]="NA","NA",Table1[[#This Row],[Stock Unit]]="g/mol",Table1[[#This Row],[MW (g/mol)]],Table1[[#This Row],[Stock Unit]]="M",Table1[[#This Row],[Stock Value]],Table1[[#This Row],[Stock Unit]]="mM",Table1[[#This Row],[Stock Value]]/1000,Table1[[#This Row],[Stock Unit]]="%",Table1[[#This Row],[Stock Value]],Table1[[#This Row],[Stock Unit]]="X",Table1[[#This Row],[Stock Value]],Table1[[#This Row],[Stock Unit]]="µM",Table1[[#This Row],[Stock Value]]/1000000,Table1[[#This Row],[Stock Unit]]="mg/mL",Table1[[#This Row],[Stock Value]],TRUE,"!!!")</f>
@@ -2239,14 +2239,14 @@
         <v>19</v>
       </c>
       <c r="K23" s="14" t="str" cm="1">
-        <f t="array" ref="K23">_xlfn.IFS(Table1[[#This Row],[Standardized Base Unit]]=Table1[[#This Row],[Target Unit]],Table1[[#This Row],[Standardized Stock Value]]/Table1[[#This Row],[Target Value]],
-SUBSTITUTE(Table1[[#This Row],[Target Unit]],Table1[[#This Row],[Standardized Base Unit]],"")="m",Table1[[#This Row],[Standardized Stock Value]]/Table1[[#This Row],[Target Value]]*1000,
-SUBSTITUTE(Table1[[#This Row],[Target Unit]],Table1[[#This Row],[Standardized Base Unit]],"")="µ",Table1[[#This Row],[Standardized Stock Value]]/Table1[[#This Row],[Target Value]]*1000000,
-SUBSTITUTE(Table1[[#This Row],[Target Unit]],Table1[[#This Row],[Standardized Base Unit]],"")="n",Table1[[#This Row],[Standardized Stock Value]]/Table1[[#This Row],[Target Value]]*1000000000,
-SUBSTITUTE(Table1[[#This Row],[Target Unit]],Table1[[#This Row],[Standardized Base Unit]],"")="p",Table1[[#This Row],[Standardized Stock Value]]/Table1[[#This Row],[Target Value]]*1000000000000,
-AND(Table1[[#This Row],[Format]]="Powder",Table1[[#This Row],[Target Unit]]="M"),Table1[[#This Row],[Standardized Stock Value]]*Table1[[#This Row],[Target Value]],
-AND(Table1[[#This Row],[Format]]="Powder",Table1[[#This Row],[Target Unit]]="mM"),Table1[[#This Row],[Standardized Stock Value]]*Table1[[#This Row],[Target Value]]/1000,
-AND(Table1[[#This Row],[Format]]="Powder",Table1[[#This Row],[Target Unit]]="µM"),Table1[[#This Row],[Standardized Stock Value]]*Table1[[#This Row],[Target Value]]/1000000,
+        <f t="array" ref="K23">_xlfn.IFS(Table1[[#This Row],[Standard Base Unit]]=Table1[[#This Row],[Target Unit]],Table1[[#This Row],[Standard Stock Value]]/Table1[[#This Row],[Target Value]],
+SUBSTITUTE(Table1[[#This Row],[Target Unit]],Table1[[#This Row],[Standard Base Unit]],"")="m",Table1[[#This Row],[Standard Stock Value]]/Table1[[#This Row],[Target Value]]*1000,
+SUBSTITUTE(Table1[[#This Row],[Target Unit]],Table1[[#This Row],[Standard Base Unit]],"")="µ",Table1[[#This Row],[Standard Stock Value]]/Table1[[#This Row],[Target Value]]*1000000,
+SUBSTITUTE(Table1[[#This Row],[Target Unit]],Table1[[#This Row],[Standard Base Unit]],"")="n",Table1[[#This Row],[Standard Stock Value]]/Table1[[#This Row],[Target Value]]*1000000000,
+SUBSTITUTE(Table1[[#This Row],[Target Unit]],Table1[[#This Row],[Standard Base Unit]],"")="p",Table1[[#This Row],[Standard Stock Value]]/Table1[[#This Row],[Target Value]]*1000000000000,
+AND(Table1[[#This Row],[Format]]="Powder",Table1[[#This Row],[Target Unit]]="M"),Table1[[#This Row],[Standard Stock Value]]*Table1[[#This Row],[Target Value]],
+AND(Table1[[#This Row],[Format]]="Powder",Table1[[#This Row],[Target Unit]]="mM"),Table1[[#This Row],[Standard Stock Value]]*Table1[[#This Row],[Target Value]]/1000,
+AND(Table1[[#This Row],[Format]]="Powder",Table1[[#This Row],[Target Unit]]="µM"),Table1[[#This Row],[Standard Stock Value]]*Table1[[#This Row],[Target Value]]/1000000,
 AND(Table1[[#This Row],[Format]]="Powder",Table1[[#This Row],[Target Unit]]="% (w/v)"),Table1[[#This Row],[Target Value]]*10,
 TRUE, "!!!")</f>
         <v>!!!</v>
@@ -2288,14 +2288,14 @@
         <v>25</v>
       </c>
       <c r="K24" s="14" t="str" cm="1">
-        <f t="array" ref="K24">_xlfn.IFS(Table1[[#This Row],[Standardized Base Unit]]=Table1[[#This Row],[Target Unit]],Table1[[#This Row],[Standardized Stock Value]]/Table1[[#This Row],[Target Value]],
-SUBSTITUTE(Table1[[#This Row],[Target Unit]],Table1[[#This Row],[Standardized Base Unit]],"")="m",Table1[[#This Row],[Standardized Stock Value]]/Table1[[#This Row],[Target Value]]*1000,
-SUBSTITUTE(Table1[[#This Row],[Target Unit]],Table1[[#This Row],[Standardized Base Unit]],"")="µ",Table1[[#This Row],[Standardized Stock Value]]/Table1[[#This Row],[Target Value]]*1000000,
-SUBSTITUTE(Table1[[#This Row],[Target Unit]],Table1[[#This Row],[Standardized Base Unit]],"")="n",Table1[[#This Row],[Standardized Stock Value]]/Table1[[#This Row],[Target Value]]*1000000000,
-SUBSTITUTE(Table1[[#This Row],[Target Unit]],Table1[[#This Row],[Standardized Base Unit]],"")="p",Table1[[#This Row],[Standardized Stock Value]]/Table1[[#This Row],[Target Value]]*1000000000000,
-AND(Table1[[#This Row],[Format]]="Powder",Table1[[#This Row],[Target Unit]]="M"),Table1[[#This Row],[Standardized Stock Value]]*Table1[[#This Row],[Target Value]],
-AND(Table1[[#This Row],[Format]]="Powder",Table1[[#This Row],[Target Unit]]="mM"),Table1[[#This Row],[Standardized Stock Value]]*Table1[[#This Row],[Target Value]]/1000,
-AND(Table1[[#This Row],[Format]]="Powder",Table1[[#This Row],[Target Unit]]="µM"),Table1[[#This Row],[Standardized Stock Value]]*Table1[[#This Row],[Target Value]]/1000000,
+        <f t="array" ref="K24">_xlfn.IFS(Table1[[#This Row],[Standard Base Unit]]=Table1[[#This Row],[Target Unit]],Table1[[#This Row],[Standard Stock Value]]/Table1[[#This Row],[Target Value]],
+SUBSTITUTE(Table1[[#This Row],[Target Unit]],Table1[[#This Row],[Standard Base Unit]],"")="m",Table1[[#This Row],[Standard Stock Value]]/Table1[[#This Row],[Target Value]]*1000,
+SUBSTITUTE(Table1[[#This Row],[Target Unit]],Table1[[#This Row],[Standard Base Unit]],"")="µ",Table1[[#This Row],[Standard Stock Value]]/Table1[[#This Row],[Target Value]]*1000000,
+SUBSTITUTE(Table1[[#This Row],[Target Unit]],Table1[[#This Row],[Standard Base Unit]],"")="n",Table1[[#This Row],[Standard Stock Value]]/Table1[[#This Row],[Target Value]]*1000000000,
+SUBSTITUTE(Table1[[#This Row],[Target Unit]],Table1[[#This Row],[Standard Base Unit]],"")="p",Table1[[#This Row],[Standard Stock Value]]/Table1[[#This Row],[Target Value]]*1000000000000,
+AND(Table1[[#This Row],[Format]]="Powder",Table1[[#This Row],[Target Unit]]="M"),Table1[[#This Row],[Standard Stock Value]]*Table1[[#This Row],[Target Value]],
+AND(Table1[[#This Row],[Format]]="Powder",Table1[[#This Row],[Target Unit]]="mM"),Table1[[#This Row],[Standard Stock Value]]*Table1[[#This Row],[Target Value]]/1000,
+AND(Table1[[#This Row],[Format]]="Powder",Table1[[#This Row],[Target Unit]]="µM"),Table1[[#This Row],[Standard Stock Value]]*Table1[[#This Row],[Target Value]]/1000000,
 AND(Table1[[#This Row],[Format]]="Powder",Table1[[#This Row],[Target Unit]]="% (w/v)"),Table1[[#This Row],[Target Value]]*10,
 TRUE, "!!!")</f>
         <v>!!!</v>
@@ -2339,14 +2339,14 @@
         <v>6</v>
       </c>
       <c r="K25" s="14" cm="1">
-        <f t="array" ref="K25">_xlfn.IFS(Table1[[#This Row],[Standardized Base Unit]]=Table1[[#This Row],[Target Unit]],Table1[[#This Row],[Standardized Stock Value]]/Table1[[#This Row],[Target Value]],
-SUBSTITUTE(Table1[[#This Row],[Target Unit]],Table1[[#This Row],[Standardized Base Unit]],"")="m",Table1[[#This Row],[Standardized Stock Value]]/Table1[[#This Row],[Target Value]]*1000,
-SUBSTITUTE(Table1[[#This Row],[Target Unit]],Table1[[#This Row],[Standardized Base Unit]],"")="µ",Table1[[#This Row],[Standardized Stock Value]]/Table1[[#This Row],[Target Value]]*1000000,
-SUBSTITUTE(Table1[[#This Row],[Target Unit]],Table1[[#This Row],[Standardized Base Unit]],"")="n",Table1[[#This Row],[Standardized Stock Value]]/Table1[[#This Row],[Target Value]]*1000000000,
-SUBSTITUTE(Table1[[#This Row],[Target Unit]],Table1[[#This Row],[Standardized Base Unit]],"")="p",Table1[[#This Row],[Standardized Stock Value]]/Table1[[#This Row],[Target Value]]*1000000000000,
-AND(Table1[[#This Row],[Format]]="Powder",Table1[[#This Row],[Target Unit]]="M"),Table1[[#This Row],[Standardized Stock Value]]*Table1[[#This Row],[Target Value]],
-AND(Table1[[#This Row],[Format]]="Powder",Table1[[#This Row],[Target Unit]]="mM"),Table1[[#This Row],[Standardized Stock Value]]*Table1[[#This Row],[Target Value]]/1000,
-AND(Table1[[#This Row],[Format]]="Powder",Table1[[#This Row],[Target Unit]]="µM"),Table1[[#This Row],[Standardized Stock Value]]*Table1[[#This Row],[Target Value]]/1000000,
+        <f t="array" ref="K25">_xlfn.IFS(Table1[[#This Row],[Standard Base Unit]]=Table1[[#This Row],[Target Unit]],Table1[[#This Row],[Standard Stock Value]]/Table1[[#This Row],[Target Value]],
+SUBSTITUTE(Table1[[#This Row],[Target Unit]],Table1[[#This Row],[Standard Base Unit]],"")="m",Table1[[#This Row],[Standard Stock Value]]/Table1[[#This Row],[Target Value]]*1000,
+SUBSTITUTE(Table1[[#This Row],[Target Unit]],Table1[[#This Row],[Standard Base Unit]],"")="µ",Table1[[#This Row],[Standard Stock Value]]/Table1[[#This Row],[Target Value]]*1000000,
+SUBSTITUTE(Table1[[#This Row],[Target Unit]],Table1[[#This Row],[Standard Base Unit]],"")="n",Table1[[#This Row],[Standard Stock Value]]/Table1[[#This Row],[Target Value]]*1000000000,
+SUBSTITUTE(Table1[[#This Row],[Target Unit]],Table1[[#This Row],[Standard Base Unit]],"")="p",Table1[[#This Row],[Standard Stock Value]]/Table1[[#This Row],[Target Value]]*1000000000000,
+AND(Table1[[#This Row],[Format]]="Powder",Table1[[#This Row],[Target Unit]]="M"),Table1[[#This Row],[Standard Stock Value]]*Table1[[#This Row],[Target Value]],
+AND(Table1[[#This Row],[Format]]="Powder",Table1[[#This Row],[Target Unit]]="mM"),Table1[[#This Row],[Standard Stock Value]]*Table1[[#This Row],[Target Value]]/1000,
+AND(Table1[[#This Row],[Format]]="Powder",Table1[[#This Row],[Target Unit]]="µM"),Table1[[#This Row],[Standard Stock Value]]*Table1[[#This Row],[Target Value]]/1000000,
 AND(Table1[[#This Row],[Format]]="Powder",Table1[[#This Row],[Target Unit]]="% (w/v)"),Table1[[#This Row],[Target Value]]*10,
 TRUE, "!!!")</f>
         <v>10</v>
@@ -2361,7 +2361,7 @@
     </row>
     <row r="35" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I35" s="25" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -2397,7 +2397,7 @@
   <sheetData>
     <row r="1" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="2:2" x14ac:dyDescent="0.25">
@@ -2412,7 +2412,7 @@
     </row>
     <row r="4" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/personal/buffer-calculator/Buffer_Calculators.xlsx
+++ b/personal/buffer-calculator/Buffer_Calculators.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uofutah-my.sharepoint.com/personal/u1361811_umail_utah_edu/Documents/00_ShawLabWrapUp/02_Resources_Reagent_etc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="252" documentId="8_{A197ED6C-CD2A-4470-A12F-EDD9EBEDE6F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1F7151EC-5211-4DF4-907A-7064F33D760B}"/>
+  <xr:revisionPtr revIDLastSave="355" documentId="8_{A197ED6C-CD2A-4470-A12F-EDD9EBEDE6F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{435E08DC-C34A-40E1-81CC-EE112C7205E6}"/>
   <bookViews>
-    <workbookView xWindow="1875" yWindow="195" windowWidth="25035" windowHeight="15480" activeTab="1" xr2:uid="{FDA63F11-1430-4B1F-9E68-DBD66DB81675}"/>
+    <workbookView xWindow="2205" yWindow="480" windowWidth="25485" windowHeight="14820" activeTab="1" xr2:uid="{FDA63F11-1430-4B1F-9E68-DBD66DB81675}"/>
   </bookViews>
   <sheets>
     <sheet name="Buffer Master" sheetId="2" r:id="rId1"/>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="89">
   <si>
     <t>Format</t>
   </si>
@@ -254,9 +254,6 @@
     <t>KHB</t>
   </si>
   <si>
-    <t>Mito_Isolation</t>
-  </si>
-  <si>
     <t>RIPA 2X</t>
   </si>
   <si>
@@ -270,6 +267,72 @@
   </si>
   <si>
     <t>Standard Base Unit</t>
+  </si>
+  <si>
+    <t>Mito_Isolation_DE</t>
+  </si>
+  <si>
+    <t>Original Version from David</t>
+  </si>
+  <si>
+    <t>Mannitol</t>
+  </si>
+  <si>
+    <t>Sucrose</t>
+  </si>
+  <si>
+    <t>EGTA</t>
+  </si>
+  <si>
+    <t>Thapsigargin</t>
+  </si>
+  <si>
+    <t>BSA (fatty acid-free)</t>
+  </si>
+  <si>
+    <t>MRB</t>
+  </si>
+  <si>
+    <t>Mito Resuspension Buffer (adapted from nature's MAM isolation protocol)</t>
+  </si>
+  <si>
+    <t>NSMI_DE</t>
+  </si>
+  <si>
+    <t>David's imaging/microplate mito buffer</t>
+  </si>
+  <si>
+    <t>HEPES (pH 7.2)</t>
+  </si>
+  <si>
+    <t>K₂HPO₄</t>
+  </si>
+  <si>
+    <t>Mito_Incubation_VN</t>
+  </si>
+  <si>
+    <t>Vu's Mitochondria Incubation Buffer for cell-free mito-actin imaging</t>
+  </si>
+  <si>
+    <t>MOPS (pH 7.2)</t>
+  </si>
+  <si>
+    <t>Rhodamine Actin Reconstitution Buffer: Cytoskeleton's G buffer + 1 mM DTT &amp; 1 mM ATP</t>
+  </si>
+  <si>
+    <t>Cell-free Actin Polymerization</t>
+  </si>
+  <si>
+    <t>Modified G Buffer</t>
+  </si>
+  <si>
+    <t>Imaging of Rho-atin + 20k (no mitochondria)</t>
+  </si>
+  <si>
+    <t>MgCl₂</t>
+  </si>
+  <si>
+    <t>Tris-HCl (pH 7.2)</t>
   </si>
 </sst>
 </file>
@@ -635,8 +698,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{79D0E216-2A34-4A3A-AC9C-68F6BC23DEBC}" name="Table2" displayName="Table2" ref="A1:C5" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
-  <autoFilter ref="A1:C5" xr:uid="{79D0E216-2A34-4A3A-AC9C-68F6BC23DEBC}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{79D0E216-2A34-4A3A-AC9C-68F6BC23DEBC}" name="Table2" displayName="Table2" ref="A1:C10" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
+  <autoFilter ref="A1:C10" xr:uid="{79D0E216-2A34-4A3A-AC9C-68F6BC23DEBC}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{5520E954-D694-4A67-B1F3-1F486835BB05}" name="Buffer" dataDxfId="17"/>
     <tableColumn id="2" xr3:uid="{2396DF9B-6260-43EF-9675-51ED50B0DC4E}" name="Date Created" dataDxfId="16"/>
@@ -647,8 +710,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{85D18CB5-4D56-43AD-9A10-D6A1A43DCCA9}" name="Table1" displayName="Table1" ref="A1:M25" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
-  <autoFilter ref="A1:M25" xr:uid="{85D18CB5-4D56-43AD-9A10-D6A1A43DCCA9}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{85D18CB5-4D56-43AD-9A10-D6A1A43DCCA9}" name="Table1" displayName="Table1" ref="A1:M46" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
+  <autoFilter ref="A1:M46" xr:uid="{85D18CB5-4D56-43AD-9A10-D6A1A43DCCA9}"/>
   <tableColumns count="13">
     <tableColumn id="14" xr3:uid="{8339754A-4390-4E80-A287-D585D9B04CF3}" name="Buffer" dataDxfId="12"/>
     <tableColumn id="1" xr3:uid="{A075C41C-76E6-4DF8-A9A1-BD1A70FA0052}" name="Chemical" dataDxfId="11"/>
@@ -992,17 +1055,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DCD0F3A-7ED2-47AC-B9C2-CB0A02FEF993}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="39.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="81.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
@@ -1030,7 +1093,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B3" s="21">
         <v>46076</v>
@@ -1041,21 +1104,79 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="B4" s="21">
         <v>46076</v>
       </c>
+      <c r="C4" s="1" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B5" s="21">
         <v>46076</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B6" s="21">
+        <v>46078</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B7" s="21">
+        <v>46078</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B8" s="21">
+        <v>46078</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B9" s="21">
+        <v>46078</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B10" s="21">
+        <v>46078</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -1068,15 +1189,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A0FCCAB-9908-420E-8701-C4A246E50A96}">
-  <dimension ref="A1:M35"/>
+  <dimension ref="A1:M56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="32.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.140625" style="1" customWidth="1"/>
     <col min="4" max="4" width="7.42578125" style="5" customWidth="1"/>
@@ -1097,7 +1218,7 @@
         <v>44</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>0</v>
@@ -1112,10 +1233,10 @@
         <v>3</v>
       </c>
       <c r="G1" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="H1" s="4" t="s">
         <v>66</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>67</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>34</v>
@@ -1543,7 +1664,7 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>57</v>
@@ -1594,7 +1715,7 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>43</v>
@@ -1645,7 +1766,7 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>58</v>
@@ -1696,7 +1817,7 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>7</v>
@@ -1747,7 +1868,7 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>43</v>
@@ -1798,7 +1919,7 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>10</v>
@@ -1852,7 +1973,7 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>15</v>
@@ -1906,7 +2027,7 @@
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>51</v>
@@ -1957,7 +2078,7 @@
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>52</v>
@@ -2008,7 +2129,7 @@
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>53</v>
@@ -2059,7 +2180,7 @@
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>59</v>
@@ -2112,37 +2233,1108 @@
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>67</v>
+      </c>
       <c r="B21" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21" s="1">
+        <v>182.17</v>
+      </c>
+      <c r="E21" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="F21" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="G21" s="12" cm="1">
+        <f t="array" ref="G21">_xlfn.IFS(Table1[[#This Row],[Stock Unit]]="NA","NA",Table1[[#This Row],[Stock Unit]]="g/mol",Table1[[#This Row],[MW (g/mol)]],Table1[[#This Row],[Stock Unit]]="M",Table1[[#This Row],[Stock Value]],Table1[[#This Row],[Stock Unit]]="mM",Table1[[#This Row],[Stock Value]]/1000,Table1[[#This Row],[Stock Unit]]="%",Table1[[#This Row],[Stock Value]],Table1[[#This Row],[Stock Unit]]="X",Table1[[#This Row],[Stock Value]],Table1[[#This Row],[Stock Unit]]="µM",Table1[[#This Row],[Stock Value]]/1000000,Table1[[#This Row],[Stock Unit]]="mg/mL",Table1[[#This Row],[Stock Value]],TRUE,"!!!")</f>
+        <v>182.17</v>
+      </c>
+      <c r="H21" s="13" t="str" cm="1">
+        <f t="array" ref="H21">_xlfn.IFS(Table1[[#This Row],[Stock Unit]]="g/mol","g/mol",Table1[[#This Row],[Stock Unit]]="NA","NA",Table1[[#This Row],[Stock Unit]]="M","M",Table1[[#This Row],[Stock Unit]]="%","%",Table1[[#This Row],[Stock Unit]]="X","X", Table1[[#This Row],[Stock Unit]]="mg/mL", "mg/mL", TRUE,"!!!")</f>
+        <v>g/mol</v>
+      </c>
+      <c r="I21" s="22">
+        <v>225</v>
+      </c>
+      <c r="J21" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="K21" s="17" cm="1">
+        <f t="array" ref="K21">_xlfn.IFS(Table1[[#This Row],[Standard Base Unit]]=Table1[[#This Row],[Target Unit]],Table1[[#This Row],[Standard Stock Value]]/Table1[[#This Row],[Target Value]],
+SUBSTITUTE(Table1[[#This Row],[Target Unit]],Table1[[#This Row],[Standard Base Unit]],"")="m",Table1[[#This Row],[Standard Stock Value]]/Table1[[#This Row],[Target Value]]*1000,
+SUBSTITUTE(Table1[[#This Row],[Target Unit]],Table1[[#This Row],[Standard Base Unit]],"")="µ",Table1[[#This Row],[Standard Stock Value]]/Table1[[#This Row],[Target Value]]*1000000,
+SUBSTITUTE(Table1[[#This Row],[Target Unit]],Table1[[#This Row],[Standard Base Unit]],"")="n",Table1[[#This Row],[Standard Stock Value]]/Table1[[#This Row],[Target Value]]*1000000000,
+SUBSTITUTE(Table1[[#This Row],[Target Unit]],Table1[[#This Row],[Standard Base Unit]],"")="p",Table1[[#This Row],[Standard Stock Value]]/Table1[[#This Row],[Target Value]]*1000000000000,
+AND(Table1[[#This Row],[Format]]="Powder",Table1[[#This Row],[Target Unit]]="M"),Table1[[#This Row],[Standard Stock Value]]*Table1[[#This Row],[Target Value]],
+AND(Table1[[#This Row],[Format]]="Powder",Table1[[#This Row],[Target Unit]]="mM"),Table1[[#This Row],[Standard Stock Value]]*Table1[[#This Row],[Target Value]]/1000,
+AND(Table1[[#This Row],[Format]]="Powder",Table1[[#This Row],[Target Unit]]="µM"),Table1[[#This Row],[Standard Stock Value]]*Table1[[#This Row],[Target Value]]/1000000,
+AND(Table1[[#This Row],[Format]]="Powder",Table1[[#This Row],[Target Unit]]="% (w/v)"),Table1[[#This Row],[Target Value]]*10,
+TRUE, "!!!")</f>
+        <v>40.988250000000001</v>
+      </c>
+      <c r="L21" s="18" t="str" cm="1">
+        <f t="array" ref="L21">_xlfn.IFS(Table1[[#This Row],[Format]]="Powder","g/L",Table1[[#This Row],[Format]]="Liquid",":1 (" &amp; 1000/Table1[[#This Row],[Amount Needed]] &amp;  " mL/L)", TRUE, "!!!")</f>
+        <v>g/L</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D22" s="1">
+        <v>342.3</v>
+      </c>
+      <c r="E22" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="F22" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="G22" s="12" cm="1">
+        <f t="array" ref="G22">_xlfn.IFS(Table1[[#This Row],[Stock Unit]]="NA","NA",Table1[[#This Row],[Stock Unit]]="g/mol",Table1[[#This Row],[MW (g/mol)]],Table1[[#This Row],[Stock Unit]]="M",Table1[[#This Row],[Stock Value]],Table1[[#This Row],[Stock Unit]]="mM",Table1[[#This Row],[Stock Value]]/1000,Table1[[#This Row],[Stock Unit]]="%",Table1[[#This Row],[Stock Value]],Table1[[#This Row],[Stock Unit]]="X",Table1[[#This Row],[Stock Value]],Table1[[#This Row],[Stock Unit]]="µM",Table1[[#This Row],[Stock Value]]/1000000,Table1[[#This Row],[Stock Unit]]="mg/mL",Table1[[#This Row],[Stock Value]],TRUE,"!!!")</f>
+        <v>342.3</v>
+      </c>
+      <c r="H22" s="13" t="str" cm="1">
+        <f t="array" ref="H22">_xlfn.IFS(Table1[[#This Row],[Stock Unit]]="g/mol","g/mol",Table1[[#This Row],[Stock Unit]]="NA","NA",Table1[[#This Row],[Stock Unit]]="M","M",Table1[[#This Row],[Stock Unit]]="%","%",Table1[[#This Row],[Stock Unit]]="X","X", Table1[[#This Row],[Stock Unit]]="mg/mL", "mg/mL", TRUE,"!!!")</f>
+        <v>g/mol</v>
+      </c>
+      <c r="I22" s="22">
+        <v>70</v>
+      </c>
+      <c r="J22" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="K22" s="17" cm="1">
+        <f t="array" ref="K22">_xlfn.IFS(Table1[[#This Row],[Standard Base Unit]]=Table1[[#This Row],[Target Unit]],Table1[[#This Row],[Standard Stock Value]]/Table1[[#This Row],[Target Value]],
+SUBSTITUTE(Table1[[#This Row],[Target Unit]],Table1[[#This Row],[Standard Base Unit]],"")="m",Table1[[#This Row],[Standard Stock Value]]/Table1[[#This Row],[Target Value]]*1000,
+SUBSTITUTE(Table1[[#This Row],[Target Unit]],Table1[[#This Row],[Standard Base Unit]],"")="µ",Table1[[#This Row],[Standard Stock Value]]/Table1[[#This Row],[Target Value]]*1000000,
+SUBSTITUTE(Table1[[#This Row],[Target Unit]],Table1[[#This Row],[Standard Base Unit]],"")="n",Table1[[#This Row],[Standard Stock Value]]/Table1[[#This Row],[Target Value]]*1000000000,
+SUBSTITUTE(Table1[[#This Row],[Target Unit]],Table1[[#This Row],[Standard Base Unit]],"")="p",Table1[[#This Row],[Standard Stock Value]]/Table1[[#This Row],[Target Value]]*1000000000000,
+AND(Table1[[#This Row],[Format]]="Powder",Table1[[#This Row],[Target Unit]]="M"),Table1[[#This Row],[Standard Stock Value]]*Table1[[#This Row],[Target Value]],
+AND(Table1[[#This Row],[Format]]="Powder",Table1[[#This Row],[Target Unit]]="mM"),Table1[[#This Row],[Standard Stock Value]]*Table1[[#This Row],[Target Value]]/1000,
+AND(Table1[[#This Row],[Format]]="Powder",Table1[[#This Row],[Target Unit]]="µM"),Table1[[#This Row],[Standard Stock Value]]*Table1[[#This Row],[Target Value]]/1000000,
+AND(Table1[[#This Row],[Format]]="Powder",Table1[[#This Row],[Target Unit]]="% (w/v)"),Table1[[#This Row],[Target Value]]*10,
+TRUE, "!!!")</f>
+        <v>23.960999999999999</v>
+      </c>
+      <c r="L22" s="18" t="str" cm="1">
+        <f t="array" ref="L22">_xlfn.IFS(Table1[[#This Row],[Format]]="Powder","g/L",Table1[[#This Row],[Format]]="Liquid",":1 (" &amp; 1000/Table1[[#This Row],[Amount Needed]] &amp;  " mL/L)", TRUE, "!!!")</f>
+        <v>g/L</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E23" s="22">
+        <v>1</v>
+      </c>
+      <c r="F23" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="G23" s="12" cm="1">
+        <f t="array" ref="G23">_xlfn.IFS(Table1[[#This Row],[Stock Unit]]="NA","NA",Table1[[#This Row],[Stock Unit]]="g/mol",Table1[[#This Row],[MW (g/mol)]],Table1[[#This Row],[Stock Unit]]="M",Table1[[#This Row],[Stock Value]],Table1[[#This Row],[Stock Unit]]="mM",Table1[[#This Row],[Stock Value]]/1000,Table1[[#This Row],[Stock Unit]]="%",Table1[[#This Row],[Stock Value]],Table1[[#This Row],[Stock Unit]]="X",Table1[[#This Row],[Stock Value]],Table1[[#This Row],[Stock Unit]]="µM",Table1[[#This Row],[Stock Value]]/1000000,Table1[[#This Row],[Stock Unit]]="mg/mL",Table1[[#This Row],[Stock Value]],TRUE,"!!!")</f>
+        <v>1</v>
+      </c>
+      <c r="H23" s="13" t="str" cm="1">
+        <f t="array" ref="H23">_xlfn.IFS(Table1[[#This Row],[Stock Unit]]="g/mol","g/mol",Table1[[#This Row],[Stock Unit]]="NA","NA",Table1[[#This Row],[Stock Unit]]="M","M",Table1[[#This Row],[Stock Unit]]="%","%",Table1[[#This Row],[Stock Unit]]="X","X", Table1[[#This Row],[Stock Unit]]="mg/mL", "mg/mL", TRUE,"!!!")</f>
+        <v>M</v>
+      </c>
+      <c r="I23" s="22">
+        <v>5</v>
+      </c>
+      <c r="J23" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="K23" s="17" cm="1">
+        <f t="array" ref="K23">_xlfn.IFS(Table1[[#This Row],[Standard Base Unit]]=Table1[[#This Row],[Target Unit]],Table1[[#This Row],[Standard Stock Value]]/Table1[[#This Row],[Target Value]],
+SUBSTITUTE(Table1[[#This Row],[Target Unit]],Table1[[#This Row],[Standard Base Unit]],"")="m",Table1[[#This Row],[Standard Stock Value]]/Table1[[#This Row],[Target Value]]*1000,
+SUBSTITUTE(Table1[[#This Row],[Target Unit]],Table1[[#This Row],[Standard Base Unit]],"")="µ",Table1[[#This Row],[Standard Stock Value]]/Table1[[#This Row],[Target Value]]*1000000,
+SUBSTITUTE(Table1[[#This Row],[Target Unit]],Table1[[#This Row],[Standard Base Unit]],"")="n",Table1[[#This Row],[Standard Stock Value]]/Table1[[#This Row],[Target Value]]*1000000000,
+SUBSTITUTE(Table1[[#This Row],[Target Unit]],Table1[[#This Row],[Standard Base Unit]],"")="p",Table1[[#This Row],[Standard Stock Value]]/Table1[[#This Row],[Target Value]]*1000000000000,
+AND(Table1[[#This Row],[Format]]="Powder",Table1[[#This Row],[Target Unit]]="M"),Table1[[#This Row],[Standard Stock Value]]*Table1[[#This Row],[Target Value]],
+AND(Table1[[#This Row],[Format]]="Powder",Table1[[#This Row],[Target Unit]]="mM"),Table1[[#This Row],[Standard Stock Value]]*Table1[[#This Row],[Target Value]]/1000,
+AND(Table1[[#This Row],[Format]]="Powder",Table1[[#This Row],[Target Unit]]="µM"),Table1[[#This Row],[Standard Stock Value]]*Table1[[#This Row],[Target Value]]/1000000,
+AND(Table1[[#This Row],[Format]]="Powder",Table1[[#This Row],[Target Unit]]="% (w/v)"),Table1[[#This Row],[Target Value]]*10,
+TRUE, "!!!")</f>
+        <v>200</v>
+      </c>
+      <c r="L23" s="18" t="str" cm="1">
+        <f t="array" ref="L23">_xlfn.IFS(Table1[[#This Row],[Format]]="Powder","g/L",Table1[[#This Row],[Format]]="Liquid",":1 (" &amp; 1000/Table1[[#This Row],[Amount Needed]] &amp;  " mL/L)", TRUE, "!!!")</f>
+        <v>:1 (5 mL/L)</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D24" s="1">
+        <v>380.35</v>
+      </c>
+      <c r="E24" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="F24" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="G24" s="12" cm="1">
+        <f t="array" ref="G24">_xlfn.IFS(Table1[[#This Row],[Stock Unit]]="NA","NA",Table1[[#This Row],[Stock Unit]]="g/mol",Table1[[#This Row],[MW (g/mol)]],Table1[[#This Row],[Stock Unit]]="M",Table1[[#This Row],[Stock Value]],Table1[[#This Row],[Stock Unit]]="mM",Table1[[#This Row],[Stock Value]]/1000,Table1[[#This Row],[Stock Unit]]="%",Table1[[#This Row],[Stock Value]],Table1[[#This Row],[Stock Unit]]="X",Table1[[#This Row],[Stock Value]],Table1[[#This Row],[Stock Unit]]="µM",Table1[[#This Row],[Stock Value]]/1000000,Table1[[#This Row],[Stock Unit]]="mg/mL",Table1[[#This Row],[Stock Value]],TRUE,"!!!")</f>
+        <v>380.35</v>
+      </c>
+      <c r="H24" s="13" t="str" cm="1">
+        <f t="array" ref="H24">_xlfn.IFS(Table1[[#This Row],[Stock Unit]]="g/mol","g/mol",Table1[[#This Row],[Stock Unit]]="NA","NA",Table1[[#This Row],[Stock Unit]]="M","M",Table1[[#This Row],[Stock Unit]]="%","%",Table1[[#This Row],[Stock Unit]]="X","X", Table1[[#This Row],[Stock Unit]]="mg/mL", "mg/mL", TRUE,"!!!")</f>
+        <v>g/mol</v>
+      </c>
+      <c r="I24" s="22">
+        <v>1</v>
+      </c>
+      <c r="J24" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="K24" s="17" cm="1">
+        <f t="array" ref="K24">_xlfn.IFS(Table1[[#This Row],[Standard Base Unit]]=Table1[[#This Row],[Target Unit]],Table1[[#This Row],[Standard Stock Value]]/Table1[[#This Row],[Target Value]],
+SUBSTITUTE(Table1[[#This Row],[Target Unit]],Table1[[#This Row],[Standard Base Unit]],"")="m",Table1[[#This Row],[Standard Stock Value]]/Table1[[#This Row],[Target Value]]*1000,
+SUBSTITUTE(Table1[[#This Row],[Target Unit]],Table1[[#This Row],[Standard Base Unit]],"")="µ",Table1[[#This Row],[Standard Stock Value]]/Table1[[#This Row],[Target Value]]*1000000,
+SUBSTITUTE(Table1[[#This Row],[Target Unit]],Table1[[#This Row],[Standard Base Unit]],"")="n",Table1[[#This Row],[Standard Stock Value]]/Table1[[#This Row],[Target Value]]*1000000000,
+SUBSTITUTE(Table1[[#This Row],[Target Unit]],Table1[[#This Row],[Standard Base Unit]],"")="p",Table1[[#This Row],[Standard Stock Value]]/Table1[[#This Row],[Target Value]]*1000000000000,
+AND(Table1[[#This Row],[Format]]="Powder",Table1[[#This Row],[Target Unit]]="M"),Table1[[#This Row],[Standard Stock Value]]*Table1[[#This Row],[Target Value]],
+AND(Table1[[#This Row],[Format]]="Powder",Table1[[#This Row],[Target Unit]]="mM"),Table1[[#This Row],[Standard Stock Value]]*Table1[[#This Row],[Target Value]]/1000,
+AND(Table1[[#This Row],[Format]]="Powder",Table1[[#This Row],[Target Unit]]="µM"),Table1[[#This Row],[Standard Stock Value]]*Table1[[#This Row],[Target Value]]/1000000,
+AND(Table1[[#This Row],[Format]]="Powder",Table1[[#This Row],[Target Unit]]="% (w/v)"),Table1[[#This Row],[Target Value]]*10,
+TRUE, "!!!")</f>
+        <v>0.38035000000000002</v>
+      </c>
+      <c r="L24" s="18" t="str" cm="1">
+        <f t="array" ref="L24">_xlfn.IFS(Table1[[#This Row],[Format]]="Powder","g/L",Table1[[#This Row],[Format]]="Liquid",":1 (" &amp; 1000/Table1[[#This Row],[Amount Needed]] &amp;  " mL/L)", TRUE, "!!!")</f>
+        <v>g/L</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D25" s="1">
+        <v>650.79999999999995</v>
+      </c>
+      <c r="E25" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="F25" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="G25" s="12" cm="1">
+        <f t="array" ref="G25">_xlfn.IFS(Table1[[#This Row],[Stock Unit]]="NA","NA",Table1[[#This Row],[Stock Unit]]="g/mol",Table1[[#This Row],[MW (g/mol)]],Table1[[#This Row],[Stock Unit]]="M",Table1[[#This Row],[Stock Value]],Table1[[#This Row],[Stock Unit]]="mM",Table1[[#This Row],[Stock Value]]/1000,Table1[[#This Row],[Stock Unit]]="%",Table1[[#This Row],[Stock Value]],Table1[[#This Row],[Stock Unit]]="X",Table1[[#This Row],[Stock Value]],Table1[[#This Row],[Stock Unit]]="µM",Table1[[#This Row],[Stock Value]]/1000000,Table1[[#This Row],[Stock Unit]]="mg/mL",Table1[[#This Row],[Stock Value]],TRUE,"!!!")</f>
+        <v>650.79999999999995</v>
+      </c>
+      <c r="H25" s="13" t="str" cm="1">
+        <f t="array" ref="H25">_xlfn.IFS(Table1[[#This Row],[Stock Unit]]="g/mol","g/mol",Table1[[#This Row],[Stock Unit]]="NA","NA",Table1[[#This Row],[Stock Unit]]="M","M",Table1[[#This Row],[Stock Unit]]="%","%",Table1[[#This Row],[Stock Unit]]="X","X", Table1[[#This Row],[Stock Unit]]="mg/mL", "mg/mL", TRUE,"!!!")</f>
+        <v>g/mol</v>
+      </c>
+      <c r="I25" s="22">
+        <v>1</v>
+      </c>
+      <c r="J25" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="K25" s="17" cm="1">
+        <f t="array" ref="K25">_xlfn.IFS(Table1[[#This Row],[Standard Base Unit]]=Table1[[#This Row],[Target Unit]],Table1[[#This Row],[Standard Stock Value]]/Table1[[#This Row],[Target Value]],
+SUBSTITUTE(Table1[[#This Row],[Target Unit]],Table1[[#This Row],[Standard Base Unit]],"")="m",Table1[[#This Row],[Standard Stock Value]]/Table1[[#This Row],[Target Value]]*1000,
+SUBSTITUTE(Table1[[#This Row],[Target Unit]],Table1[[#This Row],[Standard Base Unit]],"")="µ",Table1[[#This Row],[Standard Stock Value]]/Table1[[#This Row],[Target Value]]*1000000,
+SUBSTITUTE(Table1[[#This Row],[Target Unit]],Table1[[#This Row],[Standard Base Unit]],"")="n",Table1[[#This Row],[Standard Stock Value]]/Table1[[#This Row],[Target Value]]*1000000000,
+SUBSTITUTE(Table1[[#This Row],[Target Unit]],Table1[[#This Row],[Standard Base Unit]],"")="p",Table1[[#This Row],[Standard Stock Value]]/Table1[[#This Row],[Target Value]]*1000000000000,
+AND(Table1[[#This Row],[Format]]="Powder",Table1[[#This Row],[Target Unit]]="M"),Table1[[#This Row],[Standard Stock Value]]*Table1[[#This Row],[Target Value]],
+AND(Table1[[#This Row],[Format]]="Powder",Table1[[#This Row],[Target Unit]]="mM"),Table1[[#This Row],[Standard Stock Value]]*Table1[[#This Row],[Target Value]]/1000,
+AND(Table1[[#This Row],[Format]]="Powder",Table1[[#This Row],[Target Unit]]="µM"),Table1[[#This Row],[Standard Stock Value]]*Table1[[#This Row],[Target Value]]/1000000,
+AND(Table1[[#This Row],[Format]]="Powder",Table1[[#This Row],[Target Unit]]="% (w/v)"),Table1[[#This Row],[Target Value]]*10,
+TRUE, "!!!")</f>
+        <v>6.5079999999999999E-4</v>
+      </c>
+      <c r="L25" s="18" t="str" cm="1">
+        <f t="array" ref="L25">_xlfn.IFS(Table1[[#This Row],[Format]]="Powder","g/L",Table1[[#This Row],[Format]]="Liquid",":1 (" &amp; 1000/Table1[[#This Row],[Amount Needed]] &amp;  " mL/L)", TRUE, "!!!")</f>
+        <v>g/L</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D26" s="1">
+        <v>66430</v>
+      </c>
+      <c r="E26" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="F26" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="G26" s="12" cm="1">
+        <f t="array" ref="G26">_xlfn.IFS(Table1[[#This Row],[Stock Unit]]="NA","NA",Table1[[#This Row],[Stock Unit]]="g/mol",Table1[[#This Row],[MW (g/mol)]],Table1[[#This Row],[Stock Unit]]="M",Table1[[#This Row],[Stock Value]],Table1[[#This Row],[Stock Unit]]="mM",Table1[[#This Row],[Stock Value]]/1000,Table1[[#This Row],[Stock Unit]]="%",Table1[[#This Row],[Stock Value]],Table1[[#This Row],[Stock Unit]]="X",Table1[[#This Row],[Stock Value]],Table1[[#This Row],[Stock Unit]]="µM",Table1[[#This Row],[Stock Value]]/1000000,Table1[[#This Row],[Stock Unit]]="mg/mL",Table1[[#This Row],[Stock Value]],TRUE,"!!!")</f>
+        <v>66430</v>
+      </c>
+      <c r="H26" s="13" t="str" cm="1">
+        <f t="array" ref="H26">_xlfn.IFS(Table1[[#This Row],[Stock Unit]]="g/mol","g/mol",Table1[[#This Row],[Stock Unit]]="NA","NA",Table1[[#This Row],[Stock Unit]]="M","M",Table1[[#This Row],[Stock Unit]]="%","%",Table1[[#This Row],[Stock Unit]]="X","X", Table1[[#This Row],[Stock Unit]]="mg/mL", "mg/mL", TRUE,"!!!")</f>
+        <v>g/mol</v>
+      </c>
+      <c r="I26" s="22">
+        <v>0.1</v>
+      </c>
+      <c r="J26" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="K26" s="17" cm="1">
+        <f t="array" ref="K26">_xlfn.IFS(Table1[[#This Row],[Standard Base Unit]]=Table1[[#This Row],[Target Unit]],Table1[[#This Row],[Standard Stock Value]]/Table1[[#This Row],[Target Value]],
+SUBSTITUTE(Table1[[#This Row],[Target Unit]],Table1[[#This Row],[Standard Base Unit]],"")="m",Table1[[#This Row],[Standard Stock Value]]/Table1[[#This Row],[Target Value]]*1000,
+SUBSTITUTE(Table1[[#This Row],[Target Unit]],Table1[[#This Row],[Standard Base Unit]],"")="µ",Table1[[#This Row],[Standard Stock Value]]/Table1[[#This Row],[Target Value]]*1000000,
+SUBSTITUTE(Table1[[#This Row],[Target Unit]],Table1[[#This Row],[Standard Base Unit]],"")="n",Table1[[#This Row],[Standard Stock Value]]/Table1[[#This Row],[Target Value]]*1000000000,
+SUBSTITUTE(Table1[[#This Row],[Target Unit]],Table1[[#This Row],[Standard Base Unit]],"")="p",Table1[[#This Row],[Standard Stock Value]]/Table1[[#This Row],[Target Value]]*1000000000000,
+AND(Table1[[#This Row],[Format]]="Powder",Table1[[#This Row],[Target Unit]]="M"),Table1[[#This Row],[Standard Stock Value]]*Table1[[#This Row],[Target Value]],
+AND(Table1[[#This Row],[Format]]="Powder",Table1[[#This Row],[Target Unit]]="mM"),Table1[[#This Row],[Standard Stock Value]]*Table1[[#This Row],[Target Value]]/1000,
+AND(Table1[[#This Row],[Format]]="Powder",Table1[[#This Row],[Target Unit]]="µM"),Table1[[#This Row],[Standard Stock Value]]*Table1[[#This Row],[Target Value]]/1000000,
+AND(Table1[[#This Row],[Format]]="Powder",Table1[[#This Row],[Target Unit]]="% (w/v)"),Table1[[#This Row],[Target Value]]*10,
+TRUE, "!!!")</f>
+        <v>1</v>
+      </c>
+      <c r="L26" s="18" t="str" cm="1">
+        <f t="array" ref="L26">_xlfn.IFS(Table1[[#This Row],[Format]]="Powder","g/L",Table1[[#This Row],[Format]]="Liquid",":1 (" &amp; 1000/Table1[[#This Row],[Amount Needed]] &amp;  " mL/L)", TRUE, "!!!")</f>
+        <v>g/L</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D27" s="1">
+        <v>182.17</v>
+      </c>
+      <c r="E27" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="F27" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="G27" s="12" cm="1">
+        <f t="array" ref="G27">_xlfn.IFS(Table1[[#This Row],[Stock Unit]]="NA","NA",Table1[[#This Row],[Stock Unit]]="g/mol",Table1[[#This Row],[MW (g/mol)]],Table1[[#This Row],[Stock Unit]]="M",Table1[[#This Row],[Stock Value]],Table1[[#This Row],[Stock Unit]]="mM",Table1[[#This Row],[Stock Value]]/1000,Table1[[#This Row],[Stock Unit]]="%",Table1[[#This Row],[Stock Value]],Table1[[#This Row],[Stock Unit]]="X",Table1[[#This Row],[Stock Value]],Table1[[#This Row],[Stock Unit]]="µM",Table1[[#This Row],[Stock Value]]/1000000,Table1[[#This Row],[Stock Unit]]="mg/mL",Table1[[#This Row],[Stock Value]],TRUE,"!!!")</f>
+        <v>182.17</v>
+      </c>
+      <c r="H27" s="13" t="str" cm="1">
+        <f t="array" ref="H27">_xlfn.IFS(Table1[[#This Row],[Stock Unit]]="g/mol","g/mol",Table1[[#This Row],[Stock Unit]]="NA","NA",Table1[[#This Row],[Stock Unit]]="M","M",Table1[[#This Row],[Stock Unit]]="%","%",Table1[[#This Row],[Stock Unit]]="X","X", Table1[[#This Row],[Stock Unit]]="mg/mL", "mg/mL", TRUE,"!!!")</f>
+        <v>g/mol</v>
+      </c>
+      <c r="I27" s="22">
+        <v>250</v>
+      </c>
+      <c r="J27" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="K27" s="17" cm="1">
+        <f t="array" ref="K27">_xlfn.IFS(Table1[[#This Row],[Standard Base Unit]]=Table1[[#This Row],[Target Unit]],Table1[[#This Row],[Standard Stock Value]]/Table1[[#This Row],[Target Value]],
+SUBSTITUTE(Table1[[#This Row],[Target Unit]],Table1[[#This Row],[Standard Base Unit]],"")="m",Table1[[#This Row],[Standard Stock Value]]/Table1[[#This Row],[Target Value]]*1000,
+SUBSTITUTE(Table1[[#This Row],[Target Unit]],Table1[[#This Row],[Standard Base Unit]],"")="µ",Table1[[#This Row],[Standard Stock Value]]/Table1[[#This Row],[Target Value]]*1000000,
+SUBSTITUTE(Table1[[#This Row],[Target Unit]],Table1[[#This Row],[Standard Base Unit]],"")="n",Table1[[#This Row],[Standard Stock Value]]/Table1[[#This Row],[Target Value]]*1000000000,
+SUBSTITUTE(Table1[[#This Row],[Target Unit]],Table1[[#This Row],[Standard Base Unit]],"")="p",Table1[[#This Row],[Standard Stock Value]]/Table1[[#This Row],[Target Value]]*1000000000000,
+AND(Table1[[#This Row],[Format]]="Powder",Table1[[#This Row],[Target Unit]]="M"),Table1[[#This Row],[Standard Stock Value]]*Table1[[#This Row],[Target Value]],
+AND(Table1[[#This Row],[Format]]="Powder",Table1[[#This Row],[Target Unit]]="mM"),Table1[[#This Row],[Standard Stock Value]]*Table1[[#This Row],[Target Value]]/1000,
+AND(Table1[[#This Row],[Format]]="Powder",Table1[[#This Row],[Target Unit]]="µM"),Table1[[#This Row],[Standard Stock Value]]*Table1[[#This Row],[Target Value]]/1000000,
+AND(Table1[[#This Row],[Format]]="Powder",Table1[[#This Row],[Target Unit]]="% (w/v)"),Table1[[#This Row],[Target Value]]*10,
+TRUE, "!!!")</f>
+        <v>45.542499999999997</v>
+      </c>
+      <c r="L27" s="18" t="str" cm="1">
+        <f t="array" ref="L27">_xlfn.IFS(Table1[[#This Row],[Format]]="Powder","g/L",Table1[[#This Row],[Format]]="Liquid",":1 (" &amp; 1000/Table1[[#This Row],[Amount Needed]] &amp;  " mL/L)", TRUE, "!!!")</f>
+        <v>g/L</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E28" s="22">
+        <v>1</v>
+      </c>
+      <c r="F28" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="G28" s="12" cm="1">
+        <f t="array" ref="G28">_xlfn.IFS(Table1[[#This Row],[Stock Unit]]="NA","NA",Table1[[#This Row],[Stock Unit]]="g/mol",Table1[[#This Row],[MW (g/mol)]],Table1[[#This Row],[Stock Unit]]="M",Table1[[#This Row],[Stock Value]],Table1[[#This Row],[Stock Unit]]="mM",Table1[[#This Row],[Stock Value]]/1000,Table1[[#This Row],[Stock Unit]]="%",Table1[[#This Row],[Stock Value]],Table1[[#This Row],[Stock Unit]]="X",Table1[[#This Row],[Stock Value]],Table1[[#This Row],[Stock Unit]]="µM",Table1[[#This Row],[Stock Value]]/1000000,Table1[[#This Row],[Stock Unit]]="mg/mL",Table1[[#This Row],[Stock Value]],TRUE,"!!!")</f>
+        <v>1</v>
+      </c>
+      <c r="H28" s="13" t="str" cm="1">
+        <f t="array" ref="H28">_xlfn.IFS(Table1[[#This Row],[Stock Unit]]="g/mol","g/mol",Table1[[#This Row],[Stock Unit]]="NA","NA",Table1[[#This Row],[Stock Unit]]="M","M",Table1[[#This Row],[Stock Unit]]="%","%",Table1[[#This Row],[Stock Unit]]="X","X", Table1[[#This Row],[Stock Unit]]="mg/mL", "mg/mL", TRUE,"!!!")</f>
+        <v>M</v>
+      </c>
+      <c r="I28" s="22">
+        <v>5</v>
+      </c>
+      <c r="J28" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="K28" s="17" cm="1">
+        <f t="array" ref="K28">_xlfn.IFS(Table1[[#This Row],[Standard Base Unit]]=Table1[[#This Row],[Target Unit]],Table1[[#This Row],[Standard Stock Value]]/Table1[[#This Row],[Target Value]],
+SUBSTITUTE(Table1[[#This Row],[Target Unit]],Table1[[#This Row],[Standard Base Unit]],"")="m",Table1[[#This Row],[Standard Stock Value]]/Table1[[#This Row],[Target Value]]*1000,
+SUBSTITUTE(Table1[[#This Row],[Target Unit]],Table1[[#This Row],[Standard Base Unit]],"")="µ",Table1[[#This Row],[Standard Stock Value]]/Table1[[#This Row],[Target Value]]*1000000,
+SUBSTITUTE(Table1[[#This Row],[Target Unit]],Table1[[#This Row],[Standard Base Unit]],"")="n",Table1[[#This Row],[Standard Stock Value]]/Table1[[#This Row],[Target Value]]*1000000000,
+SUBSTITUTE(Table1[[#This Row],[Target Unit]],Table1[[#This Row],[Standard Base Unit]],"")="p",Table1[[#This Row],[Standard Stock Value]]/Table1[[#This Row],[Target Value]]*1000000000000,
+AND(Table1[[#This Row],[Format]]="Powder",Table1[[#This Row],[Target Unit]]="M"),Table1[[#This Row],[Standard Stock Value]]*Table1[[#This Row],[Target Value]],
+AND(Table1[[#This Row],[Format]]="Powder",Table1[[#This Row],[Target Unit]]="mM"),Table1[[#This Row],[Standard Stock Value]]*Table1[[#This Row],[Target Value]]/1000,
+AND(Table1[[#This Row],[Format]]="Powder",Table1[[#This Row],[Target Unit]]="µM"),Table1[[#This Row],[Standard Stock Value]]*Table1[[#This Row],[Target Value]]/1000000,
+AND(Table1[[#This Row],[Format]]="Powder",Table1[[#This Row],[Target Unit]]="% (w/v)"),Table1[[#This Row],[Target Value]]*10,
+TRUE, "!!!")</f>
+        <v>200</v>
+      </c>
+      <c r="L28" s="18" t="str" cm="1">
+        <f t="array" ref="L28">_xlfn.IFS(Table1[[#This Row],[Format]]="Powder","g/L",Table1[[#This Row],[Format]]="Liquid",":1 (" &amp; 1000/Table1[[#This Row],[Amount Needed]] &amp;  " mL/L)", TRUE, "!!!")</f>
+        <v>:1 (5 mL/L)</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D29" s="1">
+        <v>380.35</v>
+      </c>
+      <c r="E29" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="F29" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="G29" s="12" cm="1">
+        <f t="array" ref="G29">_xlfn.IFS(Table1[[#This Row],[Stock Unit]]="NA","NA",Table1[[#This Row],[Stock Unit]]="g/mol",Table1[[#This Row],[MW (g/mol)]],Table1[[#This Row],[Stock Unit]]="M",Table1[[#This Row],[Stock Value]],Table1[[#This Row],[Stock Unit]]="mM",Table1[[#This Row],[Stock Value]]/1000,Table1[[#This Row],[Stock Unit]]="%",Table1[[#This Row],[Stock Value]],Table1[[#This Row],[Stock Unit]]="X",Table1[[#This Row],[Stock Value]],Table1[[#This Row],[Stock Unit]]="µM",Table1[[#This Row],[Stock Value]]/1000000,Table1[[#This Row],[Stock Unit]]="mg/mL",Table1[[#This Row],[Stock Value]],TRUE,"!!!")</f>
+        <v>380.35</v>
+      </c>
+      <c r="H29" s="13" t="str" cm="1">
+        <f t="array" ref="H29">_xlfn.IFS(Table1[[#This Row],[Stock Unit]]="g/mol","g/mol",Table1[[#This Row],[Stock Unit]]="NA","NA",Table1[[#This Row],[Stock Unit]]="M","M",Table1[[#This Row],[Stock Unit]]="%","%",Table1[[#This Row],[Stock Unit]]="X","X", Table1[[#This Row],[Stock Unit]]="mg/mL", "mg/mL", TRUE,"!!!")</f>
+        <v>g/mol</v>
+      </c>
+      <c r="I29" s="22">
+        <v>0.5</v>
+      </c>
+      <c r="J29" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="K29" s="17" cm="1">
+        <f t="array" ref="K29">_xlfn.IFS(Table1[[#This Row],[Standard Base Unit]]=Table1[[#This Row],[Target Unit]],Table1[[#This Row],[Standard Stock Value]]/Table1[[#This Row],[Target Value]],
+SUBSTITUTE(Table1[[#This Row],[Target Unit]],Table1[[#This Row],[Standard Base Unit]],"")="m",Table1[[#This Row],[Standard Stock Value]]/Table1[[#This Row],[Target Value]]*1000,
+SUBSTITUTE(Table1[[#This Row],[Target Unit]],Table1[[#This Row],[Standard Base Unit]],"")="µ",Table1[[#This Row],[Standard Stock Value]]/Table1[[#This Row],[Target Value]]*1000000,
+SUBSTITUTE(Table1[[#This Row],[Target Unit]],Table1[[#This Row],[Standard Base Unit]],"")="n",Table1[[#This Row],[Standard Stock Value]]/Table1[[#This Row],[Target Value]]*1000000000,
+SUBSTITUTE(Table1[[#This Row],[Target Unit]],Table1[[#This Row],[Standard Base Unit]],"")="p",Table1[[#This Row],[Standard Stock Value]]/Table1[[#This Row],[Target Value]]*1000000000000,
+AND(Table1[[#This Row],[Format]]="Powder",Table1[[#This Row],[Target Unit]]="M"),Table1[[#This Row],[Standard Stock Value]]*Table1[[#This Row],[Target Value]],
+AND(Table1[[#This Row],[Format]]="Powder",Table1[[#This Row],[Target Unit]]="mM"),Table1[[#This Row],[Standard Stock Value]]*Table1[[#This Row],[Target Value]]/1000,
+AND(Table1[[#This Row],[Format]]="Powder",Table1[[#This Row],[Target Unit]]="µM"),Table1[[#This Row],[Standard Stock Value]]*Table1[[#This Row],[Target Value]]/1000000,
+AND(Table1[[#This Row],[Format]]="Powder",Table1[[#This Row],[Target Unit]]="% (w/v)"),Table1[[#This Row],[Target Value]]*10,
+TRUE, "!!!")</f>
+        <v>0.19017500000000001</v>
+      </c>
+      <c r="L29" s="18" t="str" cm="1">
+        <f t="array" ref="L29">_xlfn.IFS(Table1[[#This Row],[Format]]="Powder","g/L",Table1[[#This Row],[Format]]="Liquid",":1 (" &amp; 1000/Table1[[#This Row],[Amount Needed]] &amp;  " mL/L)", TRUE, "!!!")</f>
+        <v>g/L</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D30" s="1">
+        <v>74.55</v>
+      </c>
+      <c r="E30" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="F30" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="G30" s="12" cm="1">
+        <f t="array" ref="G30">_xlfn.IFS(Table1[[#This Row],[Stock Unit]]="NA","NA",Table1[[#This Row],[Stock Unit]]="g/mol",Table1[[#This Row],[MW (g/mol)]],Table1[[#This Row],[Stock Unit]]="M",Table1[[#This Row],[Stock Value]],Table1[[#This Row],[Stock Unit]]="mM",Table1[[#This Row],[Stock Value]]/1000,Table1[[#This Row],[Stock Unit]]="%",Table1[[#This Row],[Stock Value]],Table1[[#This Row],[Stock Unit]]="X",Table1[[#This Row],[Stock Value]],Table1[[#This Row],[Stock Unit]]="µM",Table1[[#This Row],[Stock Value]]/1000000,Table1[[#This Row],[Stock Unit]]="mg/mL",Table1[[#This Row],[Stock Value]],TRUE,"!!!")</f>
+        <v>74.55</v>
+      </c>
+      <c r="H30" s="13" t="str" cm="1">
+        <f t="array" ref="H30">_xlfn.IFS(Table1[[#This Row],[Stock Unit]]="g/mol","g/mol",Table1[[#This Row],[Stock Unit]]="NA","NA",Table1[[#This Row],[Stock Unit]]="M","M",Table1[[#This Row],[Stock Unit]]="%","%",Table1[[#This Row],[Stock Unit]]="X","X", Table1[[#This Row],[Stock Unit]]="mg/mL", "mg/mL", TRUE,"!!!")</f>
+        <v>g/mol</v>
+      </c>
+      <c r="I30" s="22">
+        <v>125</v>
+      </c>
+      <c r="J30" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="K30" s="19" cm="1">
+        <f t="array" ref="K30">_xlfn.IFS(Table1[[#This Row],[Standard Base Unit]]=Table1[[#This Row],[Target Unit]],Table1[[#This Row],[Standard Stock Value]]/Table1[[#This Row],[Target Value]],
+SUBSTITUTE(Table1[[#This Row],[Target Unit]],Table1[[#This Row],[Standard Base Unit]],"")="m",Table1[[#This Row],[Standard Stock Value]]/Table1[[#This Row],[Target Value]]*1000,
+SUBSTITUTE(Table1[[#This Row],[Target Unit]],Table1[[#This Row],[Standard Base Unit]],"")="µ",Table1[[#This Row],[Standard Stock Value]]/Table1[[#This Row],[Target Value]]*1000000,
+SUBSTITUTE(Table1[[#This Row],[Target Unit]],Table1[[#This Row],[Standard Base Unit]],"")="n",Table1[[#This Row],[Standard Stock Value]]/Table1[[#This Row],[Target Value]]*1000000000,
+SUBSTITUTE(Table1[[#This Row],[Target Unit]],Table1[[#This Row],[Standard Base Unit]],"")="p",Table1[[#This Row],[Standard Stock Value]]/Table1[[#This Row],[Target Value]]*1000000000000,
+AND(Table1[[#This Row],[Format]]="Powder",Table1[[#This Row],[Target Unit]]="M"),Table1[[#This Row],[Standard Stock Value]]*Table1[[#This Row],[Target Value]],
+AND(Table1[[#This Row],[Format]]="Powder",Table1[[#This Row],[Target Unit]]="mM"),Table1[[#This Row],[Standard Stock Value]]*Table1[[#This Row],[Target Value]]/1000,
+AND(Table1[[#This Row],[Format]]="Powder",Table1[[#This Row],[Target Unit]]="µM"),Table1[[#This Row],[Standard Stock Value]]*Table1[[#This Row],[Target Value]]/1000000,
+AND(Table1[[#This Row],[Format]]="Powder",Table1[[#This Row],[Target Unit]]="% (w/v)"),Table1[[#This Row],[Target Value]]*10,
+TRUE, "!!!")</f>
+        <v>9.3187499999999996</v>
+      </c>
+      <c r="L30" s="18" t="str" cm="1">
+        <f t="array" ref="L30">_xlfn.IFS(Table1[[#This Row],[Format]]="Powder","g/L",Table1[[#This Row],[Format]]="Liquid",":1 (" &amp; 1000/Table1[[#This Row],[Amount Needed]] &amp;  " mL/L)", TRUE, "!!!")</f>
+        <v>g/L</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E31" s="22">
+        <v>1</v>
+      </c>
+      <c r="F31" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="G31" s="12" cm="1">
+        <f t="array" ref="G31">_xlfn.IFS(Table1[[#This Row],[Stock Unit]]="NA","NA",Table1[[#This Row],[Stock Unit]]="g/mol",Table1[[#This Row],[MW (g/mol)]],Table1[[#This Row],[Stock Unit]]="M",Table1[[#This Row],[Stock Value]],Table1[[#This Row],[Stock Unit]]="mM",Table1[[#This Row],[Stock Value]]/1000,Table1[[#This Row],[Stock Unit]]="%",Table1[[#This Row],[Stock Value]],Table1[[#This Row],[Stock Unit]]="X",Table1[[#This Row],[Stock Value]],Table1[[#This Row],[Stock Unit]]="µM",Table1[[#This Row],[Stock Value]]/1000000,Table1[[#This Row],[Stock Unit]]="mg/mL",Table1[[#This Row],[Stock Value]],TRUE,"!!!")</f>
+        <v>1</v>
+      </c>
+      <c r="H31" s="13" t="str" cm="1">
+        <f t="array" ref="H31">_xlfn.IFS(Table1[[#This Row],[Stock Unit]]="g/mol","g/mol",Table1[[#This Row],[Stock Unit]]="NA","NA",Table1[[#This Row],[Stock Unit]]="M","M",Table1[[#This Row],[Stock Unit]]="%","%",Table1[[#This Row],[Stock Unit]]="X","X", Table1[[#This Row],[Stock Unit]]="mg/mL", "mg/mL", TRUE,"!!!")</f>
+        <v>M</v>
+      </c>
+      <c r="I31" s="22">
+        <v>20</v>
+      </c>
+      <c r="J31" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="K31" s="17" cm="1">
+        <f t="array" ref="K31">_xlfn.IFS(Table1[[#This Row],[Standard Base Unit]]=Table1[[#This Row],[Target Unit]],Table1[[#This Row],[Standard Stock Value]]/Table1[[#This Row],[Target Value]],
+SUBSTITUTE(Table1[[#This Row],[Target Unit]],Table1[[#This Row],[Standard Base Unit]],"")="m",Table1[[#This Row],[Standard Stock Value]]/Table1[[#This Row],[Target Value]]*1000,
+SUBSTITUTE(Table1[[#This Row],[Target Unit]],Table1[[#This Row],[Standard Base Unit]],"")="µ",Table1[[#This Row],[Standard Stock Value]]/Table1[[#This Row],[Target Value]]*1000000,
+SUBSTITUTE(Table1[[#This Row],[Target Unit]],Table1[[#This Row],[Standard Base Unit]],"")="n",Table1[[#This Row],[Standard Stock Value]]/Table1[[#This Row],[Target Value]]*1000000000,
+SUBSTITUTE(Table1[[#This Row],[Target Unit]],Table1[[#This Row],[Standard Base Unit]],"")="p",Table1[[#This Row],[Standard Stock Value]]/Table1[[#This Row],[Target Value]]*1000000000000,
+AND(Table1[[#This Row],[Format]]="Powder",Table1[[#This Row],[Target Unit]]="M"),Table1[[#This Row],[Standard Stock Value]]*Table1[[#This Row],[Target Value]],
+AND(Table1[[#This Row],[Format]]="Powder",Table1[[#This Row],[Target Unit]]="mM"),Table1[[#This Row],[Standard Stock Value]]*Table1[[#This Row],[Target Value]]/1000,
+AND(Table1[[#This Row],[Format]]="Powder",Table1[[#This Row],[Target Unit]]="µM"),Table1[[#This Row],[Standard Stock Value]]*Table1[[#This Row],[Target Value]]/1000000,
+AND(Table1[[#This Row],[Format]]="Powder",Table1[[#This Row],[Target Unit]]="% (w/v)"),Table1[[#This Row],[Target Value]]*10,
+TRUE, "!!!")</f>
+        <v>50</v>
+      </c>
+      <c r="L31" s="18" t="str" cm="1">
+        <f t="array" ref="L31">_xlfn.IFS(Table1[[#This Row],[Format]]="Powder","g/L",Table1[[#This Row],[Format]]="Liquid",":1 (" &amp; 1000/Table1[[#This Row],[Amount Needed]] &amp;  " mL/L)", TRUE, "!!!")</f>
+        <v>:1 (20 mL/L)</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D32" s="1">
+        <v>174.2</v>
+      </c>
+      <c r="E32" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="F32" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="G32" s="12" cm="1">
+        <f t="array" ref="G32">_xlfn.IFS(Table1[[#This Row],[Stock Unit]]="NA","NA",Table1[[#This Row],[Stock Unit]]="g/mol",Table1[[#This Row],[MW (g/mol)]],Table1[[#This Row],[Stock Unit]]="M",Table1[[#This Row],[Stock Value]],Table1[[#This Row],[Stock Unit]]="mM",Table1[[#This Row],[Stock Value]]/1000,Table1[[#This Row],[Stock Unit]]="%",Table1[[#This Row],[Stock Value]],Table1[[#This Row],[Stock Unit]]="X",Table1[[#This Row],[Stock Value]],Table1[[#This Row],[Stock Unit]]="µM",Table1[[#This Row],[Stock Value]]/1000000,Table1[[#This Row],[Stock Unit]]="mg/mL",Table1[[#This Row],[Stock Value]],TRUE,"!!!")</f>
+        <v>174.2</v>
+      </c>
+      <c r="H32" s="13" t="str" cm="1">
+        <f t="array" ref="H32">_xlfn.IFS(Table1[[#This Row],[Stock Unit]]="g/mol","g/mol",Table1[[#This Row],[Stock Unit]]="NA","NA",Table1[[#This Row],[Stock Unit]]="M","M",Table1[[#This Row],[Stock Unit]]="%","%",Table1[[#This Row],[Stock Unit]]="X","X", Table1[[#This Row],[Stock Unit]]="mg/mL", "mg/mL", TRUE,"!!!")</f>
+        <v>g/mol</v>
+      </c>
+      <c r="I32" s="22">
+        <v>10</v>
+      </c>
+      <c r="J32" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="K32" s="17" cm="1">
+        <f t="array" ref="K32">_xlfn.IFS(Table1[[#This Row],[Standard Base Unit]]=Table1[[#This Row],[Target Unit]],Table1[[#This Row],[Standard Stock Value]]/Table1[[#This Row],[Target Value]],
+SUBSTITUTE(Table1[[#This Row],[Target Unit]],Table1[[#This Row],[Standard Base Unit]],"")="m",Table1[[#This Row],[Standard Stock Value]]/Table1[[#This Row],[Target Value]]*1000,
+SUBSTITUTE(Table1[[#This Row],[Target Unit]],Table1[[#This Row],[Standard Base Unit]],"")="µ",Table1[[#This Row],[Standard Stock Value]]/Table1[[#This Row],[Target Value]]*1000000,
+SUBSTITUTE(Table1[[#This Row],[Target Unit]],Table1[[#This Row],[Standard Base Unit]],"")="n",Table1[[#This Row],[Standard Stock Value]]/Table1[[#This Row],[Target Value]]*1000000000,
+SUBSTITUTE(Table1[[#This Row],[Target Unit]],Table1[[#This Row],[Standard Base Unit]],"")="p",Table1[[#This Row],[Standard Stock Value]]/Table1[[#This Row],[Target Value]]*1000000000000,
+AND(Table1[[#This Row],[Format]]="Powder",Table1[[#This Row],[Target Unit]]="M"),Table1[[#This Row],[Standard Stock Value]]*Table1[[#This Row],[Target Value]],
+AND(Table1[[#This Row],[Format]]="Powder",Table1[[#This Row],[Target Unit]]="mM"),Table1[[#This Row],[Standard Stock Value]]*Table1[[#This Row],[Target Value]]/1000,
+AND(Table1[[#This Row],[Format]]="Powder",Table1[[#This Row],[Target Unit]]="µM"),Table1[[#This Row],[Standard Stock Value]]*Table1[[#This Row],[Target Value]]/1000000,
+AND(Table1[[#This Row],[Format]]="Powder",Table1[[#This Row],[Target Unit]]="% (w/v)"),Table1[[#This Row],[Target Value]]*10,
+TRUE, "!!!")</f>
+        <v>1.742</v>
+      </c>
+      <c r="L32" s="18" t="str" cm="1">
+        <f t="array" ref="L32">_xlfn.IFS(Table1[[#This Row],[Format]]="Powder","g/L",Table1[[#This Row],[Format]]="Liquid",":1 (" &amp; 1000/Table1[[#This Row],[Amount Needed]] &amp;  " mL/L)", TRUE, "!!!")</f>
+        <v>g/L</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D33" s="1">
+        <v>58.44</v>
+      </c>
+      <c r="E33" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="F33" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="G33" s="10" cm="1">
+        <f t="array" ref="G33">_xlfn.IFS(Table1[[#This Row],[Stock Unit]]="NA","NA",Table1[[#This Row],[Stock Unit]]="g/mol",Table1[[#This Row],[MW (g/mol)]],Table1[[#This Row],[Stock Unit]]="M",Table1[[#This Row],[Stock Value]],Table1[[#This Row],[Stock Unit]]="mM",Table1[[#This Row],[Stock Value]]/1000,Table1[[#This Row],[Stock Unit]]="%",Table1[[#This Row],[Stock Value]],Table1[[#This Row],[Stock Unit]]="X",Table1[[#This Row],[Stock Value]],Table1[[#This Row],[Stock Unit]]="µM",Table1[[#This Row],[Stock Value]]/1000000,Table1[[#This Row],[Stock Unit]]="mg/mL",Table1[[#This Row],[Stock Value]],TRUE,"!!!")</f>
+        <v>58.44</v>
+      </c>
+      <c r="H33" s="11" t="str" cm="1">
+        <f t="array" ref="H33">_xlfn.IFS(Table1[[#This Row],[Stock Unit]]="g/mol","g/mol",Table1[[#This Row],[Stock Unit]]="NA","NA",Table1[[#This Row],[Stock Unit]]="M","M",Table1[[#This Row],[Stock Unit]]="%","%",Table1[[#This Row],[Stock Unit]]="X","X", Table1[[#This Row],[Stock Unit]]="mg/mL", "mg/mL", TRUE,"!!!")</f>
+        <v>g/mol</v>
+      </c>
+      <c r="I33" s="22">
+        <v>10</v>
+      </c>
+      <c r="J33" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="K33" s="19" cm="1">
+        <f t="array" ref="K33">_xlfn.IFS(Table1[[#This Row],[Standard Base Unit]]=Table1[[#This Row],[Target Unit]],Table1[[#This Row],[Standard Stock Value]]/Table1[[#This Row],[Target Value]],
+SUBSTITUTE(Table1[[#This Row],[Target Unit]],Table1[[#This Row],[Standard Base Unit]],"")="m",Table1[[#This Row],[Standard Stock Value]]/Table1[[#This Row],[Target Value]]*1000,
+SUBSTITUTE(Table1[[#This Row],[Target Unit]],Table1[[#This Row],[Standard Base Unit]],"")="µ",Table1[[#This Row],[Standard Stock Value]]/Table1[[#This Row],[Target Value]]*1000000,
+SUBSTITUTE(Table1[[#This Row],[Target Unit]],Table1[[#This Row],[Standard Base Unit]],"")="n",Table1[[#This Row],[Standard Stock Value]]/Table1[[#This Row],[Target Value]]*1000000000,
+SUBSTITUTE(Table1[[#This Row],[Target Unit]],Table1[[#This Row],[Standard Base Unit]],"")="p",Table1[[#This Row],[Standard Stock Value]]/Table1[[#This Row],[Target Value]]*1000000000000,
+AND(Table1[[#This Row],[Format]]="Powder",Table1[[#This Row],[Target Unit]]="M"),Table1[[#This Row],[Standard Stock Value]]*Table1[[#This Row],[Target Value]],
+AND(Table1[[#This Row],[Format]]="Powder",Table1[[#This Row],[Target Unit]]="mM"),Table1[[#This Row],[Standard Stock Value]]*Table1[[#This Row],[Target Value]]/1000,
+AND(Table1[[#This Row],[Format]]="Powder",Table1[[#This Row],[Target Unit]]="µM"),Table1[[#This Row],[Standard Stock Value]]*Table1[[#This Row],[Target Value]]/1000000,
+AND(Table1[[#This Row],[Format]]="Powder",Table1[[#This Row],[Target Unit]]="% (w/v)"),Table1[[#This Row],[Target Value]]*10,
+TRUE, "!!!")</f>
+        <v>0.58440000000000003</v>
+      </c>
+      <c r="L33" s="15" t="str" cm="1">
+        <f t="array" ref="L33">_xlfn.IFS(Table1[[#This Row],[Format]]="Powder","g/L",Table1[[#This Row],[Format]]="Liquid",":1 (" &amp; 1000/Table1[[#This Row],[Amount Needed]] &amp;  " mL/L)", TRUE, "!!!")</f>
+        <v>g/L</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D34" s="1">
+        <v>74.55</v>
+      </c>
+      <c r="E34" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="F34" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="G34" s="12" cm="1">
+        <f t="array" ref="G34">_xlfn.IFS(Table1[[#This Row],[Stock Unit]]="NA","NA",Table1[[#This Row],[Stock Unit]]="g/mol",Table1[[#This Row],[MW (g/mol)]],Table1[[#This Row],[Stock Unit]]="M",Table1[[#This Row],[Stock Value]],Table1[[#This Row],[Stock Unit]]="mM",Table1[[#This Row],[Stock Value]]/1000,Table1[[#This Row],[Stock Unit]]="%",Table1[[#This Row],[Stock Value]],Table1[[#This Row],[Stock Unit]]="X",Table1[[#This Row],[Stock Value]],Table1[[#This Row],[Stock Unit]]="µM",Table1[[#This Row],[Stock Value]]/1000000,Table1[[#This Row],[Stock Unit]]="mg/mL",Table1[[#This Row],[Stock Value]],TRUE,"!!!")</f>
+        <v>74.55</v>
+      </c>
+      <c r="H34" s="13" t="str" cm="1">
+        <f t="array" ref="H34">_xlfn.IFS(Table1[[#This Row],[Stock Unit]]="g/mol","g/mol",Table1[[#This Row],[Stock Unit]]="NA","NA",Table1[[#This Row],[Stock Unit]]="M","M",Table1[[#This Row],[Stock Unit]]="%","%",Table1[[#This Row],[Stock Unit]]="X","X", Table1[[#This Row],[Stock Unit]]="mg/mL", "mg/mL", TRUE,"!!!")</f>
+        <v>g/mol</v>
+      </c>
+      <c r="I34" s="22">
+        <v>100</v>
+      </c>
+      <c r="J34" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="K34" s="19" cm="1">
+        <f t="array" ref="K34">_xlfn.IFS(Table1[[#This Row],[Standard Base Unit]]=Table1[[#This Row],[Target Unit]],Table1[[#This Row],[Standard Stock Value]]/Table1[[#This Row],[Target Value]],
+SUBSTITUTE(Table1[[#This Row],[Target Unit]],Table1[[#This Row],[Standard Base Unit]],"")="m",Table1[[#This Row],[Standard Stock Value]]/Table1[[#This Row],[Target Value]]*1000,
+SUBSTITUTE(Table1[[#This Row],[Target Unit]],Table1[[#This Row],[Standard Base Unit]],"")="µ",Table1[[#This Row],[Standard Stock Value]]/Table1[[#This Row],[Target Value]]*1000000,
+SUBSTITUTE(Table1[[#This Row],[Target Unit]],Table1[[#This Row],[Standard Base Unit]],"")="n",Table1[[#This Row],[Standard Stock Value]]/Table1[[#This Row],[Target Value]]*1000000000,
+SUBSTITUTE(Table1[[#This Row],[Target Unit]],Table1[[#This Row],[Standard Base Unit]],"")="p",Table1[[#This Row],[Standard Stock Value]]/Table1[[#This Row],[Target Value]]*1000000000000,
+AND(Table1[[#This Row],[Format]]="Powder",Table1[[#This Row],[Target Unit]]="M"),Table1[[#This Row],[Standard Stock Value]]*Table1[[#This Row],[Target Value]],
+AND(Table1[[#This Row],[Format]]="Powder",Table1[[#This Row],[Target Unit]]="mM"),Table1[[#This Row],[Standard Stock Value]]*Table1[[#This Row],[Target Value]]/1000,
+AND(Table1[[#This Row],[Format]]="Powder",Table1[[#This Row],[Target Unit]]="µM"),Table1[[#This Row],[Standard Stock Value]]*Table1[[#This Row],[Target Value]]/1000000,
+AND(Table1[[#This Row],[Format]]="Powder",Table1[[#This Row],[Target Unit]]="% (w/v)"),Table1[[#This Row],[Target Value]]*10,
+TRUE, "!!!")</f>
+        <v>7.4550000000000001</v>
+      </c>
+      <c r="L34" s="18" t="str" cm="1">
+        <f t="array" ref="L34">_xlfn.IFS(Table1[[#This Row],[Format]]="Powder","g/L",Table1[[#This Row],[Format]]="Liquid",":1 (" &amp; 1000/Table1[[#This Row],[Amount Needed]] &amp;  " mL/L)", TRUE, "!!!")</f>
+        <v>g/L</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D35" s="1">
+        <v>380.35</v>
+      </c>
+      <c r="E35" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="F35" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="G35" s="12" cm="1">
+        <f t="array" ref="G35">_xlfn.IFS(Table1[[#This Row],[Stock Unit]]="NA","NA",Table1[[#This Row],[Stock Unit]]="g/mol",Table1[[#This Row],[MW (g/mol)]],Table1[[#This Row],[Stock Unit]]="M",Table1[[#This Row],[Stock Value]],Table1[[#This Row],[Stock Unit]]="mM",Table1[[#This Row],[Stock Value]]/1000,Table1[[#This Row],[Stock Unit]]="%",Table1[[#This Row],[Stock Value]],Table1[[#This Row],[Stock Unit]]="X",Table1[[#This Row],[Stock Value]],Table1[[#This Row],[Stock Unit]]="µM",Table1[[#This Row],[Stock Value]]/1000000,Table1[[#This Row],[Stock Unit]]="mg/mL",Table1[[#This Row],[Stock Value]],TRUE,"!!!")</f>
+        <v>380.35</v>
+      </c>
+      <c r="H35" s="13" t="str" cm="1">
+        <f t="array" ref="H35">_xlfn.IFS(Table1[[#This Row],[Stock Unit]]="g/mol","g/mol",Table1[[#This Row],[Stock Unit]]="NA","NA",Table1[[#This Row],[Stock Unit]]="M","M",Table1[[#This Row],[Stock Unit]]="%","%",Table1[[#This Row],[Stock Unit]]="X","X", Table1[[#This Row],[Stock Unit]]="mg/mL", "mg/mL", TRUE,"!!!")</f>
+        <v>g/mol</v>
+      </c>
+      <c r="I35" s="22">
+        <v>0.5</v>
+      </c>
+      <c r="J35" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="K35" s="17" cm="1">
+        <f t="array" ref="K35">_xlfn.IFS(Table1[[#This Row],[Standard Base Unit]]=Table1[[#This Row],[Target Unit]],Table1[[#This Row],[Standard Stock Value]]/Table1[[#This Row],[Target Value]],
+SUBSTITUTE(Table1[[#This Row],[Target Unit]],Table1[[#This Row],[Standard Base Unit]],"")="m",Table1[[#This Row],[Standard Stock Value]]/Table1[[#This Row],[Target Value]]*1000,
+SUBSTITUTE(Table1[[#This Row],[Target Unit]],Table1[[#This Row],[Standard Base Unit]],"")="µ",Table1[[#This Row],[Standard Stock Value]]/Table1[[#This Row],[Target Value]]*1000000,
+SUBSTITUTE(Table1[[#This Row],[Target Unit]],Table1[[#This Row],[Standard Base Unit]],"")="n",Table1[[#This Row],[Standard Stock Value]]/Table1[[#This Row],[Target Value]]*1000000000,
+SUBSTITUTE(Table1[[#This Row],[Target Unit]],Table1[[#This Row],[Standard Base Unit]],"")="p",Table1[[#This Row],[Standard Stock Value]]/Table1[[#This Row],[Target Value]]*1000000000000,
+AND(Table1[[#This Row],[Format]]="Powder",Table1[[#This Row],[Target Unit]]="M"),Table1[[#This Row],[Standard Stock Value]]*Table1[[#This Row],[Target Value]],
+AND(Table1[[#This Row],[Format]]="Powder",Table1[[#This Row],[Target Unit]]="mM"),Table1[[#This Row],[Standard Stock Value]]*Table1[[#This Row],[Target Value]]/1000,
+AND(Table1[[#This Row],[Format]]="Powder",Table1[[#This Row],[Target Unit]]="µM"),Table1[[#This Row],[Standard Stock Value]]*Table1[[#This Row],[Target Value]]/1000000,
+AND(Table1[[#This Row],[Format]]="Powder",Table1[[#This Row],[Target Unit]]="% (w/v)"),Table1[[#This Row],[Target Value]]*10,
+TRUE, "!!!")</f>
+        <v>0.19017500000000001</v>
+      </c>
+      <c r="L35" s="18" t="str" cm="1">
+        <f t="array" ref="L35">_xlfn.IFS(Table1[[#This Row],[Format]]="Powder","g/L",Table1[[#This Row],[Format]]="Liquid",":1 (" &amp; 1000/Table1[[#This Row],[Amount Needed]] &amp;  " mL/L)", TRUE, "!!!")</f>
+        <v>g/L</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D36" s="1">
+        <v>209.3</v>
+      </c>
+      <c r="E36" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="F36" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="G36" s="12" cm="1">
+        <f t="array" ref="G36">_xlfn.IFS(Table1[[#This Row],[Stock Unit]]="NA","NA",Table1[[#This Row],[Stock Unit]]="g/mol",Table1[[#This Row],[MW (g/mol)]],Table1[[#This Row],[Stock Unit]]="M",Table1[[#This Row],[Stock Value]],Table1[[#This Row],[Stock Unit]]="mM",Table1[[#This Row],[Stock Value]]/1000,Table1[[#This Row],[Stock Unit]]="%",Table1[[#This Row],[Stock Value]],Table1[[#This Row],[Stock Unit]]="X",Table1[[#This Row],[Stock Value]],Table1[[#This Row],[Stock Unit]]="µM",Table1[[#This Row],[Stock Value]]/1000000,Table1[[#This Row],[Stock Unit]]="mg/mL",Table1[[#This Row],[Stock Value]],TRUE,"!!!")</f>
+        <v>209.3</v>
+      </c>
+      <c r="H36" s="13" t="str" cm="1">
+        <f t="array" ref="H36">_xlfn.IFS(Table1[[#This Row],[Stock Unit]]="g/mol","g/mol",Table1[[#This Row],[Stock Unit]]="NA","NA",Table1[[#This Row],[Stock Unit]]="M","M",Table1[[#This Row],[Stock Unit]]="%","%",Table1[[#This Row],[Stock Unit]]="X","X", Table1[[#This Row],[Stock Unit]]="mg/mL", "mg/mL", TRUE,"!!!")</f>
+        <v>g/mol</v>
+      </c>
+      <c r="I36" s="22">
+        <v>20</v>
+      </c>
+      <c r="J36" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="K36" s="17" cm="1">
+        <f t="array" ref="K36">_xlfn.IFS(Table1[[#This Row],[Standard Base Unit]]=Table1[[#This Row],[Target Unit]],Table1[[#This Row],[Standard Stock Value]]/Table1[[#This Row],[Target Value]],
+SUBSTITUTE(Table1[[#This Row],[Target Unit]],Table1[[#This Row],[Standard Base Unit]],"")="m",Table1[[#This Row],[Standard Stock Value]]/Table1[[#This Row],[Target Value]]*1000,
+SUBSTITUTE(Table1[[#This Row],[Target Unit]],Table1[[#This Row],[Standard Base Unit]],"")="µ",Table1[[#This Row],[Standard Stock Value]]/Table1[[#This Row],[Target Value]]*1000000,
+SUBSTITUTE(Table1[[#This Row],[Target Unit]],Table1[[#This Row],[Standard Base Unit]],"")="n",Table1[[#This Row],[Standard Stock Value]]/Table1[[#This Row],[Target Value]]*1000000000,
+SUBSTITUTE(Table1[[#This Row],[Target Unit]],Table1[[#This Row],[Standard Base Unit]],"")="p",Table1[[#This Row],[Standard Stock Value]]/Table1[[#This Row],[Target Value]]*1000000000000,
+AND(Table1[[#This Row],[Format]]="Powder",Table1[[#This Row],[Target Unit]]="M"),Table1[[#This Row],[Standard Stock Value]]*Table1[[#This Row],[Target Value]],
+AND(Table1[[#This Row],[Format]]="Powder",Table1[[#This Row],[Target Unit]]="mM"),Table1[[#This Row],[Standard Stock Value]]*Table1[[#This Row],[Target Value]]/1000,
+AND(Table1[[#This Row],[Format]]="Powder",Table1[[#This Row],[Target Unit]]="µM"),Table1[[#This Row],[Standard Stock Value]]*Table1[[#This Row],[Target Value]]/1000000,
+AND(Table1[[#This Row],[Format]]="Powder",Table1[[#This Row],[Target Unit]]="% (w/v)"),Table1[[#This Row],[Target Value]]*10,
+TRUE, "!!!")</f>
+        <v>4.1859999999999999</v>
+      </c>
+      <c r="L36" s="18" t="str" cm="1">
+        <f t="array" ref="L36">_xlfn.IFS(Table1[[#This Row],[Format]]="Powder","g/L",Table1[[#This Row],[Format]]="Liquid",":1 (" &amp; 1000/Table1[[#This Row],[Amount Needed]] &amp;  " mL/L)", TRUE, "!!!")</f>
+        <v>g/L</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D37" s="1">
+        <v>74.55</v>
+      </c>
+      <c r="E37" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="F37" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="G37" s="12" cm="1">
+        <f t="array" ref="G37">_xlfn.IFS(Table1[[#This Row],[Stock Unit]]="NA","NA",Table1[[#This Row],[Stock Unit]]="g/mol",Table1[[#This Row],[MW (g/mol)]],Table1[[#This Row],[Stock Unit]]="M",Table1[[#This Row],[Stock Value]],Table1[[#This Row],[Stock Unit]]="mM",Table1[[#This Row],[Stock Value]]/1000,Table1[[#This Row],[Stock Unit]]="%",Table1[[#This Row],[Stock Value]],Table1[[#This Row],[Stock Unit]]="X",Table1[[#This Row],[Stock Value]],Table1[[#This Row],[Stock Unit]]="µM",Table1[[#This Row],[Stock Value]]/1000000,Table1[[#This Row],[Stock Unit]]="mg/mL",Table1[[#This Row],[Stock Value]],TRUE,"!!!")</f>
+        <v>74.55</v>
+      </c>
+      <c r="H37" s="13" t="str" cm="1">
+        <f t="array" ref="H37">_xlfn.IFS(Table1[[#This Row],[Stock Unit]]="g/mol","g/mol",Table1[[#This Row],[Stock Unit]]="NA","NA",Table1[[#This Row],[Stock Unit]]="M","M",Table1[[#This Row],[Stock Unit]]="%","%",Table1[[#This Row],[Stock Unit]]="X","X", Table1[[#This Row],[Stock Unit]]="mg/mL", "mg/mL", TRUE,"!!!")</f>
+        <v>g/mol</v>
+      </c>
+      <c r="I37" s="22">
+        <v>50</v>
+      </c>
+      <c r="J37" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="K37" s="19" cm="1">
+        <f t="array" ref="K37">_xlfn.IFS(Table1[[#This Row],[Standard Base Unit]]=Table1[[#This Row],[Target Unit]],Table1[[#This Row],[Standard Stock Value]]/Table1[[#This Row],[Target Value]],
+SUBSTITUTE(Table1[[#This Row],[Target Unit]],Table1[[#This Row],[Standard Base Unit]],"")="m",Table1[[#This Row],[Standard Stock Value]]/Table1[[#This Row],[Target Value]]*1000,
+SUBSTITUTE(Table1[[#This Row],[Target Unit]],Table1[[#This Row],[Standard Base Unit]],"")="µ",Table1[[#This Row],[Standard Stock Value]]/Table1[[#This Row],[Target Value]]*1000000,
+SUBSTITUTE(Table1[[#This Row],[Target Unit]],Table1[[#This Row],[Standard Base Unit]],"")="n",Table1[[#This Row],[Standard Stock Value]]/Table1[[#This Row],[Target Value]]*1000000000,
+SUBSTITUTE(Table1[[#This Row],[Target Unit]],Table1[[#This Row],[Standard Base Unit]],"")="p",Table1[[#This Row],[Standard Stock Value]]/Table1[[#This Row],[Target Value]]*1000000000000,
+AND(Table1[[#This Row],[Format]]="Powder",Table1[[#This Row],[Target Unit]]="M"),Table1[[#This Row],[Standard Stock Value]]*Table1[[#This Row],[Target Value]],
+AND(Table1[[#This Row],[Format]]="Powder",Table1[[#This Row],[Target Unit]]="mM"),Table1[[#This Row],[Standard Stock Value]]*Table1[[#This Row],[Target Value]]/1000,
+AND(Table1[[#This Row],[Format]]="Powder",Table1[[#This Row],[Target Unit]]="µM"),Table1[[#This Row],[Standard Stock Value]]*Table1[[#This Row],[Target Value]]/1000000,
+AND(Table1[[#This Row],[Format]]="Powder",Table1[[#This Row],[Target Unit]]="% (w/v)"),Table1[[#This Row],[Target Value]]*10,
+TRUE, "!!!")</f>
+        <v>3.7275</v>
+      </c>
+      <c r="L37" s="18" t="str" cm="1">
+        <f t="array" ref="L37">_xlfn.IFS(Table1[[#This Row],[Format]]="Powder","g/L",Table1[[#This Row],[Format]]="Liquid",":1 (" &amp; 1000/Table1[[#This Row],[Amount Needed]] &amp;  " mL/L)", TRUE, "!!!")</f>
+        <v>g/L</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D38" s="1">
+        <v>58.44</v>
+      </c>
+      <c r="E38" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="F38" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="G38" s="10" cm="1">
+        <f t="array" ref="G38">_xlfn.IFS(Table1[[#This Row],[Stock Unit]]="NA","NA",Table1[[#This Row],[Stock Unit]]="g/mol",Table1[[#This Row],[MW (g/mol)]],Table1[[#This Row],[Stock Unit]]="M",Table1[[#This Row],[Stock Value]],Table1[[#This Row],[Stock Unit]]="mM",Table1[[#This Row],[Stock Value]]/1000,Table1[[#This Row],[Stock Unit]]="%",Table1[[#This Row],[Stock Value]],Table1[[#This Row],[Stock Unit]]="X",Table1[[#This Row],[Stock Value]],Table1[[#This Row],[Stock Unit]]="µM",Table1[[#This Row],[Stock Value]]/1000000,Table1[[#This Row],[Stock Unit]]="mg/mL",Table1[[#This Row],[Stock Value]],TRUE,"!!!")</f>
+        <v>58.44</v>
+      </c>
+      <c r="H38" s="11" t="str" cm="1">
+        <f t="array" ref="H38">_xlfn.IFS(Table1[[#This Row],[Stock Unit]]="g/mol","g/mol",Table1[[#This Row],[Stock Unit]]="NA","NA",Table1[[#This Row],[Stock Unit]]="M","M",Table1[[#This Row],[Stock Unit]]="%","%",Table1[[#This Row],[Stock Unit]]="X","X", Table1[[#This Row],[Stock Unit]]="mg/mL", "mg/mL", TRUE,"!!!")</f>
+        <v>g/mol</v>
+      </c>
+      <c r="I38" s="22">
+        <v>10</v>
+      </c>
+      <c r="J38" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="K38" s="19" cm="1">
+        <f t="array" ref="K38">_xlfn.IFS(Table1[[#This Row],[Standard Base Unit]]=Table1[[#This Row],[Target Unit]],Table1[[#This Row],[Standard Stock Value]]/Table1[[#This Row],[Target Value]],
+SUBSTITUTE(Table1[[#This Row],[Target Unit]],Table1[[#This Row],[Standard Base Unit]],"")="m",Table1[[#This Row],[Standard Stock Value]]/Table1[[#This Row],[Target Value]]*1000,
+SUBSTITUTE(Table1[[#This Row],[Target Unit]],Table1[[#This Row],[Standard Base Unit]],"")="µ",Table1[[#This Row],[Standard Stock Value]]/Table1[[#This Row],[Target Value]]*1000000,
+SUBSTITUTE(Table1[[#This Row],[Target Unit]],Table1[[#This Row],[Standard Base Unit]],"")="n",Table1[[#This Row],[Standard Stock Value]]/Table1[[#This Row],[Target Value]]*1000000000,
+SUBSTITUTE(Table1[[#This Row],[Target Unit]],Table1[[#This Row],[Standard Base Unit]],"")="p",Table1[[#This Row],[Standard Stock Value]]/Table1[[#This Row],[Target Value]]*1000000000000,
+AND(Table1[[#This Row],[Format]]="Powder",Table1[[#This Row],[Target Unit]]="M"),Table1[[#This Row],[Standard Stock Value]]*Table1[[#This Row],[Target Value]],
+AND(Table1[[#This Row],[Format]]="Powder",Table1[[#This Row],[Target Unit]]="mM"),Table1[[#This Row],[Standard Stock Value]]*Table1[[#This Row],[Target Value]]/1000,
+AND(Table1[[#This Row],[Format]]="Powder",Table1[[#This Row],[Target Unit]]="µM"),Table1[[#This Row],[Standard Stock Value]]*Table1[[#This Row],[Target Value]]/1000000,
+AND(Table1[[#This Row],[Format]]="Powder",Table1[[#This Row],[Target Unit]]="% (w/v)"),Table1[[#This Row],[Target Value]]*10,
+TRUE, "!!!")</f>
+        <v>0.58440000000000003</v>
+      </c>
+      <c r="L38" s="15" t="str" cm="1">
+        <f t="array" ref="L38">_xlfn.IFS(Table1[[#This Row],[Format]]="Powder","g/L",Table1[[#This Row],[Format]]="Liquid",":1 (" &amp; 1000/Table1[[#This Row],[Amount Needed]] &amp;  " mL/L)", TRUE, "!!!")</f>
+        <v>g/L</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D39" s="1">
+        <v>95.2</v>
+      </c>
+      <c r="E39" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="F39" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="G39" s="12" cm="1">
+        <f t="array" ref="G39">_xlfn.IFS(Table1[[#This Row],[Stock Unit]]="NA","NA",Table1[[#This Row],[Stock Unit]]="g/mol",Table1[[#This Row],[MW (g/mol)]],Table1[[#This Row],[Stock Unit]]="M",Table1[[#This Row],[Stock Value]],Table1[[#This Row],[Stock Unit]]="mM",Table1[[#This Row],[Stock Value]]/1000,Table1[[#This Row],[Stock Unit]]="%",Table1[[#This Row],[Stock Value]],Table1[[#This Row],[Stock Unit]]="X",Table1[[#This Row],[Stock Value]],Table1[[#This Row],[Stock Unit]]="µM",Table1[[#This Row],[Stock Value]]/1000000,Table1[[#This Row],[Stock Unit]]="mg/mL",Table1[[#This Row],[Stock Value]],TRUE,"!!!")</f>
+        <v>95.2</v>
+      </c>
+      <c r="H39" s="13" t="str" cm="1">
+        <f t="array" ref="H39">_xlfn.IFS(Table1[[#This Row],[Stock Unit]]="g/mol","g/mol",Table1[[#This Row],[Stock Unit]]="NA","NA",Table1[[#This Row],[Stock Unit]]="M","M",Table1[[#This Row],[Stock Unit]]="%","%",Table1[[#This Row],[Stock Unit]]="X","X", Table1[[#This Row],[Stock Unit]]="mg/mL", "mg/mL", TRUE,"!!!")</f>
+        <v>g/mol</v>
+      </c>
+      <c r="I39" s="22">
+        <v>2</v>
+      </c>
+      <c r="J39" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="K39" s="17" cm="1">
+        <f t="array" ref="K39">_xlfn.IFS(Table1[[#This Row],[Standard Base Unit]]=Table1[[#This Row],[Target Unit]],Table1[[#This Row],[Standard Stock Value]]/Table1[[#This Row],[Target Value]],
+SUBSTITUTE(Table1[[#This Row],[Target Unit]],Table1[[#This Row],[Standard Base Unit]],"")="m",Table1[[#This Row],[Standard Stock Value]]/Table1[[#This Row],[Target Value]]*1000,
+SUBSTITUTE(Table1[[#This Row],[Target Unit]],Table1[[#This Row],[Standard Base Unit]],"")="µ",Table1[[#This Row],[Standard Stock Value]]/Table1[[#This Row],[Target Value]]*1000000,
+SUBSTITUTE(Table1[[#This Row],[Target Unit]],Table1[[#This Row],[Standard Base Unit]],"")="n",Table1[[#This Row],[Standard Stock Value]]/Table1[[#This Row],[Target Value]]*1000000000,
+SUBSTITUTE(Table1[[#This Row],[Target Unit]],Table1[[#This Row],[Standard Base Unit]],"")="p",Table1[[#This Row],[Standard Stock Value]]/Table1[[#This Row],[Target Value]]*1000000000000,
+AND(Table1[[#This Row],[Format]]="Powder",Table1[[#This Row],[Target Unit]]="M"),Table1[[#This Row],[Standard Stock Value]]*Table1[[#This Row],[Target Value]],
+AND(Table1[[#This Row],[Format]]="Powder",Table1[[#This Row],[Target Unit]]="mM"),Table1[[#This Row],[Standard Stock Value]]*Table1[[#This Row],[Target Value]]/1000,
+AND(Table1[[#This Row],[Format]]="Powder",Table1[[#This Row],[Target Unit]]="µM"),Table1[[#This Row],[Standard Stock Value]]*Table1[[#This Row],[Target Value]]/1000000,
+AND(Table1[[#This Row],[Format]]="Powder",Table1[[#This Row],[Target Unit]]="% (w/v)"),Table1[[#This Row],[Target Value]]*10,
+TRUE, "!!!")</f>
+        <v>0.19040000000000001</v>
+      </c>
+      <c r="L39" s="18" t="str" cm="1">
+        <f t="array" ref="L39">_xlfn.IFS(Table1[[#This Row],[Format]]="Powder","g/L",Table1[[#This Row],[Format]]="Liquid",":1 (" &amp; 1000/Table1[[#This Row],[Amount Needed]] &amp;  " mL/L)", TRUE, "!!!")</f>
+        <v>g/L</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D40" s="1">
+        <v>157.6</v>
+      </c>
+      <c r="E40" s="22">
+        <v>1</v>
+      </c>
+      <c r="F40" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="G40" s="10" cm="1">
+        <f t="array" ref="G40">_xlfn.IFS(Table1[[#This Row],[Stock Unit]]="NA","NA",Table1[[#This Row],[Stock Unit]]="g/mol",Table1[[#This Row],[MW (g/mol)]],Table1[[#This Row],[Stock Unit]]="M",Table1[[#This Row],[Stock Value]],Table1[[#This Row],[Stock Unit]]="mM",Table1[[#This Row],[Stock Value]]/1000,Table1[[#This Row],[Stock Unit]]="%",Table1[[#This Row],[Stock Value]],Table1[[#This Row],[Stock Unit]]="X",Table1[[#This Row],[Stock Value]],Table1[[#This Row],[Stock Unit]]="µM",Table1[[#This Row],[Stock Value]]/1000000,Table1[[#This Row],[Stock Unit]]="mg/mL",Table1[[#This Row],[Stock Value]],TRUE,"!!!")</f>
+        <v>1</v>
+      </c>
+      <c r="H40" s="11" t="str" cm="1">
+        <f t="array" ref="H40">_xlfn.IFS(Table1[[#This Row],[Stock Unit]]="g/mol","g/mol",Table1[[#This Row],[Stock Unit]]="NA","NA",Table1[[#This Row],[Stock Unit]]="M","M",Table1[[#This Row],[Stock Unit]]="%","%",Table1[[#This Row],[Stock Unit]]="X","X", Table1[[#This Row],[Stock Unit]]="mg/mL", "mg/mL", TRUE,"!!!")</f>
+        <v>M</v>
+      </c>
+      <c r="I40" s="22">
+        <v>10</v>
+      </c>
+      <c r="J40" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="K40" s="14" cm="1">
+        <f t="array" ref="K40">_xlfn.IFS(Table1[[#This Row],[Standard Base Unit]]=Table1[[#This Row],[Target Unit]],Table1[[#This Row],[Standard Stock Value]]/Table1[[#This Row],[Target Value]],
+SUBSTITUTE(Table1[[#This Row],[Target Unit]],Table1[[#This Row],[Standard Base Unit]],"")="m",Table1[[#This Row],[Standard Stock Value]]/Table1[[#This Row],[Target Value]]*1000,
+SUBSTITUTE(Table1[[#This Row],[Target Unit]],Table1[[#This Row],[Standard Base Unit]],"")="µ",Table1[[#This Row],[Standard Stock Value]]/Table1[[#This Row],[Target Value]]*1000000,
+SUBSTITUTE(Table1[[#This Row],[Target Unit]],Table1[[#This Row],[Standard Base Unit]],"")="n",Table1[[#This Row],[Standard Stock Value]]/Table1[[#This Row],[Target Value]]*1000000000,
+SUBSTITUTE(Table1[[#This Row],[Target Unit]],Table1[[#This Row],[Standard Base Unit]],"")="p",Table1[[#This Row],[Standard Stock Value]]/Table1[[#This Row],[Target Value]]*1000000000000,
+AND(Table1[[#This Row],[Format]]="Powder",Table1[[#This Row],[Target Unit]]="M"),Table1[[#This Row],[Standard Stock Value]]*Table1[[#This Row],[Target Value]],
+AND(Table1[[#This Row],[Format]]="Powder",Table1[[#This Row],[Target Unit]]="mM"),Table1[[#This Row],[Standard Stock Value]]*Table1[[#This Row],[Target Value]]/1000,
+AND(Table1[[#This Row],[Format]]="Powder",Table1[[#This Row],[Target Unit]]="µM"),Table1[[#This Row],[Standard Stock Value]]*Table1[[#This Row],[Target Value]]/1000000,
+AND(Table1[[#This Row],[Format]]="Powder",Table1[[#This Row],[Target Unit]]="% (w/v)"),Table1[[#This Row],[Target Value]]*10,
+TRUE, "!!!")</f>
+        <v>100</v>
+      </c>
+      <c r="L40" s="15" t="str" cm="1">
+        <f t="array" ref="L40">_xlfn.IFS(Table1[[#This Row],[Format]]="Powder","g/L",Table1[[#This Row],[Format]]="Liquid",":1 (" &amp; 1000/Table1[[#This Row],[Amount Needed]] &amp;  " mL/L)", TRUE, "!!!")</f>
+        <v>:1 (10 mL/L)</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D41" s="1">
+        <v>380.35</v>
+      </c>
+      <c r="E41" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="F41" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="G41" s="12" cm="1">
+        <f t="array" ref="G41">_xlfn.IFS(Table1[[#This Row],[Stock Unit]]="NA","NA",Table1[[#This Row],[Stock Unit]]="g/mol",Table1[[#This Row],[MW (g/mol)]],Table1[[#This Row],[Stock Unit]]="M",Table1[[#This Row],[Stock Value]],Table1[[#This Row],[Stock Unit]]="mM",Table1[[#This Row],[Stock Value]]/1000,Table1[[#This Row],[Stock Unit]]="%",Table1[[#This Row],[Stock Value]],Table1[[#This Row],[Stock Unit]]="X",Table1[[#This Row],[Stock Value]],Table1[[#This Row],[Stock Unit]]="µM",Table1[[#This Row],[Stock Value]]/1000000,Table1[[#This Row],[Stock Unit]]="mg/mL",Table1[[#This Row],[Stock Value]],TRUE,"!!!")</f>
+        <v>380.35</v>
+      </c>
+      <c r="H41" s="13" t="str" cm="1">
+        <f t="array" ref="H41">_xlfn.IFS(Table1[[#This Row],[Stock Unit]]="g/mol","g/mol",Table1[[#This Row],[Stock Unit]]="NA","NA",Table1[[#This Row],[Stock Unit]]="M","M",Table1[[#This Row],[Stock Unit]]="%","%",Table1[[#This Row],[Stock Unit]]="X","X", Table1[[#This Row],[Stock Unit]]="mg/mL", "mg/mL", TRUE,"!!!")</f>
+        <v>g/mol</v>
+      </c>
+      <c r="I41" s="22">
+        <v>1</v>
+      </c>
+      <c r="J41" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="K41" s="17" cm="1">
+        <f t="array" ref="K41">_xlfn.IFS(Table1[[#This Row],[Standard Base Unit]]=Table1[[#This Row],[Target Unit]],Table1[[#This Row],[Standard Stock Value]]/Table1[[#This Row],[Target Value]],
+SUBSTITUTE(Table1[[#This Row],[Target Unit]],Table1[[#This Row],[Standard Base Unit]],"")="m",Table1[[#This Row],[Standard Stock Value]]/Table1[[#This Row],[Target Value]]*1000,
+SUBSTITUTE(Table1[[#This Row],[Target Unit]],Table1[[#This Row],[Standard Base Unit]],"")="µ",Table1[[#This Row],[Standard Stock Value]]/Table1[[#This Row],[Target Value]]*1000000,
+SUBSTITUTE(Table1[[#This Row],[Target Unit]],Table1[[#This Row],[Standard Base Unit]],"")="n",Table1[[#This Row],[Standard Stock Value]]/Table1[[#This Row],[Target Value]]*1000000000,
+SUBSTITUTE(Table1[[#This Row],[Target Unit]],Table1[[#This Row],[Standard Base Unit]],"")="p",Table1[[#This Row],[Standard Stock Value]]/Table1[[#This Row],[Target Value]]*1000000000000,
+AND(Table1[[#This Row],[Format]]="Powder",Table1[[#This Row],[Target Unit]]="M"),Table1[[#This Row],[Standard Stock Value]]*Table1[[#This Row],[Target Value]],
+AND(Table1[[#This Row],[Format]]="Powder",Table1[[#This Row],[Target Unit]]="mM"),Table1[[#This Row],[Standard Stock Value]]*Table1[[#This Row],[Target Value]]/1000,
+AND(Table1[[#This Row],[Format]]="Powder",Table1[[#This Row],[Target Unit]]="µM"),Table1[[#This Row],[Standard Stock Value]]*Table1[[#This Row],[Target Value]]/1000000,
+AND(Table1[[#This Row],[Format]]="Powder",Table1[[#This Row],[Target Unit]]="% (w/v)"),Table1[[#This Row],[Target Value]]*10,
+TRUE, "!!!")</f>
+        <v>0.38035000000000002</v>
+      </c>
+      <c r="L41" s="18" t="str" cm="1">
+        <f t="array" ref="L41">_xlfn.IFS(Table1[[#This Row],[Format]]="Powder","g/L",Table1[[#This Row],[Format]]="Liquid",":1 (" &amp; 1000/Table1[[#This Row],[Amount Needed]] &amp;  " mL/L)", TRUE, "!!!")</f>
+        <v>g/L</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B42" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C42" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D21" s="1">
+      <c r="D42" s="1">
         <v>288.38</v>
       </c>
-      <c r="E21" s="22">
+      <c r="E42" s="22">
         <v>20</v>
       </c>
-      <c r="F21" s="23" t="s">
+      <c r="F42" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="G21" s="10" cm="1">
-        <f t="array" ref="G21">_xlfn.IFS(Table1[[#This Row],[Stock Unit]]="NA","NA",Table1[[#This Row],[Stock Unit]]="g/mol",Table1[[#This Row],[MW (g/mol)]],Table1[[#This Row],[Stock Unit]]="M",Table1[[#This Row],[Stock Value]],Table1[[#This Row],[Stock Unit]]="mM",Table1[[#This Row],[Stock Value]]/1000,Table1[[#This Row],[Stock Unit]]="%",Table1[[#This Row],[Stock Value]],Table1[[#This Row],[Stock Unit]]="X",Table1[[#This Row],[Stock Value]],Table1[[#This Row],[Stock Unit]]="µM",Table1[[#This Row],[Stock Value]]/1000000,Table1[[#This Row],[Stock Unit]]="mg/mL",Table1[[#This Row],[Stock Value]],TRUE,"!!!")</f>
+      <c r="G42" s="10" cm="1">
+        <f t="array" ref="G42">_xlfn.IFS(Table1[[#This Row],[Stock Unit]]="NA","NA",Table1[[#This Row],[Stock Unit]]="g/mol",Table1[[#This Row],[MW (g/mol)]],Table1[[#This Row],[Stock Unit]]="M",Table1[[#This Row],[Stock Value]],Table1[[#This Row],[Stock Unit]]="mM",Table1[[#This Row],[Stock Value]]/1000,Table1[[#This Row],[Stock Unit]]="%",Table1[[#This Row],[Stock Value]],Table1[[#This Row],[Stock Unit]]="X",Table1[[#This Row],[Stock Value]],Table1[[#This Row],[Stock Unit]]="µM",Table1[[#This Row],[Stock Value]]/1000000,Table1[[#This Row],[Stock Unit]]="mg/mL",Table1[[#This Row],[Stock Value]],TRUE,"!!!")</f>
         <v>20</v>
       </c>
-      <c r="H21" s="11" t="str" cm="1">
-        <f t="array" ref="H21">_xlfn.IFS(Table1[[#This Row],[Stock Unit]]="g/mol","g/mol",Table1[[#This Row],[Stock Unit]]="NA","NA",Table1[[#This Row],[Stock Unit]]="M","M",Table1[[#This Row],[Stock Unit]]="%","%",Table1[[#This Row],[Stock Unit]]="X","X", Table1[[#This Row],[Stock Unit]]="mg/mL", "mg/mL", TRUE,"!!!")</f>
+      <c r="H42" s="11" t="str" cm="1">
+        <f t="array" ref="H42">_xlfn.IFS(Table1[[#This Row],[Stock Unit]]="g/mol","g/mol",Table1[[#This Row],[Stock Unit]]="NA","NA",Table1[[#This Row],[Stock Unit]]="M","M",Table1[[#This Row],[Stock Unit]]="%","%",Table1[[#This Row],[Stock Unit]]="X","X", Table1[[#This Row],[Stock Unit]]="mg/mL", "mg/mL", TRUE,"!!!")</f>
         <v>%</v>
       </c>
-      <c r="I21" s="22">
+      <c r="I42" s="22">
         <v>0.5</v>
       </c>
-      <c r="J21" s="25" t="s">
+      <c r="J42" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="K21" s="14" cm="1">
-        <f t="array" ref="K21">_xlfn.IFS(Table1[[#This Row],[Standard Base Unit]]=Table1[[#This Row],[Target Unit]],Table1[[#This Row],[Standard Stock Value]]/Table1[[#This Row],[Target Value]],
+      <c r="K42" s="14" cm="1">
+        <f t="array" ref="K42">_xlfn.IFS(Table1[[#This Row],[Standard Base Unit]]=Table1[[#This Row],[Target Unit]],Table1[[#This Row],[Standard Stock Value]]/Table1[[#This Row],[Target Value]],
 SUBSTITUTE(Table1[[#This Row],[Target Unit]],Table1[[#This Row],[Standard Base Unit]],"")="m",Table1[[#This Row],[Standard Stock Value]]/Table1[[#This Row],[Target Value]]*1000,
 SUBSTITUTE(Table1[[#This Row],[Target Unit]],Table1[[#This Row],[Standard Base Unit]],"")="µ",Table1[[#This Row],[Standard Stock Value]]/Table1[[#This Row],[Target Value]]*1000000,
 SUBSTITUTE(Table1[[#This Row],[Target Unit]],Table1[[#This Row],[Standard Base Unit]],"")="n",Table1[[#This Row],[Standard Stock Value]]/Table1[[#This Row],[Target Value]]*1000000000,
@@ -2154,46 +3346,46 @@
 TRUE, "!!!")</f>
         <v>40</v>
       </c>
-      <c r="L21" s="15" t="str" cm="1">
-        <f t="array" ref="L21">_xlfn.IFS(Table1[[#This Row],[Format]]="Powder","g/L",Table1[[#This Row],[Format]]="Liquid",":1 (" &amp; 1000/Table1[[#This Row],[Amount Needed]] &amp;  " mL/L)", TRUE, "!!!")</f>
+      <c r="L42" s="15" t="str" cm="1">
+        <f t="array" ref="L42">_xlfn.IFS(Table1[[#This Row],[Format]]="Powder","g/L",Table1[[#This Row],[Format]]="Liquid",":1 (" &amp; 1000/Table1[[#This Row],[Amount Needed]] &amp;  " mL/L)", TRUE, "!!!")</f>
         <v>:1 (25 mL/L)</v>
       </c>
-      <c r="M21" s="1" t="s">
+      <c r="M42" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B22" s="1" t="s">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B43" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C43" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D22" s="1">
+      <c r="D43" s="1">
         <v>349.41</v>
       </c>
-      <c r="E22" s="22">
+      <c r="E43" s="22">
         <v>100</v>
       </c>
-      <c r="F22" s="23" t="s">
+      <c r="F43" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="G22" s="10" cm="1">
-        <f t="array" ref="G22">_xlfn.IFS(Table1[[#This Row],[Stock Unit]]="NA","NA",Table1[[#This Row],[Stock Unit]]="g/mol",Table1[[#This Row],[MW (g/mol)]],Table1[[#This Row],[Stock Unit]]="M",Table1[[#This Row],[Stock Value]],Table1[[#This Row],[Stock Unit]]="mM",Table1[[#This Row],[Stock Value]]/1000,Table1[[#This Row],[Stock Unit]]="%",Table1[[#This Row],[Stock Value]],Table1[[#This Row],[Stock Unit]]="X",Table1[[#This Row],[Stock Value]],Table1[[#This Row],[Stock Unit]]="µM",Table1[[#This Row],[Stock Value]]/1000000,Table1[[#This Row],[Stock Unit]]="mg/mL",Table1[[#This Row],[Stock Value]],TRUE,"!!!")</f>
+      <c r="G43" s="10" cm="1">
+        <f t="array" ref="G43">_xlfn.IFS(Table1[[#This Row],[Stock Unit]]="NA","NA",Table1[[#This Row],[Stock Unit]]="g/mol",Table1[[#This Row],[MW (g/mol)]],Table1[[#This Row],[Stock Unit]]="M",Table1[[#This Row],[Stock Value]],Table1[[#This Row],[Stock Unit]]="mM",Table1[[#This Row],[Stock Value]]/1000,Table1[[#This Row],[Stock Unit]]="%",Table1[[#This Row],[Stock Value]],Table1[[#This Row],[Stock Unit]]="X",Table1[[#This Row],[Stock Value]],Table1[[#This Row],[Stock Unit]]="µM",Table1[[#This Row],[Stock Value]]/1000000,Table1[[#This Row],[Stock Unit]]="mg/mL",Table1[[#This Row],[Stock Value]],TRUE,"!!!")</f>
         <v>100</v>
       </c>
-      <c r="H22" s="11" t="str" cm="1">
-        <f t="array" ref="H22">_xlfn.IFS(Table1[[#This Row],[Stock Unit]]="g/mol","g/mol",Table1[[#This Row],[Stock Unit]]="NA","NA",Table1[[#This Row],[Stock Unit]]="M","M",Table1[[#This Row],[Stock Unit]]="%","%",Table1[[#This Row],[Stock Unit]]="X","X", Table1[[#This Row],[Stock Unit]]="mg/mL", "mg/mL", TRUE,"!!!")</f>
+      <c r="H43" s="11" t="str" cm="1">
+        <f t="array" ref="H43">_xlfn.IFS(Table1[[#This Row],[Stock Unit]]="g/mol","g/mol",Table1[[#This Row],[Stock Unit]]="NA","NA",Table1[[#This Row],[Stock Unit]]="M","M",Table1[[#This Row],[Stock Unit]]="%","%",Table1[[#This Row],[Stock Unit]]="X","X", Table1[[#This Row],[Stock Unit]]="mg/mL", "mg/mL", TRUE,"!!!")</f>
         <v>mg/mL</v>
       </c>
-      <c r="I22" s="22">
+      <c r="I43" s="22">
         <v>100</v>
       </c>
-      <c r="J22" s="25" t="s">
+      <c r="J43" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="K22" s="14" t="str" cm="1">
-        <f t="array" ref="K22">_xlfn.IFS(Table1[[#This Row],[Standard Base Unit]]=Table1[[#This Row],[Target Unit]],Table1[[#This Row],[Standard Stock Value]]/Table1[[#This Row],[Target Value]],
+      <c r="K43" s="14" t="str" cm="1">
+        <f t="array" ref="K43">_xlfn.IFS(Table1[[#This Row],[Standard Base Unit]]=Table1[[#This Row],[Target Unit]],Table1[[#This Row],[Standard Stock Value]]/Table1[[#This Row],[Target Value]],
 SUBSTITUTE(Table1[[#This Row],[Target Unit]],Table1[[#This Row],[Standard Base Unit]],"")="m",Table1[[#This Row],[Standard Stock Value]]/Table1[[#This Row],[Target Value]]*1000,
 SUBSTITUTE(Table1[[#This Row],[Target Unit]],Table1[[#This Row],[Standard Base Unit]],"")="µ",Table1[[#This Row],[Standard Stock Value]]/Table1[[#This Row],[Target Value]]*1000000,
 SUBSTITUTE(Table1[[#This Row],[Target Unit]],Table1[[#This Row],[Standard Base Unit]],"")="n",Table1[[#This Row],[Standard Stock Value]]/Table1[[#This Row],[Target Value]]*1000000000,
@@ -2205,41 +3397,41 @@
 TRUE, "!!!")</f>
         <v>!!!</v>
       </c>
-      <c r="L22" s="15" t="e" cm="1">
-        <f t="array" ref="L22">_xlfn.IFS(Table1[[#This Row],[Format]]="Powder","g/L",Table1[[#This Row],[Format]]="Liquid",":1 (" &amp; 1000/Table1[[#This Row],[Amount Needed]] &amp;  " mL/L)", TRUE, "!!!")</f>
+      <c r="L43" s="15" t="e" cm="1">
+        <f t="array" ref="L43">_xlfn.IFS(Table1[[#This Row],[Format]]="Powder","g/L",Table1[[#This Row],[Format]]="Liquid",":1 (" &amp; 1000/Table1[[#This Row],[Amount Needed]] &amp;  " mL/L)", TRUE, "!!!")</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B23" s="1" t="s">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B44" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C44" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D23" s="1">
+      <c r="D44" s="1">
         <v>66430</v>
       </c>
-      <c r="E23" s="22" t="s">
+      <c r="E44" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="F23" s="23" t="s">
+      <c r="F44" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="G23" s="10" cm="1">
-        <f t="array" ref="G23">_xlfn.IFS(Table1[[#This Row],[Stock Unit]]="NA","NA",Table1[[#This Row],[Stock Unit]]="g/mol",Table1[[#This Row],[MW (g/mol)]],Table1[[#This Row],[Stock Unit]]="M",Table1[[#This Row],[Stock Value]],Table1[[#This Row],[Stock Unit]]="mM",Table1[[#This Row],[Stock Value]]/1000,Table1[[#This Row],[Stock Unit]]="%",Table1[[#This Row],[Stock Value]],Table1[[#This Row],[Stock Unit]]="X",Table1[[#This Row],[Stock Value]],Table1[[#This Row],[Stock Unit]]="µM",Table1[[#This Row],[Stock Value]]/1000000,Table1[[#This Row],[Stock Unit]]="mg/mL",Table1[[#This Row],[Stock Value]],TRUE,"!!!")</f>
+      <c r="G44" s="10" cm="1">
+        <f t="array" ref="G44">_xlfn.IFS(Table1[[#This Row],[Stock Unit]]="NA","NA",Table1[[#This Row],[Stock Unit]]="g/mol",Table1[[#This Row],[MW (g/mol)]],Table1[[#This Row],[Stock Unit]]="M",Table1[[#This Row],[Stock Value]],Table1[[#This Row],[Stock Unit]]="mM",Table1[[#This Row],[Stock Value]]/1000,Table1[[#This Row],[Stock Unit]]="%",Table1[[#This Row],[Stock Value]],Table1[[#This Row],[Stock Unit]]="X",Table1[[#This Row],[Stock Value]],Table1[[#This Row],[Stock Unit]]="µM",Table1[[#This Row],[Stock Value]]/1000000,Table1[[#This Row],[Stock Unit]]="mg/mL",Table1[[#This Row],[Stock Value]],TRUE,"!!!")</f>
         <v>66430</v>
       </c>
-      <c r="H23" s="11" t="str" cm="1">
-        <f t="array" ref="H23">_xlfn.IFS(Table1[[#This Row],[Stock Unit]]="g/mol","g/mol",Table1[[#This Row],[Stock Unit]]="NA","NA",Table1[[#This Row],[Stock Unit]]="M","M",Table1[[#This Row],[Stock Unit]]="%","%",Table1[[#This Row],[Stock Unit]]="X","X", Table1[[#This Row],[Stock Unit]]="mg/mL", "mg/mL", TRUE,"!!!")</f>
+      <c r="H44" s="11" t="str" cm="1">
+        <f t="array" ref="H44">_xlfn.IFS(Table1[[#This Row],[Stock Unit]]="g/mol","g/mol",Table1[[#This Row],[Stock Unit]]="NA","NA",Table1[[#This Row],[Stock Unit]]="M","M",Table1[[#This Row],[Stock Unit]]="%","%",Table1[[#This Row],[Stock Unit]]="X","X", Table1[[#This Row],[Stock Unit]]="mg/mL", "mg/mL", TRUE,"!!!")</f>
         <v>g/mol</v>
       </c>
-      <c r="I23" s="22"/>
-      <c r="J23" s="25" t="s">
+      <c r="I44" s="22"/>
+      <c r="J44" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="K23" s="14" t="str" cm="1">
-        <f t="array" ref="K23">_xlfn.IFS(Table1[[#This Row],[Standard Base Unit]]=Table1[[#This Row],[Target Unit]],Table1[[#This Row],[Standard Stock Value]]/Table1[[#This Row],[Target Value]],
+      <c r="K44" s="14" t="str" cm="1">
+        <f t="array" ref="K44">_xlfn.IFS(Table1[[#This Row],[Standard Base Unit]]=Table1[[#This Row],[Target Unit]],Table1[[#This Row],[Standard Stock Value]]/Table1[[#This Row],[Target Value]],
 SUBSTITUTE(Table1[[#This Row],[Target Unit]],Table1[[#This Row],[Standard Base Unit]],"")="m",Table1[[#This Row],[Standard Stock Value]]/Table1[[#This Row],[Target Value]]*1000,
 SUBSTITUTE(Table1[[#This Row],[Target Unit]],Table1[[#This Row],[Standard Base Unit]],"")="µ",Table1[[#This Row],[Standard Stock Value]]/Table1[[#This Row],[Target Value]]*1000000,
 SUBSTITUTE(Table1[[#This Row],[Target Unit]],Table1[[#This Row],[Standard Base Unit]],"")="n",Table1[[#This Row],[Standard Stock Value]]/Table1[[#This Row],[Target Value]]*1000000000,
@@ -2251,44 +3443,44 @@
 TRUE, "!!!")</f>
         <v>!!!</v>
       </c>
-      <c r="L23" s="15" t="str" cm="1">
-        <f t="array" ref="L23">_xlfn.IFS(Table1[[#This Row],[Format]]="Powder","g/L",Table1[[#This Row],[Format]]="Liquid",":1 (" &amp; 1000/Table1[[#This Row],[Amount Needed]] &amp;  " mL/L)", TRUE, "!!!")</f>
+      <c r="L44" s="15" t="str" cm="1">
+        <f t="array" ref="L44">_xlfn.IFS(Table1[[#This Row],[Format]]="Powder","g/L",Table1[[#This Row],[Format]]="Liquid",":1 (" &amp; 1000/Table1[[#This Row],[Amount Needed]] &amp;  " mL/L)", TRUE, "!!!")</f>
         <v>g/L</v>
       </c>
-      <c r="M23" s="1" t="s">
+      <c r="M44" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B24" s="1" t="s">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B45" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C45" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="D45" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E24" s="22">
+      <c r="E45" s="22">
         <v>10</v>
       </c>
-      <c r="F24" s="23" t="s">
+      <c r="F45" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="G24" s="10" t="str" cm="1">
-        <f t="array" ref="G24">_xlfn.IFS(Table1[[#This Row],[Stock Unit]]="NA","NA",Table1[[#This Row],[Stock Unit]]="g/mol",Table1[[#This Row],[MW (g/mol)]],Table1[[#This Row],[Stock Unit]]="M",Table1[[#This Row],[Stock Value]],Table1[[#This Row],[Stock Unit]]="mM",Table1[[#This Row],[Stock Value]]/1000,Table1[[#This Row],[Stock Unit]]="%",Table1[[#This Row],[Stock Value]],Table1[[#This Row],[Stock Unit]]="X",Table1[[#This Row],[Stock Value]],Table1[[#This Row],[Stock Unit]]="µM",Table1[[#This Row],[Stock Value]]/1000000,Table1[[#This Row],[Stock Unit]]="mg/mL",Table1[[#This Row],[Stock Value]],TRUE,"!!!")</f>
+      <c r="G45" s="10" t="str" cm="1">
+        <f t="array" ref="G45">_xlfn.IFS(Table1[[#This Row],[Stock Unit]]="NA","NA",Table1[[#This Row],[Stock Unit]]="g/mol",Table1[[#This Row],[MW (g/mol)]],Table1[[#This Row],[Stock Unit]]="M",Table1[[#This Row],[Stock Value]],Table1[[#This Row],[Stock Unit]]="mM",Table1[[#This Row],[Stock Value]]/1000,Table1[[#This Row],[Stock Unit]]="%",Table1[[#This Row],[Stock Value]],Table1[[#This Row],[Stock Unit]]="X",Table1[[#This Row],[Stock Value]],Table1[[#This Row],[Stock Unit]]="µM",Table1[[#This Row],[Stock Value]]/1000000,Table1[[#This Row],[Stock Unit]]="mg/mL",Table1[[#This Row],[Stock Value]],TRUE,"!!!")</f>
         <v>!!!</v>
       </c>
-      <c r="H24" s="11" t="str" cm="1">
-        <f t="array" ref="H24">_xlfn.IFS(Table1[[#This Row],[Stock Unit]]="g/mol","g/mol",Table1[[#This Row],[Stock Unit]]="NA","NA",Table1[[#This Row],[Stock Unit]]="M","M",Table1[[#This Row],[Stock Unit]]="%","%",Table1[[#This Row],[Stock Unit]]="X","X", Table1[[#This Row],[Stock Unit]]="mg/mL", "mg/mL", TRUE,"!!!")</f>
+      <c r="H45" s="11" t="str" cm="1">
+        <f t="array" ref="H45">_xlfn.IFS(Table1[[#This Row],[Stock Unit]]="g/mol","g/mol",Table1[[#This Row],[Stock Unit]]="NA","NA",Table1[[#This Row],[Stock Unit]]="M","M",Table1[[#This Row],[Stock Unit]]="%","%",Table1[[#This Row],[Stock Unit]]="X","X", Table1[[#This Row],[Stock Unit]]="mg/mL", "mg/mL", TRUE,"!!!")</f>
         <v>!!!</v>
       </c>
-      <c r="I24" s="22"/>
-      <c r="J24" s="25" t="s">
+      <c r="I45" s="22"/>
+      <c r="J45" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="K24" s="14" t="str" cm="1">
-        <f t="array" ref="K24">_xlfn.IFS(Table1[[#This Row],[Standard Base Unit]]=Table1[[#This Row],[Target Unit]],Table1[[#This Row],[Standard Stock Value]]/Table1[[#This Row],[Target Value]],
+      <c r="K45" s="14" t="str" cm="1">
+        <f t="array" ref="K45">_xlfn.IFS(Table1[[#This Row],[Standard Base Unit]]=Table1[[#This Row],[Target Unit]],Table1[[#This Row],[Standard Stock Value]]/Table1[[#This Row],[Target Value]],
 SUBSTITUTE(Table1[[#This Row],[Target Unit]],Table1[[#This Row],[Standard Base Unit]],"")="m",Table1[[#This Row],[Standard Stock Value]]/Table1[[#This Row],[Target Value]]*1000,
 SUBSTITUTE(Table1[[#This Row],[Target Unit]],Table1[[#This Row],[Standard Base Unit]],"")="µ",Table1[[#This Row],[Standard Stock Value]]/Table1[[#This Row],[Target Value]]*1000000,
 SUBSTITUTE(Table1[[#This Row],[Target Unit]],Table1[[#This Row],[Standard Base Unit]],"")="n",Table1[[#This Row],[Standard Stock Value]]/Table1[[#This Row],[Target Value]]*1000000000,
@@ -2300,46 +3492,46 @@
 TRUE, "!!!")</f>
         <v>!!!</v>
       </c>
-      <c r="L24" s="15" t="e" cm="1">
-        <f t="array" ref="L24">_xlfn.IFS(Table1[[#This Row],[Format]]="Powder","g/L",Table1[[#This Row],[Format]]="Liquid",":1 (" &amp; 1000/Table1[[#This Row],[Amount Needed]] &amp;  " mL/L)", TRUE, "!!!")</f>
+      <c r="L45" s="15" t="e" cm="1">
+        <f t="array" ref="L45">_xlfn.IFS(Table1[[#This Row],[Format]]="Powder","g/L",Table1[[#This Row],[Format]]="Liquid",":1 (" &amp; 1000/Table1[[#This Row],[Amount Needed]] &amp;  " mL/L)", TRUE, "!!!")</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M24" s="1" t="s">
+      <c r="M45" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B25" s="1" t="s">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B46" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C46" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D25" s="1">
+      <c r="D46" s="1">
         <v>154.25</v>
       </c>
-      <c r="E25" s="22">
+      <c r="E46" s="22">
         <v>1</v>
       </c>
-      <c r="F25" s="23" t="s">
+      <c r="F46" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="G25" s="10" cm="1">
-        <f t="array" ref="G25">_xlfn.IFS(Table1[[#This Row],[Stock Unit]]="NA","NA",Table1[[#This Row],[Stock Unit]]="g/mol",Table1[[#This Row],[MW (g/mol)]],Table1[[#This Row],[Stock Unit]]="M",Table1[[#This Row],[Stock Value]],Table1[[#This Row],[Stock Unit]]="mM",Table1[[#This Row],[Stock Value]]/1000,Table1[[#This Row],[Stock Unit]]="%",Table1[[#This Row],[Stock Value]],Table1[[#This Row],[Stock Unit]]="X",Table1[[#This Row],[Stock Value]],Table1[[#This Row],[Stock Unit]]="µM",Table1[[#This Row],[Stock Value]]/1000000,Table1[[#This Row],[Stock Unit]]="mg/mL",Table1[[#This Row],[Stock Value]],TRUE,"!!!")</f>
+      <c r="G46" s="10" cm="1">
+        <f t="array" ref="G46">_xlfn.IFS(Table1[[#This Row],[Stock Unit]]="NA","NA",Table1[[#This Row],[Stock Unit]]="g/mol",Table1[[#This Row],[MW (g/mol)]],Table1[[#This Row],[Stock Unit]]="M",Table1[[#This Row],[Stock Value]],Table1[[#This Row],[Stock Unit]]="mM",Table1[[#This Row],[Stock Value]]/1000,Table1[[#This Row],[Stock Unit]]="%",Table1[[#This Row],[Stock Value]],Table1[[#This Row],[Stock Unit]]="X",Table1[[#This Row],[Stock Value]],Table1[[#This Row],[Stock Unit]]="µM",Table1[[#This Row],[Stock Value]]/1000000,Table1[[#This Row],[Stock Unit]]="mg/mL",Table1[[#This Row],[Stock Value]],TRUE,"!!!")</f>
         <v>1</v>
       </c>
-      <c r="H25" s="11" t="str" cm="1">
-        <f t="array" ref="H25">_xlfn.IFS(Table1[[#This Row],[Stock Unit]]="g/mol","g/mol",Table1[[#This Row],[Stock Unit]]="NA","NA",Table1[[#This Row],[Stock Unit]]="M","M",Table1[[#This Row],[Stock Unit]]="%","%",Table1[[#This Row],[Stock Unit]]="X","X", Table1[[#This Row],[Stock Unit]]="mg/mL", "mg/mL", TRUE,"!!!")</f>
+      <c r="H46" s="11" t="str" cm="1">
+        <f t="array" ref="H46">_xlfn.IFS(Table1[[#This Row],[Stock Unit]]="g/mol","g/mol",Table1[[#This Row],[Stock Unit]]="NA","NA",Table1[[#This Row],[Stock Unit]]="M","M",Table1[[#This Row],[Stock Unit]]="%","%",Table1[[#This Row],[Stock Unit]]="X","X", Table1[[#This Row],[Stock Unit]]="mg/mL", "mg/mL", TRUE,"!!!")</f>
         <v>M</v>
       </c>
-      <c r="I25" s="22">
+      <c r="I46" s="22">
         <v>100</v>
       </c>
-      <c r="J25" s="25" t="s">
+      <c r="J46" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="K25" s="14" cm="1">
-        <f t="array" ref="K25">_xlfn.IFS(Table1[[#This Row],[Standard Base Unit]]=Table1[[#This Row],[Target Unit]],Table1[[#This Row],[Standard Stock Value]]/Table1[[#This Row],[Target Value]],
+      <c r="K46" s="14" cm="1">
+        <f t="array" ref="K46">_xlfn.IFS(Table1[[#This Row],[Standard Base Unit]]=Table1[[#This Row],[Target Unit]],Table1[[#This Row],[Standard Stock Value]]/Table1[[#This Row],[Target Value]],
 SUBSTITUTE(Table1[[#This Row],[Target Unit]],Table1[[#This Row],[Standard Base Unit]],"")="m",Table1[[#This Row],[Standard Stock Value]]/Table1[[#This Row],[Target Value]]*1000,
 SUBSTITUTE(Table1[[#This Row],[Target Unit]],Table1[[#This Row],[Standard Base Unit]],"")="µ",Table1[[#This Row],[Standard Stock Value]]/Table1[[#This Row],[Target Value]]*1000000,
 SUBSTITUTE(Table1[[#This Row],[Target Unit]],Table1[[#This Row],[Standard Base Unit]],"")="n",Table1[[#This Row],[Standard Stock Value]]/Table1[[#This Row],[Target Value]]*1000000000,
@@ -2351,26 +3543,26 @@
 TRUE, "!!!")</f>
         <v>10</v>
       </c>
-      <c r="L25" s="15" t="str" cm="1">
-        <f t="array" ref="L25">_xlfn.IFS(Table1[[#This Row],[Format]]="Powder","g/L",Table1[[#This Row],[Format]]="Liquid",":1 (" &amp; 1000/Table1[[#This Row],[Amount Needed]] &amp;  " mL/L)", TRUE, "!!!")</f>
+      <c r="L46" s="15" t="str" cm="1">
+        <f t="array" ref="L46">_xlfn.IFS(Table1[[#This Row],[Format]]="Powder","g/L",Table1[[#This Row],[Format]]="Liquid",":1 (" &amp; 1000/Table1[[#This Row],[Amount Needed]] &amp;  " mL/L)", TRUE, "!!!")</f>
         <v>:1 (100 mL/L)</v>
       </c>
-      <c r="M25" s="1" t="s">
+      <c r="M46" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="35" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I35" s="25" t="s">
+    <row r="56" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I56" s="25" t="s">
         <v>30</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A25" xr:uid="{7D9B86D3-FB39-431E-A5BA-4B412B7990DF}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A46" xr:uid="{7D9B86D3-FB39-431E-A5BA-4B412B7990DF}">
       <formula1>BufferID</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C25" xr:uid="{0B8F643F-CE16-46D6-8625-FD78F553B6E7}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C46" xr:uid="{0B8F643F-CE16-46D6-8625-FD78F553B6E7}">
       <formula1>Format</formula1>
     </dataValidation>
   </dataValidations>
@@ -2387,7 +3579,7 @@
   <dimension ref="B1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
